--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1024,7 +1024,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
@@ -1037,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1045,7 +1049,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="13">
@@ -1456,7 +1460,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1521,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>89351</v>
+        <v>89416</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1529,7 +1533,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="21">
@@ -1897,7 +1901,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1945,7 +1949,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
@@ -1958,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>17179</v>
+        <v>17221</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -1966,7 +1974,7 @@
         </is>
       </c>
       <c r="U25" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="26">
@@ -2092,7 +2100,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2140,7 +2148,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
@@ -2153,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21404</v>
+        <v>21598</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2161,7 +2173,7 @@
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="29">
@@ -2591,7 +2603,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2639,7 +2651,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
@@ -2652,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9930</v>
+        <v>10124</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -2660,7 +2676,7 @@
         </is>
       </c>
       <c r="U35" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="36">
@@ -2765,7 +2781,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2023/07/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2800,8 +2816,16 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
@@ -2814,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>13112</v>
+        <v>13398</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -2822,7 +2846,7 @@
         </is>
       </c>
       <c r="U37" s="2" t="n">
-        <v>45125</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="38">
@@ -3053,7 +3077,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3101,7 +3125,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
@@ -3114,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5531</v>
+        <v>5598</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3122,7 +3150,7 @@
         </is>
       </c>
       <c r="U41" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="42">
@@ -3600,7 +3628,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3639,8 +3667,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
@@ -3653,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>15871</v>
+        <v>16353</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3661,7 +3697,7 @@
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45183</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="49">
@@ -3677,7 +3713,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3725,9 +3761,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
@@ -3738,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>52660</v>
+        <v>53479</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -3746,7 +3794,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="50">
@@ -3762,7 +3810,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3810,7 +3858,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
@@ -3823,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>4918</v>
+        <v>4969</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -3831,7 +3883,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="51">
@@ -3936,7 +3988,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3984,7 +4036,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
@@ -3997,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>13005</v>
+        <v>13218</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4005,7 +4061,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="53">
@@ -4110,7 +4166,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4179,7 +4235,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="55">
@@ -4195,7 +4251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4239,7 +4295,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
@@ -4252,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>848</v>
+        <v>900</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -4260,7 +4320,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="56">
@@ -4499,7 +4559,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4543,7 +4603,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
@@ -4556,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>16346</v>
+        <v>16491</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -4564,7 +4628,7 @@
         </is>
       </c>
       <c r="U59" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="60">
@@ -4669,7 +4733,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4717,7 +4781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
@@ -4730,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -4738,7 +4806,7 @@
         </is>
       </c>
       <c r="U61" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="62">
@@ -4754,7 +4822,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4823,7 +4891,7 @@
         </is>
       </c>
       <c r="U62" s="2" t="n">
-        <v>45210</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="63">
@@ -4928,7 +4996,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4972,7 +5040,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
@@ -4985,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>45305</v>
+        <v>45841</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -4993,7 +5065,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45229</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="65">
@@ -5009,7 +5081,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5057,7 +5129,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
@@ -5070,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>12958</v>
+        <v>13167</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5078,7 +5154,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="66">
@@ -5094,7 +5170,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5122,7 +5198,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -5139,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>3502</v>
+        <v>3667</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -5147,7 +5227,7 @@
         </is>
       </c>
       <c r="U66" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="67">
@@ -5289,7 +5369,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5337,7 +5417,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
@@ -5350,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>9103</v>
+        <v>9201</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -5358,7 +5442,7 @@
         </is>
       </c>
       <c r="U69" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="70">
@@ -5585,7 +5669,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5633,7 +5717,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
@@ -5646,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>15157</v>
+        <v>15260</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -5654,7 +5742,7 @@
         </is>
       </c>
       <c r="U73" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="74">
@@ -5877,7 +5965,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5942,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>20706</v>
+        <v>20705</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -5950,7 +6038,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="78">
@@ -5966,7 +6054,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6014,7 +6102,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -6027,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>17305</v>
+        <v>17370</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6035,7 +6127,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="79">
@@ -6403,7 +6495,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6472,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>8952</v>
+        <v>9089</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -6480,7 +6572,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="84">
@@ -6496,7 +6588,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6557,7 +6649,7 @@
         </is>
       </c>
       <c r="U84" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="85">
@@ -6666,7 +6758,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6714,7 +6806,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
@@ -6727,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>11501</v>
+        <v>11529</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -6735,7 +6831,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45222</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="87">
@@ -7014,7 +7110,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7062,7 +7158,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
@@ -7075,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>11683</v>
+        <v>11849</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -7083,7 +7183,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="91">
@@ -7099,7 +7199,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7147,7 +7247,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
@@ -7160,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>12095</v>
+        <v>12187</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -7168,7 +7272,7 @@
         </is>
       </c>
       <c r="U91" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="92">
@@ -7269,7 +7373,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -7317,7 +7421,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
@@ -7330,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>19854</v>
+        <v>19908</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -7338,7 +7446,7 @@
         </is>
       </c>
       <c r="U93" s="2" t="n">
-        <v>45209</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="94">
@@ -7889,7 +7997,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -7937,7 +8045,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>x</t>
@@ -7954,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>9363</v>
+        <v>9451</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -7962,7 +8074,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="102">
@@ -8156,7 +8268,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -8204,7 +8316,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="n">
@@ -8217,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>16862</v>
+        <v>17309</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -8225,7 +8341,7 @@
         </is>
       </c>
       <c r="U104" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="105">
@@ -8241,7 +8357,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8310,7 +8426,7 @@
         </is>
       </c>
       <c r="U105" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="106">
@@ -8326,7 +8442,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -8374,7 +8490,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
@@ -8387,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>51554</v>
+        <v>52230</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -8395,7 +8515,7 @@
         </is>
       </c>
       <c r="U106" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="107">
@@ -8411,7 +8531,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8459,7 +8579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
@@ -8472,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>11280</v>
+        <v>11438</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -8480,7 +8604,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="108">
@@ -8496,7 +8620,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -8544,7 +8668,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
@@ -8557,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>11958</v>
+        <v>12178</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -8565,7 +8693,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="109">
@@ -8759,7 +8887,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -8807,7 +8935,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
@@ -8820,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>6070</v>
+        <v>6142</v>
       </c>
       <c r="T111" t="inlineStr">
         <is>
@@ -8828,7 +8960,7 @@
         </is>
       </c>
       <c r="U111" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="112">
@@ -8925,7 +9057,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -8990,7 +9122,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="114">
@@ -9229,7 +9361,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -9277,7 +9409,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
@@ -9290,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>11572</v>
+        <v>11770</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -9298,7 +9434,7 @@
         </is>
       </c>
       <c r="U117" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="118">
@@ -9484,7 +9620,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -9532,7 +9668,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
@@ -9545,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>2299</v>
+        <v>2333</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -9553,7 +9693,7 @@
         </is>
       </c>
       <c r="U120" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="121">
@@ -9569,7 +9709,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9617,7 +9757,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
@@ -9630,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>55397</v>
+        <v>55887</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -9638,7 +9782,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="122">
@@ -9654,7 +9798,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -9703,7 +9847,7 @@
         </is>
       </c>
       <c r="U122" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="123">
@@ -9719,7 +9863,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9767,7 +9911,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
@@ -9780,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>19182</v>
+        <v>19380</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
@@ -9788,7 +9936,7 @@
         </is>
       </c>
       <c r="U123" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="124">
@@ -9804,7 +9952,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9852,7 +10000,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
@@ -9865,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="T124" t="inlineStr">
         <is>
@@ -9873,7 +10025,7 @@
         </is>
       </c>
       <c r="U124" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="125">
@@ -9889,7 +10041,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -9932,8 +10084,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
@@ -9946,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>30655</v>
+        <v>31723</v>
       </c>
       <c r="T125" t="inlineStr">
         <is>
@@ -9954,7 +10114,7 @@
         </is>
       </c>
       <c r="U125" s="2" t="n">
-        <v>45189</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="126">
@@ -10059,7 +10219,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -10107,7 +10267,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
@@ -10120,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>7442</v>
+        <v>7472</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -10128,7 +10292,7 @@
         </is>
       </c>
       <c r="U127" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="128">
@@ -10217,7 +10381,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -10265,7 +10429,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="n">
@@ -10278,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>38397</v>
+        <v>38886</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -10286,7 +10454,7 @@
         </is>
       </c>
       <c r="U129" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="130">
@@ -10480,7 +10648,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -10528,7 +10696,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -10541,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>3068</v>
+        <v>3138</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -10549,7 +10721,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="133">
@@ -10828,7 +11000,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10876,7 +11048,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
@@ -10889,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>4271</v>
+        <v>4286</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -10897,7 +11073,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="137">
@@ -11346,7 +11522,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -11390,7 +11566,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="n">
@@ -11403,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>24376</v>
+        <v>24576</v>
       </c>
       <c r="T142" t="inlineStr">
         <is>
@@ -11411,7 +11591,7 @@
         </is>
       </c>
       <c r="U142" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="143">
@@ -11427,7 +11607,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -11471,7 +11651,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
@@ -11484,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>6034</v>
+        <v>6201</v>
       </c>
       <c r="T143" t="inlineStr">
         <is>
@@ -11492,7 +11676,7 @@
         </is>
       </c>
       <c r="U143" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="144">
@@ -11508,7 +11692,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -11556,7 +11740,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="n">
@@ -11569,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>27789</v>
+        <v>28021</v>
       </c>
       <c r="T144" t="inlineStr">
         <is>
@@ -11577,7 +11765,7 @@
         </is>
       </c>
       <c r="U144" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="145">
@@ -12123,7 +12311,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -12171,7 +12359,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="n">
@@ -12184,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>36984</v>
+        <v>37457</v>
       </c>
       <c r="T151" t="inlineStr">
         <is>
@@ -12192,7 +12384,7 @@
         </is>
       </c>
       <c r="U151" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="152">
@@ -12378,7 +12570,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -12426,7 +12618,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
@@ -12439,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>182438</v>
+        <v>184838</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -12447,7 +12643,7 @@
         </is>
       </c>
       <c r="U154" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="155">
@@ -12463,7 +12659,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -12536,7 +12732,7 @@
         </is>
       </c>
       <c r="U155" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="156">
@@ -12552,7 +12748,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -12585,7 +12781,7 @@
         </is>
       </c>
       <c r="U156" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="157">
@@ -12690,7 +12886,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12738,7 +12934,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N158" t="inlineStr">
         <is>
           <t>x</t>
@@ -12755,7 +12955,7 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>19708</v>
+        <v>19826</v>
       </c>
       <c r="T158" t="inlineStr">
         <is>
@@ -12763,7 +12963,7 @@
         </is>
       </c>
       <c r="U158" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="159">
@@ -12779,7 +12979,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -12827,7 +13027,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="n">
@@ -12840,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>11276</v>
+        <v>11517</v>
       </c>
       <c r="T159" t="inlineStr">
         <is>
@@ -12848,7 +13052,7 @@
         </is>
       </c>
       <c r="U159" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="160">
@@ -12913,7 +13117,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -12961,7 +13165,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
@@ -12974,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>1573</v>
+        <v>1601</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -12982,7 +13190,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="162">
@@ -13257,7 +13465,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13330,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>25456</v>
+        <v>25632</v>
       </c>
       <c r="T165" t="inlineStr">
         <is>
@@ -13338,7 +13546,7 @@
         </is>
       </c>
       <c r="U165" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="166">
@@ -13354,7 +13562,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13402,7 +13610,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
@@ -13415,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>18736</v>
+        <v>19218</v>
       </c>
       <c r="T166" t="inlineStr">
         <is>
@@ -13423,7 +13635,7 @@
         </is>
       </c>
       <c r="U166" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="167">
@@ -13706,7 +13918,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13749,7 +13961,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -13763,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>9889</v>
+        <v>10038</v>
       </c>
       <c r="T170" t="inlineStr">
         <is>
@@ -13771,7 +13987,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45190</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="171">
@@ -13787,7 +14003,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13835,7 +14051,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="n">
@@ -13848,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>10795</v>
+        <v>10954</v>
       </c>
       <c r="T171" t="inlineStr">
         <is>
@@ -13856,7 +14076,7 @@
         </is>
       </c>
       <c r="U171" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="172">
@@ -14216,7 +14436,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -14264,7 +14484,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
@@ -14281,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>7699</v>
+        <v>7836</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -14289,7 +14513,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45209</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="177">
@@ -14670,7 +14894,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -14718,7 +14942,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
@@ -14731,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>1116</v>
+        <v>1152</v>
       </c>
       <c r="T182" t="inlineStr">
         <is>
@@ -14739,7 +14967,7 @@
         </is>
       </c>
       <c r="U182" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="183">
@@ -14755,7 +14983,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -14803,7 +15031,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="n">
@@ -14816,7 +15048,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>6508</v>
+        <v>6557</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -14824,7 +15056,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="184">
@@ -15621,7 +15853,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -15669,7 +15901,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
       <c r="P193" t="n">
@@ -15682,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>23562</v>
+        <v>23903</v>
       </c>
       <c r="T193" t="inlineStr">
         <is>
@@ -15690,7 +15926,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="194">
@@ -15795,7 +16031,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -15843,7 +16079,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
@@ -15860,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>10128</v>
+        <v>10301</v>
       </c>
       <c r="T195" t="inlineStr">
         <is>
@@ -15868,7 +16108,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="196">
@@ -15973,7 +16213,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -16021,7 +16261,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
@@ -16034,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>6008</v>
+        <v>6128</v>
       </c>
       <c r="T197" t="inlineStr">
         <is>
@@ -16042,7 +16286,7 @@
         </is>
       </c>
       <c r="U197" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="198">
@@ -16058,7 +16302,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -16106,7 +16350,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
       <c r="P198" t="n">
@@ -16119,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>81718</v>
+        <v>81791</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -16127,7 +16375,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="199">
@@ -16208,7 +16456,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -16241,7 +16489,7 @@
         </is>
       </c>
       <c r="U200" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="201">
@@ -16346,7 +16594,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -16394,7 +16642,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="n">
@@ -16407,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>4103</v>
+        <v>4139</v>
       </c>
       <c r="T202" t="inlineStr">
         <is>
@@ -16415,7 +16667,7 @@
         </is>
       </c>
       <c r="U202" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="203">
@@ -16431,7 +16683,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -16496,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>11443</v>
+        <v>11560</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -16504,7 +16756,7 @@
         </is>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="204">
@@ -16609,7 +16861,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -16653,7 +16905,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="n">
@@ -16666,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -16674,7 +16930,7 @@
         </is>
       </c>
       <c r="U205" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="206">
@@ -16775,7 +17031,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -16844,7 +17100,7 @@
         </is>
       </c>
       <c r="U207" s="2" t="n">
-        <v>45219</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="208">
@@ -17038,7 +17294,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -17086,7 +17342,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
@@ -17099,7 +17359,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>191326</v>
+        <v>193241</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -17107,7 +17367,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="211">
@@ -17386,7 +17646,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -17434,7 +17694,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="n">
@@ -17447,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>1959</v>
+        <v>1988</v>
       </c>
       <c r="T214" t="inlineStr">
         <is>
@@ -17455,7 +17719,7 @@
         </is>
       </c>
       <c r="U214" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="215">
@@ -17556,7 +17820,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -17621,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="n">
-        <v>10706</v>
+        <v>10915</v>
       </c>
       <c r="T216" t="inlineStr">
         <is>
@@ -17629,7 +17893,7 @@
         </is>
       </c>
       <c r="U216" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="217">
@@ -17645,7 +17909,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -17693,7 +17957,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
@@ -17706,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="S217" t="n">
-        <v>23145</v>
+        <v>23391</v>
       </c>
       <c r="T217" t="inlineStr">
         <is>
@@ -17714,7 +17982,7 @@
         </is>
       </c>
       <c r="U217" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="218">
@@ -18086,7 +18354,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -18130,7 +18398,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -18143,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -18151,7 +18423,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45232</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="223">
@@ -18345,7 +18617,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -18385,7 +18657,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
@@ -18398,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -18406,7 +18682,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="226">
@@ -18507,7 +18783,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -18580,7 +18856,7 @@
         </is>
       </c>
       <c r="U227" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="228">
@@ -18596,7 +18872,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -18644,7 +18920,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="n">
@@ -18657,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>15517</v>
+        <v>15709</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -18665,7 +18945,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="229">
@@ -18681,7 +18961,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -18729,7 +19009,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
@@ -18742,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>3868</v>
+        <v>3934</v>
       </c>
       <c r="T229" t="inlineStr">
         <is>
@@ -18750,7 +19034,7 @@
         </is>
       </c>
       <c r="U229" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="230">
@@ -18948,7 +19232,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2023/09/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -18992,7 +19276,11 @@
         </is>
       </c>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="n">
@@ -19005,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T232" t="inlineStr">
         <is>
@@ -19013,7 +19301,7 @@
         </is>
       </c>
       <c r="U232" s="2" t="n">
-        <v>45182</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="233">
@@ -19385,7 +19673,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -19433,7 +19721,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
       <c r="P237" t="n">
@@ -19446,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>7717</v>
+        <v>7796</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -19454,7 +19746,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="238">
@@ -20154,7 +20446,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -20202,7 +20494,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="n">
@@ -20215,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>9660</v>
+        <v>9835</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -20223,7 +20519,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="247">
@@ -20324,7 +20620,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -20360,7 +20656,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="n">
@@ -20373,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>5619</v>
+        <v>5667</v>
       </c>
       <c r="T248" t="inlineStr">
         <is>
@@ -20381,7 +20681,7 @@
         </is>
       </c>
       <c r="U248" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="249">
@@ -20575,7 +20875,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -20623,7 +20923,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="n">
@@ -20636,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>5792</v>
+        <v>5908</v>
       </c>
       <c r="T251" t="inlineStr">
         <is>
@@ -20644,7 +20948,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="252">
@@ -20745,7 +21049,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -20814,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>49962</v>
+        <v>50312</v>
       </c>
       <c r="T253" t="inlineStr">
         <is>
@@ -20822,7 +21126,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="254">
@@ -20838,7 +21142,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -20886,7 +21190,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="n">
@@ -20899,7 +21207,7 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>10515</v>
+        <v>10609</v>
       </c>
       <c r="T254" t="inlineStr">
         <is>
@@ -20907,7 +21215,7 @@
         </is>
       </c>
       <c r="U254" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="255">
@@ -20923,7 +21231,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -20971,7 +21279,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="n">
@@ -20984,7 +21296,7 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>10370</v>
+        <v>10612</v>
       </c>
       <c r="T255" t="inlineStr">
         <is>
@@ -20992,7 +21304,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="256">
@@ -21089,7 +21401,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -21162,7 +21474,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="258">
@@ -21336,7 +21648,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -21409,7 +21721,7 @@
         <v>0</v>
       </c>
       <c r="S260" t="n">
-        <v>22793</v>
+        <v>23022</v>
       </c>
       <c r="T260" t="inlineStr">
         <is>
@@ -21417,7 +21729,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="261">
@@ -21522,7 +21834,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -21587,7 +21899,7 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>11948</v>
+        <v>12004</v>
       </c>
       <c r="T262" t="inlineStr">
         <is>
@@ -21595,7 +21907,7 @@
         </is>
       </c>
       <c r="U262" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="263">
@@ -21611,7 +21923,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -21676,7 +21988,7 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>10774</v>
+        <v>10770</v>
       </c>
       <c r="T263" t="inlineStr">
         <is>
@@ -21684,7 +21996,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="264">
@@ -21789,7 +22101,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -21862,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>24189</v>
+        <v>24845</v>
       </c>
       <c r="T265" t="inlineStr">
         <is>
@@ -21870,7 +22182,7 @@
         </is>
       </c>
       <c r="U265" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="266">
@@ -22064,7 +22376,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -22112,7 +22424,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="n">
@@ -22125,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="S268" t="n">
-        <v>17159</v>
+        <v>17330</v>
       </c>
       <c r="T268" t="inlineStr">
         <is>
@@ -22133,7 +22449,7 @@
         </is>
       </c>
       <c r="U268" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="269">
@@ -23266,7 +23582,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -23314,7 +23630,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
       <c r="P282" t="n">
@@ -23327,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="S282" t="n">
-        <v>10110</v>
+        <v>10275</v>
       </c>
       <c r="T282" t="inlineStr">
         <is>
@@ -23335,7 +23655,7 @@
         </is>
       </c>
       <c r="U282" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="283">
@@ -23351,7 +23671,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -23399,8 +23719,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr"/>
-      <c r="N283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O283" t="inlineStr"/>
       <c r="P283" t="n">
         <v>0</v>
@@ -23412,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>33148</v>
+        <v>33529</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -23420,7 +23748,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="284">
@@ -23805,7 +24133,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -23853,7 +24181,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
@@ -23866,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="S289" t="n">
-        <v>39791</v>
+        <v>40382</v>
       </c>
       <c r="T289" t="inlineStr">
         <is>
@@ -23874,7 +24206,7 @@
         </is>
       </c>
       <c r="U289" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="290">
@@ -24129,7 +24461,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -24177,7 +24509,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="n">
@@ -24190,7 +24526,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>16058</v>
+        <v>16104</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -24198,7 +24534,7 @@
         </is>
       </c>
       <c r="U293" s="2" t="n">
-        <v>45214</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="294">
@@ -24728,7 +25064,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
@@ -24739,12 +25075,12 @@
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="n">
@@ -24757,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="T300" t="inlineStr">
         <is>
@@ -24765,7 +25101,7 @@
         </is>
       </c>
       <c r="U300" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="301">
@@ -25186,7 +25522,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -25234,7 +25570,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="n">
@@ -25247,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>12202</v>
+        <v>12449</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -25255,7 +25595,7 @@
         </is>
       </c>
       <c r="U306" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="307">
@@ -25433,7 +25773,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -25481,7 +25821,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
       <c r="P309" t="n">
@@ -25494,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="n">
-        <v>21867</v>
+        <v>22108</v>
       </c>
       <c r="T309" t="inlineStr">
         <is>
@@ -25502,7 +25846,7 @@
         </is>
       </c>
       <c r="U309" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="310">
@@ -25599,7 +25943,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -25647,7 +25991,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
@@ -25664,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="S311" t="n">
-        <v>4886</v>
+        <v>4941</v>
       </c>
       <c r="T311" t="inlineStr">
         <is>
@@ -25672,7 +26020,7 @@
         </is>
       </c>
       <c r="U311" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="312">
@@ -26097,7 +26445,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -26145,7 +26493,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="n">
@@ -26158,7 +26510,7 @@
         <v>0</v>
       </c>
       <c r="S317" t="n">
-        <v>7372</v>
+        <v>7440</v>
       </c>
       <c r="T317" t="inlineStr">
         <is>
@@ -26166,7 +26518,7 @@
         </is>
       </c>
       <c r="U317" s="2" t="n">
-        <v>45217</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="318">
@@ -26182,7 +26534,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -26235,7 +26587,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="319">
@@ -26425,7 +26777,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -26473,7 +26825,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="n">
@@ -26486,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>24733</v>
+        <v>25194</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -26494,7 +26850,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="322">
@@ -26955,7 +27311,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -26998,8 +27354,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
       <c r="P327" t="n">
@@ -27012,7 +27376,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>19099</v>
+        <v>19553</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -27020,7 +27384,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45184</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="328">
@@ -27036,7 +27400,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -27101,7 +27465,7 @@
         <v>0</v>
       </c>
       <c r="S328" t="n">
-        <v>16267</v>
+        <v>16266</v>
       </c>
       <c r="T328" t="inlineStr">
         <is>
@@ -27109,7 +27473,7 @@
         </is>
       </c>
       <c r="U328" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="329">
@@ -27202,7 +27566,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -27271,7 +27635,7 @@
         </is>
       </c>
       <c r="U330" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="331">
@@ -27287,7 +27651,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -27335,7 +27699,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="n">
@@ -27348,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="S331" t="n">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="T331" t="inlineStr">
         <is>
@@ -27356,7 +27724,7 @@
         </is>
       </c>
       <c r="U331" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="332">
@@ -27461,7 +27829,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -27509,7 +27877,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="n">
@@ -27522,7 +27894,7 @@
         <v>0</v>
       </c>
       <c r="S333" t="n">
-        <v>6252</v>
+        <v>6295</v>
       </c>
       <c r="T333" t="inlineStr">
         <is>
@@ -27530,7 +27902,7 @@
         </is>
       </c>
       <c r="U333" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="334">
@@ -28068,7 +28440,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2023/09/25</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -28111,8 +28483,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
@@ -28125,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>12194</v>
+        <v>12523</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -28133,7 +28513,7 @@
         </is>
       </c>
       <c r="U340" s="2" t="n">
-        <v>45194</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="341">
@@ -28238,7 +28618,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -28286,7 +28666,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
       <c r="P342" t="n">
@@ -28299,7 +28683,7 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>67622</v>
+        <v>69568</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -28307,7 +28691,7 @@
         </is>
       </c>
       <c r="U342" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="343">
@@ -28323,7 +28707,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -28396,7 +28780,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>8969</v>
+        <v>9098</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -28404,7 +28788,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="344">
@@ -28501,7 +28885,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -28566,7 +28950,7 @@
         <v>0</v>
       </c>
       <c r="S345" t="n">
-        <v>10504</v>
+        <v>10724</v>
       </c>
       <c r="T345" t="inlineStr">
         <is>
@@ -28574,7 +28958,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="346">
@@ -28817,7 +29201,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -28865,7 +29249,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
@@ -28882,7 +29270,7 @@
         <v>0</v>
       </c>
       <c r="S349" t="n">
-        <v>7398</v>
+        <v>7435</v>
       </c>
       <c r="T349" t="inlineStr">
         <is>
@@ -28890,7 +29278,7 @@
         </is>
       </c>
       <c r="U349" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="350">
@@ -29165,7 +29553,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D353" t="inlineStr"/>
@@ -29209,7 +29597,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="n">
@@ -29222,7 +29614,7 @@
         <v>0</v>
       </c>
       <c r="S353" t="n">
-        <v>20695</v>
+        <v>21152</v>
       </c>
       <c r="T353" t="inlineStr">
         <is>
@@ -29230,7 +29622,7 @@
         </is>
       </c>
       <c r="U353" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="354">
@@ -29335,7 +29727,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -29383,7 +29775,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="n">
@@ -29396,7 +29792,7 @@
         <v>0</v>
       </c>
       <c r="S355" t="n">
-        <v>2238</v>
+        <v>2250</v>
       </c>
       <c r="T355" t="inlineStr">
         <is>
@@ -29404,7 +29800,7 @@
         </is>
       </c>
       <c r="U355" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="356">
@@ -29420,7 +29816,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -29468,7 +29864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="n">
@@ -29481,7 +29881,7 @@
         <v>0</v>
       </c>
       <c r="S356" t="n">
-        <v>8429</v>
+        <v>8608</v>
       </c>
       <c r="T356" t="inlineStr">
         <is>
@@ -29489,7 +29889,7 @@
         </is>
       </c>
       <c r="U356" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="357">
@@ -29505,7 +29905,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -29553,7 +29953,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
@@ -29566,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -29574,7 +29978,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45239</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="358">
@@ -30355,7 +30759,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -30398,8 +30802,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
       <c r="P367" t="n">
@@ -30412,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S367" t="n">
-        <v>1824</v>
+        <v>1886</v>
       </c>
       <c r="T367" t="inlineStr">
         <is>
@@ -30420,7 +30832,7 @@
         </is>
       </c>
       <c r="U367" s="2" t="n">
-        <v>45201</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="368">
@@ -30525,7 +30937,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
@@ -30558,7 +30970,7 @@
         </is>
       </c>
       <c r="U369" s="2" t="n">
-        <v>45215</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="370">
@@ -30752,7 +31164,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -30813,7 +31225,7 @@
         <v>0</v>
       </c>
       <c r="S372" t="n">
-        <v>18492</v>
+        <v>18693</v>
       </c>
       <c r="T372" t="inlineStr">
         <is>
@@ -30821,7 +31233,7 @@
         </is>
       </c>
       <c r="U372" s="2" t="n">
-        <v>45233</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="373">
@@ -31015,7 +31427,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -31063,7 +31475,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M375" t="inlineStr"/>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="n">
@@ -31076,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="S375" t="n">
-        <v>14990</v>
+        <v>15195</v>
       </c>
       <c r="T375" t="inlineStr">
         <is>
@@ -31084,7 +31500,7 @@
         </is>
       </c>
       <c r="U375" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="376">
@@ -31185,7 +31601,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -31233,7 +31649,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M377" t="inlineStr"/>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N377" t="inlineStr">
         <is>
           <t>x</t>
@@ -31250,7 +31670,7 @@
         <v>0</v>
       </c>
       <c r="S377" t="n">
-        <v>25551</v>
+        <v>25857</v>
       </c>
       <c r="T377" t="inlineStr">
         <is>
@@ -31258,7 +31678,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45204</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="378">
@@ -31691,7 +32111,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -31756,7 +32176,7 @@
         <v>0</v>
       </c>
       <c r="S383" t="n">
-        <v>14522</v>
+        <v>14561</v>
       </c>
       <c r="T383" t="inlineStr">
         <is>
@@ -31764,7 +32184,7 @@
         </is>
       </c>
       <c r="U383" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="384">
@@ -32124,7 +32544,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -32168,7 +32588,11 @@
         </is>
       </c>
       <c r="L388" t="inlineStr"/>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
       <c r="P388" t="n">
@@ -32181,7 +32605,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>25211</v>
+        <v>25519</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -32189,7 +32613,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="389">
@@ -32205,7 +32629,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -32253,7 +32677,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr"/>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
       <c r="P389" t="n">
@@ -32266,7 +32694,7 @@
         <v>0</v>
       </c>
       <c r="S389" t="n">
-        <v>57375</v>
+        <v>57791</v>
       </c>
       <c r="T389" t="inlineStr">
         <is>
@@ -32274,7 +32702,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="390">
@@ -33006,7 +33434,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -33054,7 +33482,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M398" t="inlineStr"/>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
       <c r="P398" t="n">
@@ -33067,7 +33499,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>25787</v>
+        <v>25966</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -33075,7 +33507,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45223</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="399">
@@ -33269,7 +33701,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -33317,7 +33749,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr"/>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr"/>
       <c r="P401" t="n">
@@ -33330,7 +33766,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>13992</v>
+        <v>14122</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -33338,7 +33774,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="402">
@@ -33997,7 +34433,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -34045,7 +34481,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M409" t="inlineStr"/>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="n">
@@ -34058,7 +34498,7 @@
         <v>0</v>
       </c>
       <c r="S409" t="n">
-        <v>8749</v>
+        <v>8935</v>
       </c>
       <c r="T409" t="inlineStr">
         <is>
@@ -34066,7 +34506,7 @@
         </is>
       </c>
       <c r="U409" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="410">
@@ -34082,7 +34522,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -34155,7 +34595,7 @@
         <v>0</v>
       </c>
       <c r="S410" t="n">
-        <v>5413</v>
+        <v>5488</v>
       </c>
       <c r="T410" t="inlineStr">
         <is>
@@ -34163,7 +34603,7 @@
         </is>
       </c>
       <c r="U410" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="411">
@@ -34179,7 +34619,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -34227,7 +34667,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="n">
@@ -34240,7 +34684,7 @@
         <v>0</v>
       </c>
       <c r="S411" t="n">
-        <v>14452</v>
+        <v>14776</v>
       </c>
       <c r="T411" t="inlineStr">
         <is>
@@ -34248,7 +34692,7 @@
         </is>
       </c>
       <c r="U411" s="2" t="n">
-        <v>45212</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="412">
@@ -34349,7 +34793,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -34392,8 +34836,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L413" t="inlineStr"/>
-      <c r="M413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="n">
@@ -34406,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>2179</v>
+        <v>2242</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -34414,7 +34866,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="414">
@@ -34430,7 +34882,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -34499,7 +34951,7 @@
         </is>
       </c>
       <c r="U414" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="415">
@@ -34515,7 +34967,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -34563,7 +35015,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr"/>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="n">
@@ -34576,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="S415" t="n">
-        <v>6943</v>
+        <v>6984</v>
       </c>
       <c r="T415" t="inlineStr">
         <is>
@@ -34584,7 +35040,7 @@
         </is>
       </c>
       <c r="U415" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="416">
@@ -34600,7 +35056,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -34648,7 +35104,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="n">
@@ -34661,7 +35121,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>15861</v>
+        <v>16096</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -34669,7 +35129,7 @@
         </is>
       </c>
       <c r="U416" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="417">
@@ -35134,7 +35594,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -35182,7 +35642,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M422" t="inlineStr"/>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N422" t="inlineStr">
         <is>
           <t>x</t>
@@ -35199,7 +35663,7 @@
         <v>0</v>
       </c>
       <c r="S422" t="n">
-        <v>9730</v>
+        <v>9831</v>
       </c>
       <c r="T422" t="inlineStr">
         <is>
@@ -35207,7 +35671,7 @@
         </is>
       </c>
       <c r="U422" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="423">
@@ -35223,7 +35687,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -35292,7 +35756,7 @@
         </is>
       </c>
       <c r="U423" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="424">
@@ -35308,7 +35772,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -35324,7 +35788,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M424" t="inlineStr"/>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr"/>
       <c r="P424" t="n">
@@ -35345,7 +35813,7 @@
         </is>
       </c>
       <c r="U424" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="425">
@@ -35507,7 +35975,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -35555,7 +36023,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
       <c r="P427" t="n">
@@ -35568,7 +36040,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>6979</v>
+        <v>7079</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -35576,7 +36048,7 @@
         </is>
       </c>
       <c r="U427" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="428">
@@ -35677,7 +36149,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -35725,7 +36197,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="n">
@@ -35738,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="S429" t="n">
-        <v>13432</v>
+        <v>13600</v>
       </c>
       <c r="T429" t="inlineStr">
         <is>
@@ -35746,7 +36222,7 @@
         </is>
       </c>
       <c r="U429" s="2" t="n">
-        <v>45218</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="430">
@@ -35762,7 +36238,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -35810,7 +36286,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M430" t="inlineStr"/>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="n">
@@ -35823,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="S430" t="n">
-        <v>28953</v>
+        <v>29367</v>
       </c>
       <c r="T430" t="inlineStr">
         <is>
@@ -35831,7 +36311,7 @@
         </is>
       </c>
       <c r="U430" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="431">
@@ -35847,7 +36327,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -35890,7 +36370,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M431" t="inlineStr"/>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
@@ -35904,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="S431" t="n">
-        <v>7107</v>
+        <v>7204</v>
       </c>
       <c r="T431" t="inlineStr">
         <is>
@@ -35912,7 +36396,7 @@
         </is>
       </c>
       <c r="U431" s="2" t="n">
-        <v>45183</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="432">
@@ -36195,7 +36679,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -36243,7 +36727,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr"/>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
       <c r="P435" t="n">
@@ -36256,7 +36744,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>17496</v>
+        <v>17593</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -36264,7 +36752,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="436">
@@ -36280,7 +36768,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -36324,7 +36812,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr"/>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
       <c r="P436" t="n">
@@ -36337,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="S436" t="n">
-        <v>3380</v>
+        <v>3389</v>
       </c>
       <c r="T436" t="inlineStr">
         <is>
@@ -36345,7 +36837,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="437">
@@ -36802,7 +37294,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -36850,7 +37342,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M442" t="inlineStr"/>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
       <c r="P442" t="n">
@@ -36863,7 +37359,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="n">
-        <v>2406</v>
+        <v>2426</v>
       </c>
       <c r="T442" t="inlineStr">
         <is>
@@ -36871,7 +37367,7 @@
         </is>
       </c>
       <c r="U442" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="443">
@@ -36887,7 +37383,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -36952,7 +37448,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>20433</v>
+        <v>20803</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -36960,7 +37456,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45238</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="444">
@@ -37247,7 +37743,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -37295,7 +37791,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M447" t="inlineStr"/>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
       <c r="P447" t="n">
@@ -37308,7 +37808,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>20716</v>
+        <v>20962</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -37316,7 +37816,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="448">
@@ -37676,7 +38176,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -37724,7 +38224,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="n">
@@ -37737,7 +38241,7 @@
         <v>0</v>
       </c>
       <c r="S452" t="n">
-        <v>23314</v>
+        <v>23566</v>
       </c>
       <c r="T452" t="inlineStr">
         <is>
@@ -37745,7 +38249,7 @@
         </is>
       </c>
       <c r="U452" s="2" t="n">
-        <v>45224</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="453">
@@ -38028,7 +38532,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -38076,7 +38580,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr"/>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="n">
@@ -38089,7 +38597,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>4409</v>
+        <v>4426</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -38097,7 +38605,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="457">
@@ -38113,7 +38621,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -38157,7 +38665,11 @@
         </is>
       </c>
       <c r="L457" t="inlineStr"/>
-      <c r="M457" t="inlineStr"/>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="n">
@@ -38170,7 +38682,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>5496</v>
+        <v>5595</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -38178,7 +38690,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="458">
@@ -38194,7 +38706,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -38242,7 +38754,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M458" t="inlineStr"/>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="n">
@@ -38255,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>32817</v>
+        <v>33124</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -38263,7 +38779,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="459">
@@ -38627,7 +39143,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -38667,7 +39183,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M463" t="inlineStr"/>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr"/>
       <c r="P463" t="n">
@@ -38680,7 +39200,7 @@
         <v>0</v>
       </c>
       <c r="S463" t="n">
-        <v>955</v>
+        <v>986</v>
       </c>
       <c r="T463" t="inlineStr">
         <is>
@@ -38688,7 +39208,7 @@
         </is>
       </c>
       <c r="U463" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="464">
@@ -38793,7 +39313,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -38841,7 +39361,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M465" t="inlineStr"/>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr"/>
       <c r="P465" t="n">
@@ -38854,7 +39378,7 @@
         <v>0</v>
       </c>
       <c r="S465" t="n">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="T465" t="inlineStr">
         <is>
@@ -38862,7 +39386,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="466">
@@ -38967,7 +39491,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -39036,7 +39560,7 @@
         </is>
       </c>
       <c r="U467" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="468">
@@ -39052,7 +39576,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -39117,7 +39641,7 @@
         </is>
       </c>
       <c r="U468" s="2" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="469">
@@ -39230,7 +39754,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -39279,7 +39803,7 @@
         </is>
       </c>
       <c r="U470" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="471">
@@ -39295,7 +39819,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
@@ -39328,7 +39852,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="472">
@@ -39344,7 +39868,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -39392,7 +39916,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M472" t="inlineStr"/>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr"/>
       <c r="P472" t="n">
@@ -39405,7 +39933,7 @@
         <v>0</v>
       </c>
       <c r="S472" t="n">
-        <v>8315</v>
+        <v>8457</v>
       </c>
       <c r="T472" t="inlineStr">
         <is>
@@ -39413,7 +39941,7 @@
         </is>
       </c>
       <c r="U472" s="2" t="n">
-        <v>45218</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="473">
@@ -39518,7 +40046,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -39566,7 +40094,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M474" t="inlineStr"/>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
       <c r="P474" t="n">
@@ -39579,7 +40111,7 @@
         <v>0</v>
       </c>
       <c r="S474" t="n">
-        <v>2462</v>
+        <v>2485</v>
       </c>
       <c r="T474" t="inlineStr">
         <is>
@@ -39587,7 +40119,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="475">
@@ -39692,7 +40224,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -39757,7 +40289,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>10658</v>
+        <v>10723</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -39765,7 +40297,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="477">
@@ -39870,7 +40402,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
@@ -39903,7 +40435,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="479">
@@ -40000,7 +40532,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -40065,7 +40597,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>5399</v>
+        <v>5477</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -40073,7 +40605,7 @@
         </is>
       </c>
       <c r="U480" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="481">
@@ -40336,7 +40868,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -40384,7 +40916,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M484" t="inlineStr"/>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="n">
@@ -40397,7 +40933,7 @@
         <v>0</v>
       </c>
       <c r="S484" t="n">
-        <v>2363</v>
+        <v>2444</v>
       </c>
       <c r="T484" t="inlineStr">
         <is>
@@ -40405,7 +40941,7 @@
         </is>
       </c>
       <c r="U484" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="485">
@@ -40587,7 +41123,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -40635,7 +41171,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M487" t="inlineStr"/>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr"/>
       <c r="P487" t="n">
@@ -40648,7 +41188,7 @@
         <v>0</v>
       </c>
       <c r="S487" t="n">
-        <v>13058</v>
+        <v>13189</v>
       </c>
       <c r="T487" t="inlineStr">
         <is>
@@ -40656,7 +41196,7 @@
         </is>
       </c>
       <c r="U487" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="488">
@@ -40672,7 +41212,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -40720,7 +41260,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
       <c r="P488" t="n">
@@ -40733,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="S488" t="n">
-        <v>51258</v>
+        <v>52284</v>
       </c>
       <c r="T488" t="inlineStr">
         <is>
@@ -40741,7 +41285,7 @@
         </is>
       </c>
       <c r="U488" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="489">
@@ -40850,7 +41394,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -40893,7 +41437,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M490" t="inlineStr"/>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
@@ -40907,7 +41455,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="n">
-        <v>18194</v>
+        <v>18483</v>
       </c>
       <c r="T490" t="inlineStr">
         <is>
@@ -40915,7 +41463,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45202</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="491">
@@ -40931,7 +41479,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -40975,7 +41523,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M491" t="inlineStr"/>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
       <c r="P491" t="n">
@@ -40988,7 +41540,7 @@
         <v>0</v>
       </c>
       <c r="S491" t="n">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="T491" t="inlineStr">
         <is>
@@ -40996,7 +41548,7 @@
         </is>
       </c>
       <c r="U491" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="492">
@@ -41101,7 +41653,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -41149,7 +41701,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M493" t="inlineStr"/>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr"/>
       <c r="P493" t="n">
@@ -41162,7 +41718,7 @@
         <v>0</v>
       </c>
       <c r="S493" t="n">
-        <v>32202</v>
+        <v>32704</v>
       </c>
       <c r="T493" t="inlineStr">
         <is>
@@ -41170,7 +41726,7 @@
         </is>
       </c>
       <c r="U493" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="494">
@@ -41186,7 +41742,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -41234,7 +41790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M494" t="inlineStr"/>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr"/>
       <c r="P494" t="n">
@@ -41247,7 +41807,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>7500</v>
+        <v>7699</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -41255,7 +41815,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="495">
@@ -41271,7 +41831,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -41304,7 +41864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr"/>
       <c r="M495" t="inlineStr"/>
@@ -41320,7 +41884,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>2014</v>
+        <v>2314</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -41328,7 +41892,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45156</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="496">
@@ -41344,7 +41908,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2023/10/15</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -41392,7 +41956,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M496" t="inlineStr"/>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr"/>
       <c r="P496" t="n">
@@ -41405,7 +41973,7 @@
         <v>0</v>
       </c>
       <c r="S496" t="n">
-        <v>116576</v>
+        <v>119091</v>
       </c>
       <c r="T496" t="inlineStr">
         <is>
@@ -41413,7 +41981,7 @@
         </is>
       </c>
       <c r="U496" s="2" t="n">
-        <v>45214</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="497">
@@ -41789,7 +42357,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -41837,7 +42405,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M501" t="inlineStr"/>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr"/>
       <c r="P501" t="n">
@@ -41850,7 +42422,7 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>33628</v>
+        <v>34088</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
@@ -41858,7 +42430,7 @@
         </is>
       </c>
       <c r="U501" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="502">
@@ -41963,7 +42535,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -42028,7 +42600,7 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>22119</v>
+        <v>22133</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
@@ -42036,7 +42608,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="504">
@@ -42052,7 +42624,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -42117,7 +42689,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="n">
-        <v>7328</v>
+        <v>7394</v>
       </c>
       <c r="T504" t="inlineStr">
         <is>
@@ -42125,7 +42697,7 @@
         </is>
       </c>
       <c r="U504" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="505">
@@ -42408,7 +42980,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -42456,7 +43028,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M508" t="inlineStr"/>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr"/>
       <c r="P508" t="n">
@@ -42469,7 +43045,7 @@
         <v>0</v>
       </c>
       <c r="S508" t="n">
-        <v>1541</v>
+        <v>1553</v>
       </c>
       <c r="T508" t="inlineStr">
         <is>
@@ -42477,7 +43053,7 @@
         </is>
       </c>
       <c r="U508" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="509">
@@ -42574,7 +43150,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -42639,7 +43215,7 @@
         <v>0</v>
       </c>
       <c r="S510" t="n">
-        <v>10770</v>
+        <v>10773</v>
       </c>
       <c r="T510" t="inlineStr">
         <is>
@@ -42647,7 +43223,7 @@
         </is>
       </c>
       <c r="U510" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="511">
@@ -42748,7 +43324,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -42821,7 +43397,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>17661</v>
+        <v>17794</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -42829,7 +43405,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="513">
@@ -43011,7 +43587,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -43059,7 +43635,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M515" t="inlineStr"/>
+      <c r="M515" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr"/>
       <c r="P515" t="n">
@@ -43072,7 +43652,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>6771</v>
+        <v>7006</v>
       </c>
       <c r="T515" t="inlineStr">
         <is>
@@ -43080,7 +43660,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="516">
@@ -43096,7 +43676,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -43144,7 +43724,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M516" t="inlineStr"/>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr"/>
       <c r="P516" t="n">
@@ -43157,7 +43741,7 @@
         <v>0</v>
       </c>
       <c r="S516" t="n">
-        <v>4172</v>
+        <v>4234</v>
       </c>
       <c r="T516" t="inlineStr">
         <is>
@@ -43165,7 +43749,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="517">
@@ -43262,7 +43846,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -43331,7 +43915,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45222</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="519">
@@ -43347,7 +43931,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -43395,7 +43979,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M519" t="inlineStr"/>
+      <c r="M519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr"/>
       <c r="P519" t="n">
@@ -43408,7 +43996,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>4217</v>
+        <v>4254</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -43416,7 +44004,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45223</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="520">
@@ -43703,7 +44291,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -43768,7 +44356,7 @@
         <v>0</v>
       </c>
       <c r="S523" t="n">
-        <v>39511</v>
+        <v>39536</v>
       </c>
       <c r="T523" t="inlineStr">
         <is>
@@ -43776,7 +44364,7 @@
         </is>
       </c>
       <c r="U523" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="524">
@@ -43877,7 +44465,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
@@ -43917,7 +44505,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M525" t="inlineStr"/>
+      <c r="M525" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr"/>
       <c r="P525" t="n">
@@ -43930,7 +44522,7 @@
         <v>0</v>
       </c>
       <c r="S525" t="n">
-        <v>823</v>
+        <v>881</v>
       </c>
       <c r="T525" t="inlineStr">
         <is>
@@ -43938,7 +44530,7 @@
         </is>
       </c>
       <c r="U525" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="526">
@@ -43954,7 +44546,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -43998,7 +44590,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M526" t="inlineStr"/>
+      <c r="M526" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N526" t="inlineStr">
         <is>
           <t>x</t>
@@ -44015,7 +44611,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>7220</v>
+        <v>7302</v>
       </c>
       <c r="T526" t="inlineStr">
         <is>
@@ -44023,7 +44619,7 @@
         </is>
       </c>
       <c r="U526" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="527">
@@ -44379,7 +44975,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -44427,7 +45023,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M531" t="inlineStr"/>
+      <c r="M531" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr"/>
       <c r="P531" t="n">
@@ -44440,7 +45040,7 @@
         <v>0</v>
       </c>
       <c r="S531" t="n">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="T531" t="inlineStr">
         <is>
@@ -44448,7 +45048,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="532">
@@ -44464,7 +45064,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -44512,7 +45112,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M532" t="inlineStr"/>
+      <c r="M532" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr"/>
       <c r="P532" t="n">
@@ -44525,7 +45129,7 @@
         <v>0</v>
       </c>
       <c r="S532" t="n">
-        <v>20837</v>
+        <v>21294</v>
       </c>
       <c r="T532" t="inlineStr">
         <is>
@@ -44533,7 +45137,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45217</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="533">
@@ -44549,7 +45153,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -44622,7 +45226,7 @@
         </is>
       </c>
       <c r="U533" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="534">
@@ -44638,7 +45242,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -44686,7 +45290,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M534" t="inlineStr"/>
+      <c r="M534" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr"/>
       <c r="P534" t="n">
@@ -44699,7 +45307,7 @@
         <v>0</v>
       </c>
       <c r="S534" t="n">
-        <v>11398</v>
+        <v>11547</v>
       </c>
       <c r="T534" t="inlineStr">
         <is>
@@ -44707,7 +45315,7 @@
         </is>
       </c>
       <c r="U534" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="535">
@@ -44723,7 +45331,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -44771,7 +45379,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M535" t="inlineStr"/>
+      <c r="M535" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr"/>
       <c r="P535" t="n">
@@ -44784,7 +45396,7 @@
         <v>0</v>
       </c>
       <c r="S535" t="n">
-        <v>4029</v>
+        <v>4044</v>
       </c>
       <c r="T535" t="inlineStr">
         <is>
@@ -44792,7 +45404,7 @@
         </is>
       </c>
       <c r="U535" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="536">
@@ -44808,7 +45420,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -44881,7 +45493,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="537">
@@ -44897,7 +45509,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -44945,7 +45557,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M537" t="inlineStr"/>
+      <c r="M537" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr"/>
       <c r="P537" t="n">
@@ -44958,7 +45574,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="n">
-        <v>22553</v>
+        <v>23047</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -44966,7 +45582,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="538">
@@ -45504,7 +46120,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -45569,7 +46185,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>64572</v>
+        <v>64692</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -45577,7 +46193,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="545">
@@ -45678,7 +46294,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2023/10/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -45726,7 +46342,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M546" t="inlineStr"/>
+      <c r="M546" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr"/>
       <c r="P546" t="n">
@@ -45739,7 +46359,7 @@
         <v>0</v>
       </c>
       <c r="S546" t="n">
-        <v>43396</v>
+        <v>44068</v>
       </c>
       <c r="T546" t="inlineStr">
         <is>
@@ -45747,7 +46367,7 @@
         </is>
       </c>
       <c r="U546" s="2" t="n">
-        <v>45213</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="547">
@@ -46196,7 +46816,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -46244,7 +46864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M552" t="inlineStr"/>
+      <c r="M552" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N552" t="inlineStr"/>
       <c r="O552" t="inlineStr"/>
       <c r="P552" t="n">
@@ -46257,7 +46881,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="T552" t="inlineStr">
         <is>
@@ -46265,7 +46889,7 @@
         </is>
       </c>
       <c r="U552" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="553">
@@ -46281,7 +46905,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -46329,7 +46953,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M553" t="inlineStr"/>
+      <c r="M553" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N553" t="inlineStr"/>
       <c r="O553" t="inlineStr"/>
       <c r="P553" t="n">
@@ -46342,7 +46970,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="n">
-        <v>22793</v>
+        <v>23195</v>
       </c>
       <c r="T553" t="inlineStr">
         <is>
@@ -46350,7 +46978,7 @@
         </is>
       </c>
       <c r="U553" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="554">
@@ -46366,7 +46994,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -46414,7 +47042,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M554" t="inlineStr"/>
+      <c r="M554" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N554" t="inlineStr"/>
       <c r="O554" t="inlineStr"/>
       <c r="P554" t="n">
@@ -46427,7 +47059,7 @@
         <v>0</v>
       </c>
       <c r="S554" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="T554" t="inlineStr">
         <is>
@@ -46435,7 +47067,7 @@
         </is>
       </c>
       <c r="U554" s="2" t="n">
-        <v>45205</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="555">
@@ -46601,7 +47233,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -46649,7 +47281,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M557" t="inlineStr"/>
+      <c r="M557" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N557" t="inlineStr"/>
       <c r="O557" t="inlineStr"/>
       <c r="P557" t="n">
@@ -46662,7 +47298,7 @@
         <v>0</v>
       </c>
       <c r="S557" t="n">
-        <v>66085</v>
+        <v>67214</v>
       </c>
       <c r="T557" t="inlineStr">
         <is>
@@ -46670,7 +47306,7 @@
         </is>
       </c>
       <c r="U557" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="558">
@@ -47115,7 +47751,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -47196,7 +47832,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="564">
@@ -47386,7 +48022,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -47459,7 +48095,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="n">
-        <v>6025</v>
+        <v>6100</v>
       </c>
       <c r="T566" t="inlineStr">
         <is>
@@ -47467,7 +48103,7 @@
         </is>
       </c>
       <c r="U566" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="567">
@@ -47483,7 +48119,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -47548,7 +48184,7 @@
         <v>0</v>
       </c>
       <c r="S567" t="n">
-        <v>43262</v>
+        <v>43740</v>
       </c>
       <c r="T567" t="inlineStr">
         <is>
@@ -47556,7 +48192,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45240</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="568">
@@ -47661,7 +48297,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -47709,7 +48345,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M569" t="inlineStr"/>
+      <c r="M569" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N569" t="inlineStr"/>
       <c r="O569" t="inlineStr"/>
       <c r="P569" t="n">
@@ -47722,7 +48362,7 @@
         <v>0</v>
       </c>
       <c r="S569" t="n">
-        <v>1727</v>
+        <v>1762</v>
       </c>
       <c r="T569" t="inlineStr">
         <is>
@@ -47730,7 +48370,7 @@
         </is>
       </c>
       <c r="U569" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="570">
@@ -47835,7 +48475,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -47883,7 +48523,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M571" t="inlineStr"/>
+      <c r="M571" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N571" t="inlineStr"/>
       <c r="O571" t="inlineStr"/>
       <c r="P571" t="n">
@@ -47896,7 +48540,7 @@
         <v>0</v>
       </c>
       <c r="S571" t="n">
-        <v>13461</v>
+        <v>13623</v>
       </c>
       <c r="T571" t="inlineStr">
         <is>
@@ -47904,7 +48548,7 @@
         </is>
       </c>
       <c r="U571" s="2" t="n">
-        <v>45225</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="572">
@@ -47969,7 +48613,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -48017,7 +48661,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M573" t="inlineStr"/>
+      <c r="M573" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N573" t="inlineStr"/>
       <c r="O573" t="inlineStr"/>
       <c r="P573" t="n">
@@ -48030,7 +48678,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>12206</v>
+        <v>12374</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -48038,7 +48686,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="574">
@@ -48143,7 +48791,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -48191,7 +48839,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M575" t="inlineStr"/>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N575" t="inlineStr"/>
       <c r="O575" t="inlineStr"/>
       <c r="P575" t="n">
@@ -48204,7 +48856,7 @@
         <v>0</v>
       </c>
       <c r="S575" t="n">
-        <v>7953</v>
+        <v>8086</v>
       </c>
       <c r="T575" t="inlineStr">
         <is>
@@ -48212,7 +48864,7 @@
         </is>
       </c>
       <c r="U575" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="576">
@@ -48410,7 +49062,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -48475,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="n">
-        <v>32742</v>
+        <v>32875</v>
       </c>
       <c r="T578" t="inlineStr">
         <is>
@@ -48483,7 +49135,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="579">
@@ -48588,7 +49240,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -48636,7 +49288,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M580" t="inlineStr"/>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N580" t="inlineStr"/>
       <c r="O580" t="inlineStr"/>
       <c r="P580" t="n">
@@ -48649,7 +49305,7 @@
         <v>0</v>
       </c>
       <c r="S580" t="n">
-        <v>43832</v>
+        <v>44083</v>
       </c>
       <c r="T580" t="inlineStr">
         <is>
@@ -48657,7 +49313,7 @@
         </is>
       </c>
       <c r="U580" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="581">
@@ -48920,7 +49576,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -48989,7 +49645,7 @@
         </is>
       </c>
       <c r="U584" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="585">
@@ -49094,7 +49750,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -49142,7 +49798,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M586" t="inlineStr"/>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N586" t="inlineStr"/>
       <c r="O586" t="inlineStr"/>
       <c r="P586" t="n">
@@ -49155,7 +49815,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>14797</v>
+        <v>14950</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -49163,7 +49823,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="587">
@@ -49179,7 +49839,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -49227,7 +49887,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M587" t="inlineStr"/>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N587" t="inlineStr"/>
       <c r="O587" t="inlineStr"/>
       <c r="P587" t="n">
@@ -49240,7 +49904,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>31948</v>
+        <v>32285</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -49248,7 +49912,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="588">
@@ -49353,7 +50017,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -49401,7 +50065,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M589" t="inlineStr"/>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N589" t="inlineStr"/>
       <c r="O589" t="inlineStr"/>
       <c r="P589" t="n">
@@ -49414,7 +50082,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>11742</v>
+        <v>11803</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -49422,7 +50090,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="590">
@@ -49612,7 +50280,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -49660,7 +50328,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M592" t="inlineStr"/>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N592" t="inlineStr"/>
       <c r="O592" t="inlineStr"/>
       <c r="P592" t="n">
@@ -49673,7 +50345,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -49681,7 +50353,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="593">
@@ -49697,7 +50369,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -49745,7 +50417,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M593" t="inlineStr"/>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N593" t="inlineStr"/>
       <c r="O593" t="inlineStr"/>
       <c r="P593" t="n">
@@ -49758,7 +50434,7 @@
         <v>0</v>
       </c>
       <c r="S593" t="n">
-        <v>16831</v>
+        <v>16979</v>
       </c>
       <c r="T593" t="inlineStr">
         <is>
@@ -49766,7 +50442,7 @@
         </is>
       </c>
       <c r="U593" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="594">
@@ -49960,7 +50636,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -50003,7 +50679,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M596" t="inlineStr"/>
       <c r="N596" t="inlineStr"/>
       <c r="O596" t="inlineStr"/>
@@ -50017,7 +50697,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>26792</v>
+        <v>27038</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -50025,7 +50705,7 @@
         </is>
       </c>
       <c r="U596" s="2" t="n">
-        <v>45189</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="597">
@@ -50041,7 +50721,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -50089,7 +50769,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M597" t="inlineStr"/>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N597" t="inlineStr"/>
       <c r="O597" t="inlineStr"/>
       <c r="P597" t="n">
@@ -50102,7 +50786,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>36045</v>
+        <v>36459</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -50110,7 +50794,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="598">
@@ -50397,7 +51081,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -50466,7 +51150,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45233</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="602">
@@ -50571,7 +51255,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -50619,7 +51303,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M603" t="inlineStr"/>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N603" t="inlineStr"/>
       <c r="O603" t="inlineStr"/>
       <c r="P603" t="n">
@@ -50632,7 +51320,7 @@
         <v>0</v>
       </c>
       <c r="S603" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="T603" t="inlineStr">
         <is>
@@ -50640,7 +51328,7 @@
         </is>
       </c>
       <c r="U603" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="604">
@@ -50705,7 +51393,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -50753,7 +51441,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M605" t="inlineStr"/>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N605" t="inlineStr"/>
       <c r="O605" t="inlineStr"/>
       <c r="P605" t="n">
@@ -50766,7 +51458,7 @@
         <v>0</v>
       </c>
       <c r="S605" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="T605" t="inlineStr">
         <is>
@@ -50774,7 +51466,7 @@
         </is>
       </c>
       <c r="U605" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="606">
@@ -50790,7 +51482,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -50838,7 +51530,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M606" t="inlineStr"/>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N606" t="inlineStr"/>
       <c r="O606" t="inlineStr"/>
       <c r="P606" t="n">
@@ -50851,7 +51547,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>15700</v>
+        <v>15867</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -50859,7 +51555,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45224</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="607">
@@ -51138,7 +51834,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -51207,7 +51903,7 @@
         </is>
       </c>
       <c r="U610" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="611">
@@ -51312,7 +52008,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -51377,7 +52073,7 @@
         <v>0</v>
       </c>
       <c r="S612" t="n">
-        <v>15117</v>
+        <v>15278</v>
       </c>
       <c r="T612" t="inlineStr">
         <is>
@@ -51385,7 +52081,7 @@
         </is>
       </c>
       <c r="U612" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="613">
@@ -51482,7 +52178,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -51530,7 +52226,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M614" t="inlineStr"/>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N614" t="inlineStr"/>
       <c r="O614" t="inlineStr"/>
       <c r="P614" t="n">
@@ -51543,7 +52243,7 @@
         <v>0</v>
       </c>
       <c r="S614" t="n">
-        <v>1978</v>
+        <v>1998</v>
       </c>
       <c r="T614" t="inlineStr">
         <is>
@@ -51551,7 +52251,7 @@
         </is>
       </c>
       <c r="U614" s="2" t="n">
-        <v>45237</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="615">
@@ -51567,7 +52267,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -51632,7 +52332,7 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>85939</v>
+        <v>86992</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
@@ -51640,7 +52340,7 @@
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="616">
@@ -52259,7 +52959,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -52307,7 +53007,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M623" t="inlineStr"/>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N623" t="inlineStr"/>
       <c r="O623" t="inlineStr"/>
       <c r="P623" t="n">
@@ -52320,7 +53024,7 @@
         <v>0</v>
       </c>
       <c r="S623" t="n">
-        <v>13473</v>
+        <v>13675</v>
       </c>
       <c r="T623" t="inlineStr">
         <is>
@@ -52328,7 +53032,7 @@
         </is>
       </c>
       <c r="U623" s="2" t="n">
-        <v>45209</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="624">
@@ -52704,7 +53408,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -52752,7 +53456,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M628" t="inlineStr"/>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N628" t="inlineStr"/>
       <c r="O628" t="inlineStr"/>
       <c r="P628" t="n">
@@ -52765,7 +53473,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -52773,7 +53481,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45238</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="629">
@@ -52789,7 +53497,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -52837,7 +53545,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M629" t="inlineStr"/>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N629" t="inlineStr"/>
       <c r="O629" t="inlineStr"/>
       <c r="P629" t="n">
@@ -52850,7 +53562,7 @@
         <v>0</v>
       </c>
       <c r="S629" t="n">
-        <v>6673</v>
+        <v>6728</v>
       </c>
       <c r="T629" t="inlineStr">
         <is>
@@ -52858,7 +53570,7 @@
         </is>
       </c>
       <c r="U629" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="630">
@@ -52951,7 +53663,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -52999,7 +53711,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M631" t="inlineStr"/>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N631" t="inlineStr"/>
       <c r="O631" t="inlineStr"/>
       <c r="P631" t="n">
@@ -53012,7 +53728,7 @@
         <v>0</v>
       </c>
       <c r="S631" t="n">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="T631" t="inlineStr">
         <is>
@@ -53020,7 +53736,7 @@
         </is>
       </c>
       <c r="U631" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="632">
@@ -53125,7 +53841,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>2023/10/02</t>
+          <t>2023/11/18</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -53168,8 +53884,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L633" t="inlineStr"/>
-      <c r="M633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N633" t="inlineStr"/>
       <c r="O633" t="inlineStr"/>
       <c r="P633" t="n">
@@ -53182,7 +53906,7 @@
         <v>0</v>
       </c>
       <c r="S633" t="n">
-        <v>10695</v>
+        <v>10986</v>
       </c>
       <c r="T633" t="inlineStr">
         <is>
@@ -53190,7 +53914,7 @@
         </is>
       </c>
       <c r="U633" s="2" t="n">
-        <v>45201</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="634">
@@ -53206,7 +53930,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -53254,7 +53978,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M634" t="inlineStr"/>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N634" t="inlineStr"/>
       <c r="O634" t="inlineStr"/>
       <c r="P634" t="n">
@@ -53267,7 +53995,7 @@
         <v>0</v>
       </c>
       <c r="S634" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T634" t="inlineStr">
         <is>
@@ -53275,7 +54003,7 @@
         </is>
       </c>
       <c r="U634" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="635">
@@ -53291,7 +54019,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -53339,7 +54067,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M635" t="inlineStr"/>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N635" t="inlineStr"/>
       <c r="O635" t="inlineStr"/>
       <c r="P635" t="n">
@@ -53352,7 +54084,7 @@
         <v>0</v>
       </c>
       <c r="S635" t="n">
-        <v>22471</v>
+        <v>22797</v>
       </c>
       <c r="T635" t="inlineStr">
         <is>
@@ -53360,7 +54092,7 @@
         </is>
       </c>
       <c r="U635" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="636">
@@ -53635,7 +54367,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -53683,7 +54415,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M639" t="inlineStr"/>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N639" t="inlineStr"/>
       <c r="O639" t="inlineStr"/>
       <c r="P639" t="n">
@@ -53696,7 +54432,7 @@
         <v>0</v>
       </c>
       <c r="S639" t="n">
-        <v>9943</v>
+        <v>10103</v>
       </c>
       <c r="T639" t="inlineStr">
         <is>
@@ -53704,7 +54440,7 @@
         </is>
       </c>
       <c r="U639" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="640">
@@ -53720,7 +54456,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -53768,7 +54504,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M640" t="inlineStr"/>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N640" t="inlineStr"/>
       <c r="O640" t="inlineStr"/>
       <c r="P640" t="n">
@@ -53781,7 +54521,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>9392</v>
+        <v>9515</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -53789,7 +54529,7 @@
         </is>
       </c>
       <c r="U640" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="641">
@@ -54234,7 +54974,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -54282,7 +55022,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M646" t="inlineStr"/>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N646" t="inlineStr"/>
       <c r="O646" t="inlineStr"/>
       <c r="P646" t="n">
@@ -54295,7 +55039,7 @@
         <v>0</v>
       </c>
       <c r="S646" t="n">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="T646" t="inlineStr">
         <is>
@@ -54303,7 +55047,7 @@
         </is>
       </c>
       <c r="U646" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="647">
@@ -54408,7 +55152,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -54451,7 +55195,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M648" t="inlineStr"/>
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr"/>
@@ -54465,7 +55213,7 @@
         <v>0</v>
       </c>
       <c r="S648" t="n">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="T648" t="inlineStr">
         <is>
@@ -54473,7 +55221,7 @@
         </is>
       </c>
       <c r="U648" s="2" t="n">
-        <v>45177</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="649">
@@ -54663,7 +55411,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -54728,7 +55476,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>34982</v>
+        <v>35259</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -54736,7 +55484,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45243</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="652">
@@ -54926,7 +55674,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -54974,7 +55722,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M654" t="inlineStr"/>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N654" t="inlineStr"/>
       <c r="O654" t="inlineStr"/>
       <c r="P654" t="n">
@@ -54987,7 +55739,7 @@
         <v>0</v>
       </c>
       <c r="S654" t="n">
-        <v>10035</v>
+        <v>10139</v>
       </c>
       <c r="T654" t="inlineStr">
         <is>
@@ -54995,7 +55747,7 @@
         </is>
       </c>
       <c r="U654" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="655">
@@ -55011,7 +55763,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023/11/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -55076,7 +55828,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>22879</v>
+        <v>22890</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -55084,7 +55836,7 @@
         </is>
       </c>
       <c r="U655" s="2" t="n">
-        <v>45242</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="656">
@@ -55100,7 +55852,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -55148,7 +55900,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M656" t="inlineStr"/>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N656" t="inlineStr">
         <is>
           <t>x</t>
@@ -55169,7 +55925,7 @@
         <v>0</v>
       </c>
       <c r="S656" t="n">
-        <v>109433</v>
+        <v>111165</v>
       </c>
       <c r="T656" t="inlineStr">
         <is>
@@ -55177,7 +55933,7 @@
         </is>
       </c>
       <c r="U656" s="2" t="n">
-        <v>45217</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="657">
@@ -55193,7 +55949,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -55258,7 +56014,7 @@
         <v>0</v>
       </c>
       <c r="S657" t="n">
-        <v>25998</v>
+        <v>26620</v>
       </c>
       <c r="T657" t="inlineStr">
         <is>
@@ -55266,7 +56022,7 @@
         </is>
       </c>
       <c r="U657" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="658">
@@ -55282,7 +56038,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -55322,7 +56078,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M658" t="inlineStr"/>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N658" t="inlineStr"/>
       <c r="O658" t="inlineStr"/>
       <c r="P658" t="n">
@@ -55335,7 +56095,7 @@
         <v>0</v>
       </c>
       <c r="S658" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="T658" t="inlineStr">
         <is>
@@ -55343,7 +56103,7 @@
         </is>
       </c>
       <c r="U658" s="2" t="n">
-        <v>45239</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="659">
@@ -55448,7 +56208,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -55496,7 +56256,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M660" t="inlineStr"/>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N660" t="inlineStr"/>
       <c r="O660" t="inlineStr"/>
       <c r="P660" t="n">
@@ -55509,7 +56273,7 @@
         <v>0</v>
       </c>
       <c r="S660" t="n">
-        <v>68276</v>
+        <v>69532</v>
       </c>
       <c r="T660" t="inlineStr">
         <is>
@@ -55517,7 +56281,7 @@
         </is>
       </c>
       <c r="U660" s="2" t="n">
-        <v>45216</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="661">
@@ -55622,7 +56386,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -55670,7 +56434,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M662" t="inlineStr"/>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N662" t="inlineStr"/>
       <c r="O662" t="inlineStr"/>
       <c r="P662" t="n">
@@ -55683,7 +56451,7 @@
         <v>0</v>
       </c>
       <c r="S662" t="n">
-        <v>15188</v>
+        <v>15504</v>
       </c>
       <c r="T662" t="inlineStr">
         <is>
@@ -55691,7 +56459,7 @@
         </is>
       </c>
       <c r="U662" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="663">
@@ -55792,7 +56560,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D664" t="inlineStr"/>
@@ -55812,7 +56580,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M664" t="inlineStr"/>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N664" t="inlineStr"/>
       <c r="O664" t="inlineStr"/>
       <c r="P664" t="n">
@@ -55825,7 +56597,7 @@
         <v>0</v>
       </c>
       <c r="S664" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T664" t="inlineStr">
         <is>
@@ -55833,7 +56605,7 @@
         </is>
       </c>
       <c r="U664" s="2" t="n">
-        <v>45211</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="665">
@@ -55849,7 +56621,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -55893,7 +56665,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M665" t="inlineStr"/>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N665" t="inlineStr"/>
       <c r="O665" t="inlineStr"/>
       <c r="P665" t="n">
@@ -55906,7 +56682,7 @@
         <v>0</v>
       </c>
       <c r="S665" t="n">
-        <v>849</v>
+        <v>914</v>
       </c>
       <c r="T665" t="inlineStr">
         <is>
@@ -55914,7 +56690,7 @@
         </is>
       </c>
       <c r="U665" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="666">
@@ -56501,7 +57277,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -56566,7 +57342,7 @@
         <v>0</v>
       </c>
       <c r="S673" t="n">
-        <v>32146</v>
+        <v>32648</v>
       </c>
       <c r="T673" t="inlineStr">
         <is>
@@ -56574,7 +57350,7 @@
         </is>
       </c>
       <c r="U673" s="2" t="n">
-        <v>45244</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="674">
@@ -56590,7 +57366,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -56638,7 +57414,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M674" t="inlineStr"/>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N674" t="inlineStr"/>
       <c r="O674" t="inlineStr"/>
       <c r="P674" t="n">
@@ -56651,7 +57431,7 @@
         <v>0</v>
       </c>
       <c r="S674" t="n">
-        <v>1446</v>
+        <v>1512</v>
       </c>
       <c r="T674" t="inlineStr">
         <is>
@@ -56659,7 +57439,7 @@
         </is>
       </c>
       <c r="U674" s="2" t="n">
-        <v>45230</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="675">
@@ -56853,7 +57633,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D677" t="inlineStr"/>
@@ -56886,7 +57666,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="678">
@@ -56902,7 +57682,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -56950,7 +57730,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M678" t="inlineStr"/>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N678" t="inlineStr"/>
       <c r="O678" t="inlineStr"/>
       <c r="P678" t="n">
@@ -56963,7 +57747,7 @@
         <v>0</v>
       </c>
       <c r="S678" t="n">
-        <v>7081</v>
+        <v>7212</v>
       </c>
       <c r="T678" t="inlineStr">
         <is>
@@ -56971,7 +57755,7 @@
         </is>
       </c>
       <c r="U678" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="679">
@@ -57628,7 +58412,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D688" t="inlineStr"/>
@@ -57672,7 +58456,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M688" t="inlineStr"/>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N688" t="inlineStr"/>
       <c r="O688" t="inlineStr"/>
       <c r="P688" t="n">
@@ -57685,7 +58473,7 @@
         <v>0</v>
       </c>
       <c r="S688" t="n">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="T688" t="inlineStr">
         <is>
@@ -57693,7 +58481,7 @@
         </is>
       </c>
       <c r="U688" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="689">
@@ -57798,7 +58586,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -57846,7 +58634,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M690" t="inlineStr"/>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N690" t="inlineStr"/>
       <c r="O690" t="inlineStr"/>
       <c r="P690" t="n">
@@ -57859,7 +58651,7 @@
         <v>0</v>
       </c>
       <c r="S690" t="n">
-        <v>2901</v>
+        <v>3012</v>
       </c>
       <c r="T690" t="inlineStr">
         <is>
@@ -57867,7 +58659,7 @@
         </is>
       </c>
       <c r="U690" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="691">
@@ -57883,7 +58675,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -57931,7 +58723,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M691" t="inlineStr"/>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N691" t="inlineStr"/>
       <c r="O691" t="inlineStr"/>
       <c r="P691" t="n">
@@ -57944,7 +58740,7 @@
         <v>0</v>
       </c>
       <c r="S691" t="n">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="T691" t="inlineStr">
         <is>
@@ -57952,7 +58748,7 @@
         </is>
       </c>
       <c r="U691" s="2" t="n">
-        <v>45210</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="692">
@@ -58293,7 +59089,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D697" t="inlineStr"/>
@@ -58326,7 +59122,7 @@
         </is>
       </c>
       <c r="U697" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="698">
@@ -58391,7 +59187,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D699" t="inlineStr"/>
@@ -58423,7 +59219,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M699" t="inlineStr"/>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N699" t="inlineStr"/>
       <c r="O699" t="inlineStr"/>
       <c r="P699" t="n">
@@ -58436,7 +59236,7 @@
         <v>0</v>
       </c>
       <c r="S699" t="n">
-        <v>790</v>
+        <v>868</v>
       </c>
       <c r="T699" t="inlineStr">
         <is>
@@ -58444,7 +59244,7 @@
         </is>
       </c>
       <c r="U699" s="2" t="n">
-        <v>45215</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="700">
@@ -58460,7 +59260,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -58508,7 +59308,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M700" t="inlineStr"/>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N700" t="inlineStr"/>
       <c r="O700" t="inlineStr"/>
       <c r="P700" t="n">
@@ -58521,7 +59325,7 @@
         <v>0</v>
       </c>
       <c r="S700" t="n">
-        <v>8735</v>
+        <v>9053</v>
       </c>
       <c r="T700" t="inlineStr">
         <is>
@@ -58529,7 +59333,7 @@
         </is>
       </c>
       <c r="U700" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="701">
@@ -58545,7 +59349,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -58593,7 +59397,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M701" t="inlineStr"/>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N701" t="inlineStr"/>
       <c r="O701" t="inlineStr"/>
       <c r="P701" t="n">
@@ -58606,7 +59414,7 @@
         <v>0</v>
       </c>
       <c r="S701" t="n">
-        <v>839</v>
+        <v>910</v>
       </c>
       <c r="T701" t="inlineStr">
         <is>
@@ -58614,7 +59422,7 @@
         </is>
       </c>
       <c r="U701" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="702">
@@ -58630,7 +59438,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2023/06/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -58647,7 +59455,11 @@
         </is>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr"/>
       <c r="M702" t="inlineStr"/>
@@ -58663,7 +59475,7 @@
         <v>0</v>
       </c>
       <c r="S702" t="n">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="T702" t="inlineStr">
         <is>
@@ -58671,7 +59483,7 @@
         </is>
       </c>
       <c r="U702" s="2" t="n">
-        <v>45090</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="703">
@@ -58687,7 +59499,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -58735,7 +59547,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M703" t="inlineStr"/>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N703" t="inlineStr">
         <is>
           <t>x</t>
@@ -58752,7 +59568,7 @@
         <v>0</v>
       </c>
       <c r="S703" t="n">
-        <v>1128</v>
+        <v>1193</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
@@ -58760,7 +59576,7 @@
         </is>
       </c>
       <c r="U703" s="2" t="n">
-        <v>45212</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="704">
@@ -59048,7 +59864,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -59096,7 +59912,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M708" t="inlineStr"/>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N708" t="inlineStr"/>
       <c r="O708" t="inlineStr"/>
       <c r="P708" t="n">
@@ -59109,7 +59929,7 @@
         <v>0</v>
       </c>
       <c r="S708" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="T708" t="inlineStr">
         <is>
@@ -59117,7 +59937,7 @@
         </is>
       </c>
       <c r="U708" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="709">
@@ -59133,7 +59953,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -59181,7 +60001,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M709" t="inlineStr"/>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N709" t="inlineStr"/>
       <c r="O709" t="inlineStr"/>
       <c r="P709" t="n">
@@ -59194,7 +60018,7 @@
         <v>0</v>
       </c>
       <c r="S709" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T709" t="inlineStr">
         <is>
@@ -59202,7 +60026,7 @@
         </is>
       </c>
       <c r="U709" s="2" t="n">
-        <v>45209</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="710">
@@ -60498,7 +61322,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -60567,7 +61391,7 @@
         </is>
       </c>
       <c r="U726" s="2" t="n">
-        <v>45216</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="727">
@@ -61466,7 +62290,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D738" t="inlineStr"/>
@@ -61505,7 +62329,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M738" t="inlineStr"/>
       <c r="N738" t="inlineStr"/>
       <c r="O738" t="inlineStr"/>
@@ -61519,7 +62347,7 @@
         <v>0</v>
       </c>
       <c r="S738" t="n">
-        <v>5718</v>
+        <v>5847</v>
       </c>
       <c r="T738" t="inlineStr">
         <is>
@@ -61527,7 +62355,7 @@
         </is>
       </c>
       <c r="U738" s="2" t="n">
-        <v>45219</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="739">
@@ -61628,7 +62456,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -61676,7 +62504,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M740" t="inlineStr"/>
+      <c r="M740" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N740" t="inlineStr"/>
       <c r="O740" t="inlineStr"/>
       <c r="P740" t="n">
@@ -61689,7 +62521,7 @@
         <v>0</v>
       </c>
       <c r="S740" t="n">
-        <v>1405</v>
+        <v>1515</v>
       </c>
       <c r="T740" t="inlineStr">
         <is>
@@ -61697,7 +62529,7 @@
         </is>
       </c>
       <c r="U740" s="2" t="n">
-        <v>45236</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="741">
@@ -62933,7 +63765,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -62977,7 +63809,11 @@
         </is>
       </c>
       <c r="L757" t="inlineStr"/>
-      <c r="M757" t="inlineStr"/>
+      <c r="M757" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N757" t="inlineStr"/>
       <c r="O757" t="inlineStr"/>
       <c r="P757" t="n">
@@ -62990,7 +63826,7 @@
         <v>0</v>
       </c>
       <c r="S757" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="T757" t="inlineStr">
         <is>
@@ -62998,7 +63834,7 @@
         </is>
       </c>
       <c r="U757" s="2" t="n">
-        <v>45216</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="758">
@@ -63359,7 +64195,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D763" t="inlineStr"/>
@@ -63392,7 +64228,7 @@
         </is>
       </c>
       <c r="U763" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="764">
@@ -63554,7 +64390,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -63598,7 +64434,11 @@
         </is>
       </c>
       <c r="L766" t="inlineStr"/>
-      <c r="M766" t="inlineStr"/>
+      <c r="M766" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N766" t="inlineStr"/>
       <c r="O766" t="inlineStr"/>
       <c r="P766" t="n">
@@ -63611,7 +64451,7 @@
         <v>0</v>
       </c>
       <c r="S766" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T766" t="inlineStr">
         <is>
@@ -63619,7 +64459,7 @@
         </is>
       </c>
       <c r="U766" s="2" t="n">
-        <v>45210</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="767">
@@ -63720,7 +64560,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -63768,7 +64608,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M768" t="inlineStr"/>
+      <c r="M768" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N768" t="inlineStr"/>
       <c r="O768" t="inlineStr"/>
       <c r="P768" t="n">
@@ -63781,7 +64625,7 @@
         <v>0</v>
       </c>
       <c r="S768" t="n">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="T768" t="inlineStr">
         <is>
@@ -63789,7 +64633,7 @@
         </is>
       </c>
       <c r="U768" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="769">
@@ -64429,7 +65273,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="D777" t="inlineStr"/>
@@ -64473,7 +65317,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M777" t="inlineStr"/>
+      <c r="M777" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N777" t="inlineStr"/>
       <c r="O777" t="inlineStr"/>
       <c r="P777" t="n">
@@ -64486,7 +65334,7 @@
         <v>0</v>
       </c>
       <c r="S777" t="n">
-        <v>2050</v>
+        <v>2409</v>
       </c>
       <c r="T777" t="inlineStr">
         <is>
@@ -64494,7 +65342,7 @@
         </is>
       </c>
       <c r="U777" s="2" t="n">
-        <v>45217</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="778">
@@ -64875,7 +65723,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -64923,7 +65771,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M783" t="inlineStr"/>
+      <c r="M783" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N783" t="inlineStr"/>
       <c r="O783" t="inlineStr"/>
       <c r="P783" t="n">
@@ -64936,7 +65788,7 @@
         <v>0</v>
       </c>
       <c r="S783" t="n">
-        <v>6057</v>
+        <v>6650</v>
       </c>
       <c r="T783" t="inlineStr">
         <is>
@@ -64944,7 +65796,7 @@
         </is>
       </c>
       <c r="U783" s="2" t="n">
-        <v>45215</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="784">
@@ -64960,7 +65812,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D784" t="inlineStr"/>
@@ -64996,7 +65848,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M784" t="inlineStr"/>
+      <c r="M784" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N784" t="inlineStr"/>
       <c r="O784" t="inlineStr"/>
       <c r="P784" t="n">
@@ -65009,7 +65865,7 @@
         <v>0</v>
       </c>
       <c r="S784" t="n">
-        <v>3818</v>
+        <v>4472</v>
       </c>
       <c r="T784" t="inlineStr">
         <is>
@@ -65017,7 +65873,7 @@
         </is>
       </c>
       <c r="U784" s="2" t="n">
-        <v>45212</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="785">
@@ -65106,7 +65962,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -65154,7 +66010,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M786" t="inlineStr"/>
+      <c r="M786" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N786" t="inlineStr"/>
       <c r="O786" t="inlineStr"/>
       <c r="P786" t="n">
@@ -65167,7 +66027,7 @@
         <v>0</v>
       </c>
       <c r="S786" t="n">
-        <v>1000</v>
+        <v>1054</v>
       </c>
       <c r="T786" t="inlineStr">
         <is>
@@ -65175,7 +66035,7 @@
         </is>
       </c>
       <c r="U786" s="2" t="n">
-        <v>45219</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="787">
@@ -67086,7 +67946,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="D814" t="inlineStr"/>
@@ -67102,7 +67962,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M814" t="inlineStr"/>
+      <c r="M814" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N814" t="inlineStr"/>
       <c r="O814" t="inlineStr"/>
       <c r="P814" t="n">
@@ -67115,7 +67979,7 @@
         <v>0</v>
       </c>
       <c r="S814" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T814" t="inlineStr">
         <is>
@@ -67123,7 +67987,7 @@
         </is>
       </c>
       <c r="U814" s="2" t="n">
-        <v>45230</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="815">

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U815"/>
+  <dimension ref="A1:U817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>17221</v>
+        <v>17263</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="U25" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="26">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2565,8 +2565,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
@@ -2579,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28025</v>
+        <v>28796</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2587,7 +2595,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45232</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="35">
@@ -2911,7 +2919,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2955,7 +2963,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>x</t>
@@ -2976,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>4152</v>
+        <v>4269</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -2984,7 +2996,7 @@
         </is>
       </c>
       <c r="U39" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="40">
@@ -3988,7 +4000,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4053,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>13218</v>
+        <v>13217</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4061,7 +4073,7 @@
         </is>
       </c>
       <c r="U52" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="53">
@@ -4166,7 +4178,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4227,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>227468</v>
+        <v>227479</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4235,7 +4247,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="55">
@@ -5243,7 +5255,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5304,7 +5316,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45224</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="68">
@@ -5831,7 +5843,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5879,7 +5891,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -5892,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>14437</v>
+        <v>14445</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -5900,7 +5916,7 @@
         </is>
       </c>
       <c r="U75" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="76">
@@ -5916,7 +5932,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5949,7 +5965,7 @@
         </is>
       </c>
       <c r="U76" s="2" t="n">
-        <v>45223</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="77">
@@ -6936,7 +6952,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6984,7 +7000,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
@@ -6997,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>17006</v>
+        <v>17201</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -7005,7 +7025,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45236</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="89">
@@ -7547,7 +7567,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7595,7 +7615,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
@@ -7608,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>1332</v>
+        <v>1362</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -7616,7 +7640,7 @@
         </is>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="96">
@@ -7806,7 +7830,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7854,7 +7878,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
@@ -7867,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>12806</v>
+        <v>12932</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -7875,7 +7903,7 @@
         </is>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45224</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="99">
@@ -7891,7 +7919,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/11/19</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -7924,7 +7952,7 @@
         </is>
       </c>
       <c r="U99" s="2" t="n">
-        <v>45208</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="100">
@@ -8357,7 +8385,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -8405,7 +8433,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
@@ -8418,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>33449</v>
+        <v>33973</v>
       </c>
       <c r="T105" t="inlineStr">
         <is>
@@ -8426,7 +8458,7 @@
         </is>
       </c>
       <c r="U105" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="106">
@@ -8798,7 +8830,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -8863,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>2830</v>
+        <v>2877</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -8871,7 +8903,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45239</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="111">
@@ -8976,7 +9008,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9041,7 +9073,7 @@
         </is>
       </c>
       <c r="U112" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="113">
@@ -9057,7 +9089,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9100,8 +9132,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
@@ -9114,7 +9154,7 @@
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>5309</v>
+        <v>5483</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -9122,7 +9162,7 @@
         </is>
       </c>
       <c r="U113" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="114">
@@ -9138,7 +9178,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9186,7 +9226,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
@@ -9199,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>2494</v>
+        <v>2519</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -9207,7 +9251,7 @@
         </is>
       </c>
       <c r="U114" s="2" t="n">
-        <v>45212</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="115">
@@ -9450,7 +9494,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -9493,8 +9537,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
@@ -9507,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>4410</v>
+        <v>4539</v>
       </c>
       <c r="T118" t="inlineStr">
         <is>
@@ -9515,7 +9567,7 @@
         </is>
       </c>
       <c r="U118" s="2" t="n">
-        <v>45184</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="119">
@@ -10648,7 +10700,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -10713,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>3138</v>
+        <v>3191</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -10721,7 +10773,7 @@
         </is>
       </c>
       <c r="U132" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="133">
@@ -10737,7 +10789,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -10785,7 +10837,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
@@ -10798,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>3932</v>
+        <v>3957</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -10806,7 +10862,7 @@
         </is>
       </c>
       <c r="U133" s="2" t="n">
-        <v>45229</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="134">
@@ -11178,7 +11234,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -11213,7 +11269,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M138" t="inlineStr">
         <is>
           <t>x</t>
@@ -11231,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>21518</v>
+        <v>21666</v>
       </c>
       <c r="T138" t="inlineStr">
         <is>
@@ -11239,7 +11299,7 @@
         </is>
       </c>
       <c r="U138" s="2" t="n">
-        <v>45239</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="139">
@@ -12218,7 +12278,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -12287,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>30148</v>
+        <v>30730</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -12295,7 +12355,7 @@
         </is>
       </c>
       <c r="U150" s="2" t="n">
-        <v>45237</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="151">
@@ -12400,7 +12460,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -12448,7 +12508,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="n">
@@ -12461,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>4738</v>
+        <v>4818</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -12469,7 +12533,7 @@
         </is>
       </c>
       <c r="U152" s="2" t="n">
-        <v>45212</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="153">
@@ -13206,7 +13270,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13271,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>11630</v>
+        <v>11642</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -13279,7 +13343,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="163">
@@ -13295,7 +13359,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13343,7 +13407,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="n">
@@ -13356,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>117204</v>
+        <v>118847</v>
       </c>
       <c r="T163" t="inlineStr">
         <is>
@@ -13364,7 +13432,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45217</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="164">
@@ -13829,7 +13897,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13894,7 +13962,7 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>25533</v>
+        <v>25643</v>
       </c>
       <c r="T169" t="inlineStr">
         <is>
@@ -13902,7 +13970,7 @@
         </is>
       </c>
       <c r="U169" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="170">
@@ -13918,7 +13986,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13966,7 +14034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
       <c r="P170" t="n">
@@ -13979,7 +14051,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>10038</v>
+        <v>10200</v>
       </c>
       <c r="T170" t="inlineStr">
         <is>
@@ -13987,7 +14059,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="171">
@@ -14436,7 +14508,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -14505,7 +14577,7 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>7836</v>
+        <v>7957</v>
       </c>
       <c r="T176" t="inlineStr">
         <is>
@@ -14513,7 +14585,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="177">
@@ -15679,7 +15751,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -15727,7 +15799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
@@ -15740,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>5427</v>
+        <v>5450</v>
       </c>
       <c r="T191" t="inlineStr">
         <is>
@@ -15748,7 +15824,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45210</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="192">
@@ -16302,7 +16378,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -16367,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>81791</v>
+        <v>82102</v>
       </c>
       <c r="T198" t="inlineStr">
         <is>
@@ -16375,7 +16451,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="199">
@@ -17031,7 +17107,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -17079,7 +17155,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="n">
@@ -17092,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="T207" t="inlineStr">
         <is>
@@ -17100,7 +17180,7 @@
         </is>
       </c>
       <c r="U207" s="2" t="n">
-        <v>45246</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="208">
@@ -18265,7 +18345,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -18330,7 +18410,7 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>50288</v>
+        <v>50630</v>
       </c>
       <c r="T221" t="inlineStr">
         <is>
@@ -18338,7 +18418,7 @@
         </is>
       </c>
       <c r="U221" s="2" t="n">
-        <v>45240</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="222">
@@ -18528,7 +18608,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -18593,7 +18673,7 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>13662</v>
+        <v>13685</v>
       </c>
       <c r="T224" t="inlineStr">
         <is>
@@ -18601,7 +18681,7 @@
         </is>
       </c>
       <c r="U224" s="2" t="n">
-        <v>45244</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="225">
@@ -19147,7 +19227,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -19195,7 +19275,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="n">
@@ -19208,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>4908</v>
+        <v>4993</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -19216,7 +19300,7 @@
         </is>
       </c>
       <c r="U231" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="232">
@@ -19503,7 +19587,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -19547,7 +19631,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="n">
@@ -19560,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -19568,7 +19656,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45219</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="236">
@@ -19762,7 +19850,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
@@ -19806,7 +19894,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="n">
@@ -19819,7 +19911,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>1064</v>
+        <v>1118</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -19827,7 +19919,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45210</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="239">
@@ -20017,7 +20109,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -20055,7 +20147,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L241" t="inlineStr"/>
       <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr"/>
@@ -20070,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>1997</v>
+        <v>2029</v>
       </c>
       <c r="T241" t="inlineStr">
         <is>
@@ -20078,7 +20174,7 @@
         </is>
       </c>
       <c r="U241" s="2" t="n">
-        <v>45154</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="242">
@@ -20535,7 +20631,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -20583,7 +20679,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="n">
@@ -20596,7 +20696,7 @@
         <v>0</v>
       </c>
       <c r="S247" t="n">
-        <v>10754</v>
+        <v>10976</v>
       </c>
       <c r="T247" t="inlineStr">
         <is>
@@ -20604,7 +20704,7 @@
         </is>
       </c>
       <c r="U247" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="248">
@@ -22639,7 +22739,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -22687,7 +22787,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
       <c r="P271" t="n">
@@ -22700,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="S271" t="n">
-        <v>5524</v>
+        <v>5561</v>
       </c>
       <c r="T271" t="inlineStr">
         <is>
@@ -22708,7 +22812,7 @@
         </is>
       </c>
       <c r="U271" s="2" t="n">
-        <v>45239</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="272">
@@ -22813,7 +22917,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -22857,7 +22961,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
       <c r="P273" t="n">
@@ -22870,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="S273" t="n">
-        <v>11124</v>
+        <v>11270</v>
       </c>
       <c r="T273" t="inlineStr">
         <is>
@@ -22878,7 +22986,7 @@
         </is>
       </c>
       <c r="U273" s="2" t="n">
-        <v>45212</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="274">
@@ -23914,7 +24022,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -23962,7 +24070,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
       <c r="P286" t="n">
@@ -23975,7 +24087,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>8420</v>
+        <v>8510</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -23983,7 +24095,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45218</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="287">
@@ -24801,7 +24913,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -24849,7 +24961,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
       <c r="P297" t="n">
@@ -24862,7 +24978,7 @@
         <v>0</v>
       </c>
       <c r="S297" t="n">
-        <v>1715</v>
+        <v>1733</v>
       </c>
       <c r="T297" t="inlineStr">
         <is>
@@ -24870,7 +24986,7 @@
         </is>
       </c>
       <c r="U297" s="2" t="n">
-        <v>45224</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="298">
@@ -26036,7 +26152,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2023/11/11</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -26109,7 +26225,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45241</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="313">
@@ -26534,7 +26650,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -26587,7 +26703,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="319">
@@ -26603,7 +26719,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -26672,7 +26788,7 @@
         </is>
       </c>
       <c r="U319" s="2" t="n">
-        <v>45222</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="320">
@@ -26963,7 +27079,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -27006,8 +27122,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
       <c r="P323" t="n">
@@ -27020,7 +27144,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>16770</v>
+        <v>17255</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -27028,7 +27152,7 @@
         </is>
       </c>
       <c r="U323" s="2" t="n">
-        <v>45238</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="324">
@@ -28007,7 +28131,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -28055,7 +28179,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="n">
@@ -28068,7 +28196,7 @@
         <v>0</v>
       </c>
       <c r="S335" t="n">
-        <v>11737</v>
+        <v>12030</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -28076,7 +28204,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="336">
@@ -28181,7 +28309,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -28229,7 +28357,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="n">
@@ -28242,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="S337" t="n">
-        <v>32439</v>
+        <v>32903</v>
       </c>
       <c r="T337" t="inlineStr">
         <is>
@@ -28250,7 +28382,7 @@
         </is>
       </c>
       <c r="U337" s="2" t="n">
-        <v>45223</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="338">
@@ -28355,7 +28487,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -28403,7 +28535,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="n">
@@ -28416,7 +28552,7 @@
         <v>0</v>
       </c>
       <c r="S339" t="n">
-        <v>36058</v>
+        <v>36515</v>
       </c>
       <c r="T339" t="inlineStr">
         <is>
@@ -28424,7 +28560,7 @@
         </is>
       </c>
       <c r="U339" s="2" t="n">
-        <v>45215</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="340">
@@ -28974,7 +29110,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -29022,7 +29158,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="n">
@@ -29035,7 +29175,7 @@
         <v>0</v>
       </c>
       <c r="S346" t="n">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="T346" t="inlineStr">
         <is>
@@ -29043,7 +29183,7 @@
         </is>
       </c>
       <c r="U346" s="2" t="n">
-        <v>45203</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="347">
@@ -29468,7 +29608,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -29511,7 +29651,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M352" t="inlineStr">
         <is>
           <t>x</t>
@@ -29529,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="S352" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="T352" t="inlineStr">
         <is>
@@ -29537,7 +29681,7 @@
         </is>
       </c>
       <c r="U352" s="2" t="n">
-        <v>45240</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="353">
@@ -30678,7 +30822,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/09/29</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -30721,7 +30865,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M366" t="inlineStr"/>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -30735,7 +30883,7 @@
         <v>0</v>
       </c>
       <c r="S366" t="n">
-        <v>18308</v>
+        <v>18545</v>
       </c>
       <c r="T366" t="inlineStr">
         <is>
@@ -30743,7 +30891,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45198</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="367">
@@ -31075,7 +31223,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -31148,7 +31296,7 @@
         </is>
       </c>
       <c r="U371" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="372">
@@ -31937,7 +32085,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -31998,7 +32146,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>6005</v>
+        <v>6104</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -32006,7 +32154,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45226</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="382">
@@ -34073,7 +34221,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -34142,7 +34290,7 @@
         <v>0</v>
       </c>
       <c r="S405" t="n">
-        <v>29164</v>
+        <v>29243</v>
       </c>
       <c r="T405" t="inlineStr">
         <is>
@@ -34150,7 +34298,7 @@
         </is>
       </c>
       <c r="U405" s="2" t="n">
-        <v>45243</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="406">
@@ -35327,7 +35475,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -35392,7 +35540,7 @@
         <v>0</v>
       </c>
       <c r="S419" t="n">
-        <v>17571</v>
+        <v>17668</v>
       </c>
       <c r="T419" t="inlineStr">
         <is>
@@ -35400,7 +35548,7 @@
         </is>
       </c>
       <c r="U419" s="2" t="n">
-        <v>45244</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="420">
@@ -35505,7 +35653,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -35570,7 +35718,7 @@
         <v>0</v>
       </c>
       <c r="S421" t="n">
-        <v>13799</v>
+        <v>16229</v>
       </c>
       <c r="T421" t="inlineStr">
         <is>
@@ -35578,7 +35726,7 @@
         </is>
       </c>
       <c r="U421" s="2" t="n">
-        <v>45240</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="422">
@@ -35687,7 +35835,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -35735,7 +35883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M423" t="inlineStr"/>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr"/>
       <c r="P423" t="n">
@@ -35748,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="S423" t="n">
-        <v>9819</v>
+        <v>9919</v>
       </c>
       <c r="T423" t="inlineStr">
         <is>
@@ -35756,7 +35908,7 @@
         </is>
       </c>
       <c r="U423" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="424">
@@ -36064,7 +36216,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -36112,7 +36264,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr"/>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
       <c r="P428" t="n">
@@ -36125,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>3061</v>
+        <v>3098</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -36133,7 +36289,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45216</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="429">
@@ -36679,7 +36835,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -36744,7 +36900,7 @@
         <v>0</v>
       </c>
       <c r="S435" t="n">
-        <v>17593</v>
+        <v>17824</v>
       </c>
       <c r="T435" t="inlineStr">
         <is>
@@ -36752,7 +36908,7 @@
         </is>
       </c>
       <c r="U435" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="436">
@@ -37209,7 +37365,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -37257,7 +37413,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M441" t="inlineStr"/>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr"/>
       <c r="P441" t="n">
@@ -37270,7 +37430,7 @@
         <v>0</v>
       </c>
       <c r="S441" t="n">
-        <v>15533</v>
+        <v>15621</v>
       </c>
       <c r="T441" t="inlineStr">
         <is>
@@ -37278,7 +37438,7 @@
         </is>
       </c>
       <c r="U441" s="2" t="n">
-        <v>45229</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="442">
@@ -37472,7 +37632,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -37541,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="n">
-        <v>18200</v>
+        <v>18661</v>
       </c>
       <c r="T444" t="inlineStr">
         <is>
@@ -37549,7 +37709,7 @@
         </is>
       </c>
       <c r="U444" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="445">
@@ -37658,7 +37818,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -37706,7 +37866,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M446" t="inlineStr"/>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
       <c r="P446" t="n">
@@ -37719,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S446" t="n">
-        <v>15270</v>
+        <v>15658</v>
       </c>
       <c r="T446" t="inlineStr">
         <is>
@@ -37727,7 +37891,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45215</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="447">
@@ -37832,7 +37996,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -37880,7 +38044,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M448" t="inlineStr"/>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="n">
@@ -37893,7 +38061,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>1476</v>
+        <v>1492</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -37901,7 +38069,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45225</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="449">
@@ -38091,7 +38259,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -38139,7 +38307,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="n">
@@ -38152,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="S451" t="n">
-        <v>18196</v>
+        <v>18373</v>
       </c>
       <c r="T451" t="inlineStr">
         <is>
@@ -38160,7 +38332,7 @@
         </is>
       </c>
       <c r="U451" s="2" t="n">
-        <v>45243</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="452">
@@ -38621,7 +38793,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -38664,7 +38836,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M457" t="inlineStr">
         <is>
           <t>x</t>
@@ -38682,7 +38858,7 @@
         <v>0</v>
       </c>
       <c r="S457" t="n">
-        <v>5595</v>
+        <v>5694</v>
       </c>
       <c r="T457" t="inlineStr">
         <is>
@@ -38690,7 +38866,7 @@
         </is>
       </c>
       <c r="U457" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="458">
@@ -40532,7 +40708,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -40597,7 +40773,7 @@
         <v>0</v>
       </c>
       <c r="S480" t="n">
-        <v>5477</v>
+        <v>5484</v>
       </c>
       <c r="T480" t="inlineStr">
         <is>
@@ -40605,7 +40781,7 @@
         </is>
       </c>
       <c r="U480" s="2" t="n">
-        <v>45246</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="481">
@@ -41394,7 +41570,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -41442,7 +41618,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
       <c r="P490" t="n">
@@ -41455,7 +41635,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="n">
-        <v>18483</v>
+        <v>18732</v>
       </c>
       <c r="T490" t="inlineStr">
         <is>
@@ -41463,7 +41643,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="491">
@@ -43239,7 +43419,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -43287,7 +43467,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M511" t="inlineStr"/>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr"/>
       <c r="P511" t="n">
@@ -43300,7 +43484,7 @@
         <v>0</v>
       </c>
       <c r="S511" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T511" t="inlineStr">
         <is>
@@ -43308,7 +43492,7 @@
         </is>
       </c>
       <c r="U511" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="512">
@@ -43421,7 +43605,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -43469,7 +43653,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M513" t="inlineStr"/>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr"/>
       <c r="P513" t="n">
@@ -43482,7 +43670,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>4359</v>
+        <v>4427</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -43490,7 +43678,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="514">
@@ -43587,7 +43775,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -43652,7 +43840,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>7006</v>
+        <v>7024</v>
       </c>
       <c r="T515" t="inlineStr">
         <is>
@@ -43660,7 +43848,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45246</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="516">
@@ -43765,7 +43953,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -43783,7 +43971,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="G517" t="inlineStr"/>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>x</t>
@@ -43809,9 +44001,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M517" t="inlineStr"/>
-      <c r="N517" t="inlineStr"/>
-      <c r="O517" t="inlineStr"/>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P517" t="n">
         <v>0</v>
       </c>
@@ -43822,7 +44026,7 @@
         <v>0</v>
       </c>
       <c r="S517" t="n">
-        <v>41787</v>
+        <v>42496</v>
       </c>
       <c r="T517" t="inlineStr">
         <is>
@@ -43830,7 +44034,7 @@
         </is>
       </c>
       <c r="U517" s="2" t="n">
-        <v>45215</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="518">
@@ -43846,7 +44050,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -43894,7 +44098,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M518" t="inlineStr"/>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr"/>
       <c r="P518" t="n">
@@ -43907,7 +44115,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>8259</v>
+        <v>8398</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -43915,7 +44123,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="519">
@@ -44020,7 +44228,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -44089,7 +44297,7 @@
         <v>0</v>
       </c>
       <c r="S520" t="n">
-        <v>30214</v>
+        <v>30229</v>
       </c>
       <c r="T520" t="inlineStr">
         <is>
@@ -44097,7 +44305,7 @@
         </is>
       </c>
       <c r="U520" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="521">
@@ -44202,7 +44410,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -44250,7 +44458,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M522" t="inlineStr"/>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
@@ -44267,7 +44479,7 @@
         <v>0</v>
       </c>
       <c r="S522" t="n">
-        <v>11051</v>
+        <v>11060</v>
       </c>
       <c r="T522" t="inlineStr">
         <is>
@@ -44275,7 +44487,7 @@
         </is>
       </c>
       <c r="U522" s="2" t="n">
-        <v>45232</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="523">
@@ -44809,7 +45021,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -44857,7 +45069,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M529" t="inlineStr"/>
+      <c r="M529" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N529" t="inlineStr"/>
       <c r="O529" t="inlineStr"/>
       <c r="P529" t="n">
@@ -44870,7 +45086,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="n">
-        <v>2641</v>
+        <v>2725</v>
       </c>
       <c r="T529" t="inlineStr">
         <is>
@@ -44878,7 +45094,7 @@
         </is>
       </c>
       <c r="U529" s="2" t="n">
-        <v>45212</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="530">
@@ -45420,7 +45636,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -45493,7 +45709,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45245</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="537">
@@ -45865,7 +46081,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -45930,7 +46146,7 @@
         <v>0</v>
       </c>
       <c r="S541" t="n">
-        <v>12286</v>
+        <v>12430</v>
       </c>
       <c r="T541" t="inlineStr">
         <is>
@@ -45938,7 +46154,7 @@
         </is>
       </c>
       <c r="U541" s="2" t="n">
-        <v>45244</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="542">
@@ -46035,7 +46251,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -46083,7 +46299,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
@@ -46096,7 +46316,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>81791</v>
+        <v>82953</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -46104,7 +46324,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45215</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="544">
@@ -46294,7 +46514,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -46367,7 +46587,7 @@
         </is>
       </c>
       <c r="U546" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="547">
@@ -47144,7 +47364,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -47209,7 +47429,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>33679</v>
+        <v>33751</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -47217,7 +47437,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45240</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="557">
@@ -47500,7 +47720,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -47544,7 +47764,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M560" t="inlineStr"/>
+      <c r="M560" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N560" t="inlineStr"/>
       <c r="O560" t="inlineStr"/>
       <c r="P560" t="n">
@@ -47557,7 +47781,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="n">
-        <v>3018</v>
+        <v>3051</v>
       </c>
       <c r="T560" t="inlineStr">
         <is>
@@ -47565,7 +47789,7 @@
         </is>
       </c>
       <c r="U560" s="2" t="n">
-        <v>45232</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="561">
@@ -47751,7 +47975,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -47824,7 +48048,7 @@
         <v>0</v>
       </c>
       <c r="S563" t="n">
-        <v>11778</v>
+        <v>11806</v>
       </c>
       <c r="T563" t="inlineStr">
         <is>
@@ -47832,7 +48056,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="564">
@@ -47848,7 +48072,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -47909,7 +48133,7 @@
         <v>0</v>
       </c>
       <c r="S564" t="n">
-        <v>24698</v>
+        <v>25028</v>
       </c>
       <c r="T564" t="inlineStr">
         <is>
@@ -47917,7 +48141,7 @@
         </is>
       </c>
       <c r="U564" s="2" t="n">
-        <v>45243</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="565">
@@ -48022,7 +48246,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -48103,7 +48327,7 @@
         </is>
       </c>
       <c r="U566" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="567">
@@ -48119,7 +48343,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -48192,7 +48416,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="568">
@@ -48880,7 +49104,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -48953,7 +49177,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>36984</v>
+        <v>37268</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -48961,7 +49185,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="577">
@@ -49576,7 +49800,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -49624,7 +49848,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M584" t="inlineStr"/>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N584" t="inlineStr"/>
       <c r="O584" t="inlineStr"/>
       <c r="P584" t="n">
@@ -49637,7 +49865,7 @@
         <v>0</v>
       </c>
       <c r="S584" t="n">
-        <v>15573</v>
+        <v>15781</v>
       </c>
       <c r="T584" t="inlineStr">
         <is>
@@ -49645,7 +49873,7 @@
         </is>
       </c>
       <c r="U584" s="2" t="n">
-        <v>45245</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="585">
@@ -50017,7 +50245,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -50082,7 +50310,7 @@
         <v>0</v>
       </c>
       <c r="S589" t="n">
-        <v>11803</v>
+        <v>11872</v>
       </c>
       <c r="T589" t="inlineStr">
         <is>
@@ -50090,7 +50318,7 @@
         </is>
       </c>
       <c r="U589" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="590">
@@ -50195,7 +50423,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -50243,7 +50471,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M591" t="inlineStr"/>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N591" t="inlineStr"/>
       <c r="O591" t="inlineStr"/>
       <c r="P591" t="n">
@@ -50256,7 +50488,7 @@
         <v>0</v>
       </c>
       <c r="S591" t="n">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="T591" t="inlineStr">
         <is>
@@ -50264,7 +50496,7 @@
         </is>
       </c>
       <c r="U591" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="592">
@@ -50721,7 +50953,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -50786,7 +51018,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>36459</v>
+        <v>36834</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -50794,7 +51026,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45245</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="598">
@@ -50810,7 +51042,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -50858,7 +51090,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M598" t="inlineStr"/>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N598" t="inlineStr"/>
       <c r="O598" t="inlineStr"/>
       <c r="P598" t="n">
@@ -50871,7 +51107,7 @@
         <v>0</v>
       </c>
       <c r="S598" t="n">
-        <v>6156</v>
+        <v>6179</v>
       </c>
       <c r="T598" t="inlineStr">
         <is>
@@ -50879,7 +51115,7 @@
         </is>
       </c>
       <c r="U598" s="2" t="n">
-        <v>45236</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="599">
@@ -51660,7 +51896,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -51721,7 +51957,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>12150</v>
+        <v>12336</v>
       </c>
       <c r="T608" t="inlineStr">
         <is>
@@ -51729,7 +51965,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45243</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="609">
@@ -52097,7 +52333,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -52140,7 +52376,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M613" t="inlineStr"/>
       <c r="N613" t="inlineStr"/>
       <c r="O613" t="inlineStr"/>
@@ -52154,7 +52394,7 @@
         <v>0</v>
       </c>
       <c r="S613" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="T613" t="inlineStr">
         <is>
@@ -52162,7 +52402,7 @@
         </is>
       </c>
       <c r="U613" s="2" t="n">
-        <v>45210</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="614">
@@ -52356,7 +52596,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -52404,7 +52644,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M616" t="inlineStr"/>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N616" t="inlineStr"/>
       <c r="O616" t="inlineStr"/>
       <c r="P616" t="n">
@@ -52417,7 +52661,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>17531</v>
+        <v>17932</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
@@ -52425,7 +52669,7 @@
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45229</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="617">
@@ -52530,7 +52774,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -52578,7 +52822,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M618" t="inlineStr"/>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N618" t="inlineStr"/>
       <c r="O618" t="inlineStr"/>
       <c r="P618" t="n">
@@ -52591,7 +52839,7 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>3263</v>
+        <v>3309</v>
       </c>
       <c r="T618" t="inlineStr">
         <is>
@@ -52599,7 +52847,7 @@
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45218</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="619">
@@ -52959,7 +53207,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -53032,7 +53280,7 @@
         </is>
       </c>
       <c r="U623" s="2" t="n">
-        <v>45245</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="624">
@@ -53315,7 +53563,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -53384,7 +53632,7 @@
         <v>0</v>
       </c>
       <c r="S627" t="n">
-        <v>8016</v>
+        <v>8052</v>
       </c>
       <c r="T627" t="inlineStr">
         <is>
@@ -53392,7 +53640,7 @@
         </is>
       </c>
       <c r="U627" s="2" t="n">
-        <v>45243</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="628">
@@ -55152,7 +55400,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -55200,7 +55448,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N648" t="inlineStr"/>
       <c r="O648" t="inlineStr"/>
       <c r="P648" t="n">
@@ -55213,7 +55465,7 @@
         <v>0</v>
       </c>
       <c r="S648" t="n">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="T648" t="inlineStr">
         <is>
@@ -55221,7 +55473,7 @@
         </is>
       </c>
       <c r="U648" s="2" t="n">
-        <v>45247</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="649">
@@ -55322,7 +55574,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -55387,7 +55639,7 @@
         <v>0</v>
       </c>
       <c r="S650" t="n">
-        <v>25161</v>
+        <v>25321</v>
       </c>
       <c r="T650" t="inlineStr">
         <is>
@@ -55395,7 +55647,7 @@
         </is>
       </c>
       <c r="U650" s="2" t="n">
-        <v>45243</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="651">
@@ -56475,7 +56727,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -56523,7 +56775,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M663" t="inlineStr"/>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N663" t="inlineStr"/>
       <c r="O663" t="inlineStr"/>
       <c r="P663" t="n">
@@ -56536,7 +56792,7 @@
         <v>0</v>
       </c>
       <c r="S663" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="T663" t="inlineStr">
         <is>
@@ -56544,7 +56800,7 @@
         </is>
       </c>
       <c r="U663" s="2" t="n">
-        <v>45230</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="664">
@@ -57111,7 +57367,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -57159,7 +57415,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M671" t="inlineStr"/>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N671" t="inlineStr"/>
       <c r="O671" t="inlineStr"/>
       <c r="P671" t="n">
@@ -57172,7 +57432,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>6595</v>
+        <v>6723</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -57180,7 +57440,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45224</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="672">
@@ -58286,7 +58546,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -58347,7 +58607,7 @@
         </is>
       </c>
       <c r="U686" s="2" t="n">
-        <v>45215</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="687">
@@ -59714,7 +59974,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -59779,7 +60039,7 @@
         <v>0</v>
       </c>
       <c r="S706" t="n">
-        <v>17679</v>
+        <v>17678</v>
       </c>
       <c r="T706" t="inlineStr">
         <is>
@@ -59787,7 +60047,7 @@
         </is>
       </c>
       <c r="U706" s="2" t="n">
-        <v>45244</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="707">
@@ -60042,7 +60302,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -60086,7 +60346,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M710" t="inlineStr"/>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N710" t="inlineStr"/>
       <c r="O710" t="inlineStr"/>
       <c r="P710" t="n">
@@ -60099,7 +60363,7 @@
         <v>0</v>
       </c>
       <c r="S710" t="n">
-        <v>2592</v>
+        <v>2871</v>
       </c>
       <c r="T710" t="inlineStr">
         <is>
@@ -60107,7 +60371,7 @@
         </is>
       </c>
       <c r="U710" s="2" t="n">
-        <v>45218</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="711">
@@ -60192,12 +60456,24 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>2023/07/20</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr"/>
+          <t>2023/11/21</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="inlineStr"/>
       <c r="I712" t="inlineStr"/>
@@ -60217,7 +60493,7 @@
         <v>0</v>
       </c>
       <c r="S712" t="n">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="T712" t="inlineStr">
         <is>
@@ -60225,7 +60501,7 @@
         </is>
       </c>
       <c r="U712" s="2" t="n">
-        <v>45127</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="713">
@@ -60241,7 +60517,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -60274,10 +60550,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
-      <c r="M713" t="inlineStr"/>
+      <c r="J713" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N713" t="inlineStr"/>
       <c r="O713" t="inlineStr"/>
       <c r="P713" t="n">
@@ -60290,7 +60582,7 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
-        <v>292</v>
+        <v>522</v>
       </c>
       <c r="T713" t="inlineStr">
         <is>
@@ -60298,7 +60590,7 @@
         </is>
       </c>
       <c r="U713" s="2" t="n">
-        <v>45121</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="714">
@@ -60755,7 +61047,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -60803,7 +61095,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M719" t="inlineStr"/>
+      <c r="M719" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N719" t="inlineStr"/>
       <c r="O719" t="inlineStr">
         <is>
@@ -60820,7 +61116,7 @@
         <v>0</v>
       </c>
       <c r="S719" t="n">
-        <v>2078</v>
+        <v>2210</v>
       </c>
       <c r="T719" t="inlineStr">
         <is>
@@ -60828,7 +61124,7 @@
         </is>
       </c>
       <c r="U719" s="2" t="n">
-        <v>45224</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="720">
@@ -60929,7 +61225,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>2023/10/05</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -60977,7 +61273,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M721" t="inlineStr"/>
+      <c r="M721" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N721" t="inlineStr"/>
       <c r="O721" t="inlineStr"/>
       <c r="P721" t="n">
@@ -60990,7 +61290,7 @@
         <v>0</v>
       </c>
       <c r="S721" t="n">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="T721" t="inlineStr">
         <is>
@@ -60998,7 +61298,7 @@
         </is>
       </c>
       <c r="U721" s="2" t="n">
-        <v>45204</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="722">
@@ -61840,7 +62140,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -61888,7 +62188,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M732" t="inlineStr"/>
+      <c r="M732" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N732" t="inlineStr"/>
       <c r="O732" t="inlineStr"/>
       <c r="P732" t="n">
@@ -61901,7 +62205,7 @@
         <v>0</v>
       </c>
       <c r="S732" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="T732" t="inlineStr">
         <is>
@@ -61909,7 +62213,7 @@
         </is>
       </c>
       <c r="U732" s="2" t="n">
-        <v>45219</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="733">
@@ -62687,7 +62991,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -62735,7 +63039,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M743" t="inlineStr"/>
+      <c r="M743" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N743" t="inlineStr"/>
       <c r="O743" t="inlineStr"/>
       <c r="P743" t="n">
@@ -62748,7 +63056,7 @@
         <v>0</v>
       </c>
       <c r="S743" t="n">
-        <v>1131</v>
+        <v>1275</v>
       </c>
       <c r="T743" t="inlineStr">
         <is>
@@ -62756,7 +63064,7 @@
         </is>
       </c>
       <c r="U743" s="2" t="n">
-        <v>45229</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="744">
@@ -62910,7 +63218,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -62958,7 +63266,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M746" t="inlineStr"/>
+      <c r="M746" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N746" t="inlineStr"/>
       <c r="O746" t="inlineStr"/>
       <c r="P746" t="n">
@@ -62971,7 +63283,7 @@
         <v>0</v>
       </c>
       <c r="S746" t="n">
-        <v>1042</v>
+        <v>1129</v>
       </c>
       <c r="T746" t="inlineStr">
         <is>
@@ -62979,7 +63291,7 @@
         </is>
       </c>
       <c r="U746" s="2" t="n">
-        <v>45216</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="747">
@@ -66185,7 +66497,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>2023/08/07</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="D789" t="inlineStr"/>
@@ -66195,8 +66507,16 @@
       <c r="H789" t="inlineStr"/>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L789" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M789" t="inlineStr"/>
       <c r="N789" t="inlineStr"/>
       <c r="O789" t="inlineStr"/>
@@ -66210,7 +66530,7 @@
         <v>0</v>
       </c>
       <c r="S789" t="n">
-        <v>1966</v>
+        <v>2198</v>
       </c>
       <c r="T789" t="inlineStr">
         <is>
@@ -66218,7 +66538,7 @@
         </is>
       </c>
       <c r="U789" s="2" t="n">
-        <v>45145</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="790">
@@ -66692,7 +67012,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -66735,7 +67055,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L796" t="inlineStr"/>
+      <c r="L796" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="M796" t="inlineStr"/>
       <c r="N796" t="inlineStr"/>
       <c r="O796" t="inlineStr"/>
@@ -66749,7 +67073,7 @@
         <v>0</v>
       </c>
       <c r="S796" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="T796" t="inlineStr">
         <is>
@@ -66757,7 +67081,7 @@
         </is>
       </c>
       <c r="U796" s="2" t="n">
-        <v>45222</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="797">
@@ -67065,7 +67389,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -67078,10 +67402,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr"/>
-      <c r="H801" t="inlineStr"/>
-      <c r="I801" t="inlineStr"/>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="J801" t="inlineStr">
         <is>
           <t>x</t>
@@ -67097,7 +67437,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M801" t="inlineStr"/>
+      <c r="M801" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N801" t="inlineStr"/>
       <c r="O801" t="inlineStr"/>
       <c r="P801" t="n">
@@ -67110,7 +67454,7 @@
         <v>0</v>
       </c>
       <c r="S801" t="n">
-        <v>1020</v>
+        <v>3135</v>
       </c>
       <c r="T801" t="inlineStr">
         <is>
@@ -67118,7 +67462,7 @@
         </is>
       </c>
       <c r="U801" s="2" t="n">
-        <v>45215</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="802">
@@ -68047,6 +68391,136 @@
         <v>45238</v>
       </c>
     </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Corporación Municipal de Deportes y Recreación de La Ilustre Municipalidad de Isla de Pascua</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>2023/11/21</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
+      <c r="L816" t="inlineStr"/>
+      <c r="M816" t="inlineStr"/>
+      <c r="N816" t="inlineStr"/>
+      <c r="O816" t="inlineStr"/>
+      <c r="P816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R816" t="n">
+        <v>0</v>
+      </c>
+      <c r="S816" t="n">
+        <v>136</v>
+      </c>
+      <c r="T816" t="inlineStr">
+        <is>
+          <t>CM200</t>
+        </is>
+      </c>
+      <c r="U816" s="2" t="n">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>CORPORACION REGIONAL DE TURISMO DE LA REGIÓN METROPOLITANA</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>2023/11/24</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr"/>
+      <c r="E817" t="inlineStr"/>
+      <c r="F817" t="inlineStr"/>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
+      <c r="L817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N817" t="inlineStr"/>
+      <c r="O817" t="inlineStr"/>
+      <c r="P817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R817" t="n">
+        <v>0</v>
+      </c>
+      <c r="S817" t="n">
+        <v>46</v>
+      </c>
+      <c r="T817" t="inlineStr">
+        <is>
+          <t>FU013</t>
+        </is>
+      </c>
+      <c r="U817" s="2" t="n">
+        <v>45254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="U3" s="2" t="n">
-        <v>45257</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="4">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4351,7 +4351,11 @@
         </is>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
         <v>0</v>
@@ -4363,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>227479</v>
+        <v>227491</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4371,7 +4375,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="55">
@@ -5253,7 +5257,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5291,10 +5295,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>0</v>
@@ -5306,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>14001</v>
+        <v>14186</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -5314,7 +5334,7 @@
         </is>
       </c>
       <c r="U65" s="2" t="n">
-        <v>45282</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="66">
@@ -6282,7 +6302,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6335,7 +6355,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
         <v>0</v>
@@ -6347,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>11628</v>
+        <v>11757</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6355,7 +6379,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45240</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="79">
@@ -6727,7 +6751,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2023/04/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -6796,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>6713</v>
+        <v>7047</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -6804,7 +6828,7 @@
         </is>
       </c>
       <c r="U83" s="2" t="n">
-        <v>45037</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="84">
@@ -7006,7 +7030,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7059,7 +7083,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
         <v>0</v>
@@ -7071,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>17278</v>
+        <v>17522</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7079,7 +7107,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45280</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="87">
@@ -7374,7 +7402,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2023/12/24</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7427,7 +7455,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
         <v>0</v>
@@ -7439,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2535</v>
+        <v>2546</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -7447,7 +7479,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45264</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="91">
@@ -7823,7 +7855,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -7871,8 +7903,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
         <v>0</v>
@@ -7884,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>11935</v>
+        <v>11998</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -7892,7 +7932,7 @@
         </is>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45219</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="96">
@@ -8511,7 +8551,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8584,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>34606</v>
+        <v>35054</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -8592,7 +8632,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45281</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="104">
@@ -8887,7 +8927,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -8940,7 +8980,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
         <v>0</v>
@@ -8952,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>9220</v>
+        <v>9384</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -8960,7 +9004,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45240</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="108">
@@ -9162,7 +9206,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9205,9 +9249,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
         <v>0</v>
@@ -9219,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>6307</v>
+        <v>6465</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -9227,7 +9283,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="111">
@@ -13681,7 +13737,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -13734,7 +13790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
         <v>0</v>
@@ -13746,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>118847</v>
+        <v>120469</v>
       </c>
       <c r="T161" t="inlineStr">
         <is>
@@ -13754,7 +13814,7 @@
         </is>
       </c>
       <c r="U161" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="162">
@@ -13770,7 +13830,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13823,7 +13883,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O162" t="inlineStr"/>
       <c r="P162" t="n">
         <v>0</v>
@@ -13835,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>84443</v>
+        <v>85358</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -13843,7 +13907,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45277</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="163">
@@ -13859,7 +13923,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13940,7 +14004,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="164">
@@ -20339,7 +20403,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20408,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>7803</v>
+        <v>7810</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -20416,7 +20480,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="236">
@@ -26727,7 +26791,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -26770,9 +26834,21 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="inlineStr"/>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="n">
         <v>0</v>
@@ -26784,7 +26860,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="T307" t="inlineStr">
         <is>
@@ -26792,7 +26868,7 @@
         </is>
       </c>
       <c r="U307" s="2" t="n">
-        <v>45184</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="308">
@@ -33062,7 +33138,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -33111,7 +33187,11 @@
         </is>
       </c>
       <c r="M378" t="inlineStr"/>
-      <c r="N378" t="inlineStr"/>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O378" t="inlineStr"/>
       <c r="P378" t="n">
         <v>0</v>
@@ -33123,7 +33203,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>6104</v>
+        <v>6192</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -33131,7 +33211,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="379">
@@ -33426,7 +33506,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -33479,7 +33559,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N382" t="inlineStr"/>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O382" t="inlineStr"/>
       <c r="P382" t="n">
         <v>0</v>
@@ -33491,7 +33575,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>11089</v>
+        <v>11110</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -33499,7 +33583,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45244</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="383">
@@ -36572,7 +36656,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -36625,7 +36709,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N416" t="inlineStr"/>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O416" t="inlineStr"/>
       <c r="P416" t="n">
         <v>0</v>
@@ -36637,7 +36725,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>17668</v>
+        <v>17772</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -36645,7 +36733,7 @@
         </is>
       </c>
       <c r="U416" s="2" t="n">
-        <v>45267</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="417">
@@ -37616,7 +37704,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -37685,7 +37773,7 @@
         <v>0</v>
       </c>
       <c r="S428" t="n">
-        <v>7299</v>
+        <v>7392</v>
       </c>
       <c r="T428" t="inlineStr">
         <is>
@@ -37693,7 +37781,7 @@
         </is>
       </c>
       <c r="U428" s="2" t="n">
-        <v>45273</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="429">
@@ -38542,7 +38630,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -38595,7 +38683,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N438" t="inlineStr"/>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O438" t="inlineStr"/>
       <c r="P438" t="n">
         <v>0</v>
@@ -38607,7 +38699,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>15747</v>
+        <v>15824</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -38615,7 +38707,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45257</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="439">
@@ -38910,7 +39002,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -38991,7 +39083,7 @@
         </is>
       </c>
       <c r="U442" s="2" t="n">
-        <v>45273</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="443">
@@ -43845,7 +43937,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -43918,7 +44010,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>8484</v>
+        <v>8529</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
@@ -43926,7 +44018,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45281</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="498">
@@ -45317,7 +45409,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -45390,7 +45482,7 @@
         <v>0</v>
       </c>
       <c r="S513" t="n">
-        <v>42496</v>
+        <v>43175</v>
       </c>
       <c r="T513" t="inlineStr">
         <is>
@@ -45398,7 +45490,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45250</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="514">
@@ -45782,7 +45874,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -45855,7 +45947,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>11324</v>
+        <v>11414</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -45863,7 +45955,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45280</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="519">
@@ -47064,7 +47156,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -47141,7 +47233,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45282</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="533">
@@ -47711,7 +47803,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -47764,7 +47856,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N539" t="inlineStr"/>
+      <c r="N539" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O539" t="inlineStr"/>
       <c r="P539" t="n">
         <v>0</v>
@@ -47776,7 +47872,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>82953</v>
+        <v>83508</v>
       </c>
       <c r="T539" t="inlineStr">
         <is>
@@ -47784,7 +47880,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45254</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="540">
@@ -47986,7 +48082,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -48063,7 +48159,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45273</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="543">
@@ -48164,7 +48260,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -48217,7 +48313,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N544" t="inlineStr"/>
+      <c r="N544" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O544" t="inlineStr"/>
       <c r="P544" t="n">
         <v>0</v>
@@ -48229,7 +48329,7 @@
         <v>0</v>
       </c>
       <c r="S544" t="n">
-        <v>100161</v>
+        <v>100505</v>
       </c>
       <c r="T544" t="inlineStr">
         <is>
@@ -48237,7 +48337,7 @@
         </is>
       </c>
       <c r="U544" s="2" t="n">
-        <v>45257</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="545">
@@ -49240,7 +49340,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -49289,7 +49389,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N556" t="inlineStr"/>
+      <c r="N556" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O556" t="inlineStr"/>
       <c r="P556" t="n">
         <v>0</v>
@@ -49301,7 +49405,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>3051</v>
+        <v>3072</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -49309,7 +49413,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45250</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="557">
@@ -49883,7 +49987,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -49952,7 +50056,7 @@
         <v>0</v>
       </c>
       <c r="S563" t="n">
-        <v>44285</v>
+        <v>44284</v>
       </c>
       <c r="T563" t="inlineStr">
         <is>
@@ -49960,7 +50064,7 @@
         </is>
       </c>
       <c r="U563" s="2" t="n">
-        <v>45278</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="564">
@@ -50676,7 +50780,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -50749,7 +50853,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>37309</v>
+        <v>37583</v>
       </c>
       <c r="T572" t="inlineStr">
         <is>
@@ -50757,7 +50861,7 @@
         </is>
       </c>
       <c r="U572" s="2" t="n">
-        <v>45267</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="573">
@@ -51145,7 +51249,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -51222,7 +51326,7 @@
         </is>
       </c>
       <c r="U577" s="2" t="n">
-        <v>45280</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="578">
@@ -52047,7 +52151,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -52100,7 +52204,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N587" t="inlineStr"/>
+      <c r="N587" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O587" t="inlineStr"/>
       <c r="P587" t="n">
         <v>0</v>
@@ -52112,7 +52220,7 @@
         <v>0</v>
       </c>
       <c r="S587" t="n">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="T587" t="inlineStr">
         <is>
@@ -52120,7 +52228,7 @@
         </is>
       </c>
       <c r="U587" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="588">
@@ -52508,7 +52616,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -52556,8 +52664,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M592" t="inlineStr"/>
-      <c r="N592" t="inlineStr"/>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O592" t="inlineStr"/>
       <c r="P592" t="n">
         <v>0</v>
@@ -52569,7 +52685,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>26524</v>
+        <v>26889</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -52577,7 +52693,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45247</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="593">
@@ -52965,7 +53081,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -53034,7 +53150,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>24867</v>
+        <v>24861</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -53042,7 +53158,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45267</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="598">
@@ -53572,7 +53688,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -53641,7 +53757,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>12482</v>
+        <v>12616</v>
       </c>
       <c r="T604" t="inlineStr">
         <is>
@@ -53649,7 +53765,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45274</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="605">
@@ -56973,7 +57089,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -57017,7 +57133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M641" t="inlineStr"/>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N641" t="inlineStr"/>
       <c r="O641" t="inlineStr"/>
       <c r="P641" t="n">
@@ -57030,7 +57150,7 @@
         <v>0</v>
       </c>
       <c r="S641" t="n">
-        <v>35709</v>
+        <v>36134</v>
       </c>
       <c r="T641" t="inlineStr">
         <is>
@@ -57038,7 +57158,7 @@
         </is>
       </c>
       <c r="U641" s="2" t="n">
-        <v>45279</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="642">
@@ -57689,7 +57809,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -57758,7 +57878,7 @@
         <v>0</v>
       </c>
       <c r="S649" t="n">
-        <v>15422</v>
+        <v>15420</v>
       </c>
       <c r="T649" t="inlineStr">
         <is>
@@ -57766,7 +57886,7 @@
         </is>
       </c>
       <c r="U649" s="2" t="n">
-        <v>45274</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="650">
@@ -57968,7 +58088,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -58041,7 +58161,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>112542</v>
+        <v>112969</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -58049,7 +58169,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45279</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="653">
@@ -59303,7 +59423,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -59356,7 +59476,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N667" t="inlineStr"/>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O667" t="inlineStr"/>
       <c r="P667" t="n">
         <v>0</v>
@@ -59368,7 +59492,7 @@
         <v>0</v>
       </c>
       <c r="S667" t="n">
-        <v>1796</v>
+        <v>1871</v>
       </c>
       <c r="T667" t="inlineStr">
         <is>
@@ -59376,7 +59500,7 @@
         </is>
       </c>
       <c r="U667" s="2" t="n">
-        <v>45224</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="668">
@@ -59392,7 +59516,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2023/12/09</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -59469,7 +59593,7 @@
         </is>
       </c>
       <c r="U668" s="2" t="n">
-        <v>45269</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="669">
@@ -60274,7 +60398,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -60322,8 +60446,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M678" t="inlineStr"/>
-      <c r="N678" t="inlineStr"/>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N678" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O678" t="inlineStr"/>
       <c r="P678" t="n">
         <v>0</v>
@@ -60335,7 +60467,7 @@
         <v>0</v>
       </c>
       <c r="S678" t="n">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="T678" t="inlineStr">
         <is>
@@ -60343,7 +60475,7 @@
         </is>
       </c>
       <c r="U678" s="2" t="n">
-        <v>45215</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="679">
@@ -62202,7 +62334,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>2023/07/03</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -62235,11 +62367,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
-      <c r="M702" t="inlineStr"/>
-      <c r="N702" t="inlineStr"/>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O702" t="inlineStr"/>
       <c r="P702" t="n">
         <v>0</v>
@@ -62251,7 +62403,7 @@
         <v>0</v>
       </c>
       <c r="S702" t="n">
-        <v>948</v>
+        <v>1206</v>
       </c>
       <c r="T702" t="inlineStr">
         <is>
@@ -62259,7 +62411,7 @@
         </is>
       </c>
       <c r="U702" s="2" t="n">
-        <v>45110</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="703">
@@ -64072,7 +64224,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -64145,7 +64297,7 @@
         <v>0</v>
       </c>
       <c r="S724" t="n">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="T724" t="inlineStr">
         <is>
@@ -64153,7 +64305,7 @@
         </is>
       </c>
       <c r="U724" s="2" t="n">
-        <v>45238</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="725">
@@ -64355,7 +64507,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -64408,7 +64560,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N727" t="inlineStr"/>
+      <c r="N727" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O727" t="inlineStr"/>
       <c r="P727" t="n">
         <v>0</v>
@@ -64420,7 +64576,7 @@
         <v>0</v>
       </c>
       <c r="S727" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="T727" t="inlineStr">
         <is>
@@ -64428,7 +64584,7 @@
         </is>
       </c>
       <c r="U727" s="2" t="n">
-        <v>45250</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="728">
@@ -65226,7 +65382,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -65279,7 +65435,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N738" t="inlineStr"/>
+      <c r="N738" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O738" t="inlineStr"/>
       <c r="P738" t="n">
         <v>0</v>
@@ -65291,7 +65451,7 @@
         <v>0</v>
       </c>
       <c r="S738" t="n">
-        <v>1275</v>
+        <v>1406</v>
       </c>
       <c r="T738" t="inlineStr">
         <is>
@@ -65299,7 +65459,7 @@
         </is>
       </c>
       <c r="U738" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="739">
@@ -67649,7 +67809,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -67697,8 +67857,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M769" t="inlineStr"/>
-      <c r="N769" t="inlineStr"/>
+      <c r="M769" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O769" t="inlineStr"/>
       <c r="P769" t="n">
         <v>0</v>
@@ -67710,7 +67878,7 @@
         <v>0</v>
       </c>
       <c r="S769" t="n">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="T769" t="inlineStr">
         <is>
@@ -67718,7 +67886,7 @@
         </is>
       </c>
       <c r="U769" s="2" t="n">
-        <v>45215</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="770">
@@ -69767,7 +69935,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -69815,7 +69983,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M795" t="inlineStr"/>
+      <c r="M795" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N795" t="inlineStr"/>
       <c r="O795" t="inlineStr"/>
       <c r="P795" t="n">
@@ -69828,7 +70000,7 @@
         <v>0</v>
       </c>
       <c r="S795" t="n">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="T795" t="inlineStr">
         <is>
@@ -69836,7 +70008,7 @@
         </is>
       </c>
       <c r="U795" s="2" t="n">
-        <v>45251</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="796">
@@ -70152,7 +70324,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -70205,7 +70377,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N800" t="inlineStr"/>
+      <c r="N800" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O800" t="inlineStr"/>
       <c r="P800" t="n">
         <v>0</v>
@@ -70217,7 +70393,7 @@
         <v>0</v>
       </c>
       <c r="S800" t="n">
-        <v>3135</v>
+        <v>3491</v>
       </c>
       <c r="T800" t="inlineStr">
         <is>
@@ -70225,7 +70401,7 @@
         </is>
       </c>
       <c r="U800" s="2" t="n">
-        <v>45252</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="801">
@@ -70594,7 +70770,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D806" t="inlineStr"/>
@@ -70623,7 +70799,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N806" t="inlineStr"/>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O806" t="inlineStr"/>
       <c r="P806" t="n">
         <v>0</v>
@@ -70635,7 +70815,7 @@
         <v>0</v>
       </c>
       <c r="S806" t="n">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="T806" t="inlineStr">
         <is>
@@ -70643,7 +70823,7 @@
         </is>
       </c>
       <c r="U806" s="2" t="n">
-        <v>45244</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="807">
@@ -71203,7 +71383,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -71260,7 +71440,7 @@
         </is>
       </c>
       <c r="U815" s="2" t="n">
-        <v>45251</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="816">
@@ -71276,7 +71456,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D816" t="inlineStr"/>
@@ -71297,7 +71477,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N816" t="inlineStr"/>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O816" t="inlineStr"/>
       <c r="P816" t="n">
         <v>0</v>
@@ -71309,7 +71493,7 @@
         <v>0</v>
       </c>
       <c r="S816" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="T816" t="inlineStr">
         <is>
@@ -71317,7 +71501,7 @@
         </is>
       </c>
       <c r="U816" s="2" t="n">
-        <v>45254</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="817">
@@ -72340,7 +72524,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
@@ -72369,7 +72553,7 @@
         <v>0</v>
       </c>
       <c r="S836" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T836" t="inlineStr">
         <is>
@@ -72377,7 +72561,7 @@
         </is>
       </c>
       <c r="U836" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="837">
@@ -73289,7 +73473,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Osorno</t>
+          <t>Delegación Presidencial Provincial de Chiloé</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -73323,11 +73507,11 @@
         <v>0</v>
       </c>
       <c r="S854" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="T854" t="inlineStr">
         <is>
-          <t>AB057</t>
+          <t>AB059</t>
         </is>
       </c>
       <c r="U854" s="2" t="n">
@@ -73342,7 +73526,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chiloé</t>
+          <t>Delegación Presidencial Provincial de Capitán Prat</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -73376,11 +73560,11 @@
         <v>0</v>
       </c>
       <c r="S855" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="T855" t="inlineStr">
         <is>
-          <t>AB059</t>
+          <t>AB064</t>
         </is>
       </c>
       <c r="U855" s="2" t="n">
@@ -73395,7 +73579,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Capitán Prat</t>
+          <t>Delegación Presidencial Provincial de Choapa</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -73433,7 +73617,7 @@
       </c>
       <c r="T856" t="inlineStr">
         <is>
-          <t>AB064</t>
+          <t>AB034</t>
         </is>
       </c>
       <c r="U856" s="2" t="n">
@@ -73448,12 +73632,12 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Choapa</t>
+          <t>Delegación Presidencial Regional del Maule</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/19</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
@@ -73482,15 +73666,15 @@
         <v>0</v>
       </c>
       <c r="S857" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="T857" t="inlineStr">
         <is>
-          <t>AB034</t>
+          <t>AB020</t>
         </is>
       </c>
       <c r="U857" s="2" t="n">
-        <v>45275</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="858">
@@ -73501,12 +73685,12 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Maule</t>
+          <t>Delegación Presidencial Regional de Tarapacá</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
@@ -73535,15 +73719,15 @@
         <v>0</v>
       </c>
       <c r="S858" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="T858" t="inlineStr">
         <is>
-          <t>AB020</t>
+          <t>AB017</t>
         </is>
       </c>
       <c r="U858" s="2" t="n">
-        <v>45279</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="859">
@@ -73554,7 +73738,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Tarapacá</t>
+          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -73588,11 +73772,11 @@
         <v>0</v>
       </c>
       <c r="S859" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="T859" t="inlineStr">
         <is>
-          <t>AB017</t>
+          <t>AB010</t>
         </is>
       </c>
       <c r="U859" s="2" t="n">
@@ -73607,7 +73791,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Aysén del General Carlos Ibáñez del Campo</t>
+          <t>Delegación Presidencial Provincial de Malleco</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -73641,11 +73825,11 @@
         <v>0</v>
       </c>
       <c r="S860" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="T860" t="inlineStr">
         <is>
-          <t>AB010</t>
+          <t>AB053</t>
         </is>
       </c>
       <c r="U860" s="2" t="n">
@@ -73660,7 +73844,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Malleco</t>
+          <t>Delegación Presidencial Regional de Coquimbo</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -73694,11 +73878,11 @@
         <v>0</v>
       </c>
       <c r="S861" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="T861" t="inlineStr">
         <is>
-          <t>AB053</t>
+          <t>AB011</t>
         </is>
       </c>
       <c r="U861" s="2" t="n">
@@ -73713,7 +73897,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Coquimbo</t>
+          <t>Delegación Presidencial Provincial de Tamarugal</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -73747,11 +73931,11 @@
         <v>0</v>
       </c>
       <c r="S862" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="T862" t="inlineStr">
         <is>
-          <t>AB011</t>
+          <t>AB025</t>
         </is>
       </c>
       <c r="U862" s="2" t="n">
@@ -73766,12 +73950,12 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tamarugal</t>
+          <t>Servicio Electoral (SERVEL)</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
@@ -73800,15 +73984,15 @@
         <v>0</v>
       </c>
       <c r="S863" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T863" t="inlineStr">
         <is>
-          <t>AB025</t>
+          <t>AB006</t>
         </is>
       </c>
       <c r="U863" s="2" t="n">
-        <v>45275</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="864">
@@ -73819,12 +74003,12 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Servicio Electoral (SERVEL)</t>
+          <t>Delegación Presidencial Provincial de Cardenal Caro</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
@@ -73853,15 +74037,15 @@
         <v>0</v>
       </c>
       <c r="S864" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T864" t="inlineStr">
         <is>
-          <t>AB006</t>
+          <t>AB044</t>
         </is>
       </c>
       <c r="U864" s="2" t="n">
-        <v>45273</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="865">
@@ -73872,12 +74056,12 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Cardenal Caro</t>
+          <t>Delegación Presidencial Regional del Biobío</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/22</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
@@ -73906,15 +74090,15 @@
         <v>0</v>
       </c>
       <c r="S865" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="T865" t="inlineStr">
         <is>
-          <t>AB044</t>
+          <t>AB019</t>
         </is>
       </c>
       <c r="U865" s="2" t="n">
-        <v>45275</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="866">
@@ -73925,12 +74109,12 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Biobío</t>
+          <t>Delegación Presidencial Provincial de Palena</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
@@ -73959,15 +74143,15 @@
         <v>0</v>
       </c>
       <c r="S866" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="T866" t="inlineStr">
         <is>
-          <t>AB019</t>
+          <t>AB060</t>
         </is>
       </c>
       <c r="U866" s="2" t="n">
-        <v>45282</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="867">
@@ -73978,7 +74162,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Palena</t>
+          <t>Delegación Presidencial Provincial de Arauco</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -74012,11 +74196,11 @@
         <v>0</v>
       </c>
       <c r="S867" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T867" t="inlineStr">
         <is>
-          <t>AB060</t>
+          <t>AB052</t>
         </is>
       </c>
       <c r="U867" s="2" t="n">
@@ -74031,12 +74215,12 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Arauco</t>
+          <t>Delegación Presidencial Provincial de Cordillera</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
@@ -74065,15 +74249,15 @@
         <v>0</v>
       </c>
       <c r="S868" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="T868" t="inlineStr">
         <is>
-          <t>AB052</t>
+          <t>AB070</t>
         </is>
       </c>
       <c r="U868" s="2" t="n">
-        <v>45275</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="869">
@@ -74084,7 +74268,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Cordillera</t>
+          <t>Delegación Presidencial Provincial de San Antonio</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -74122,7 +74306,7 @@
       </c>
       <c r="T869" t="inlineStr">
         <is>
-          <t>AB070</t>
+          <t>AB040</t>
         </is>
       </c>
       <c r="U869" s="2" t="n">
@@ -74137,7 +74321,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Antonio</t>
+          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -74171,11 +74355,11 @@
         <v>0</v>
       </c>
       <c r="S870" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T870" t="inlineStr">
         <is>
-          <t>AB040</t>
+          <t>AB068</t>
         </is>
       </c>
       <c r="U870" s="2" t="n">
@@ -74190,7 +74374,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
+          <t>Servicio de Gobierno Interior</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -74224,11 +74408,11 @@
         <v>0</v>
       </c>
       <c r="S871" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="T871" t="inlineStr">
         <is>
-          <t>AB068</t>
+          <t>AB005</t>
         </is>
       </c>
       <c r="U871" s="2" t="n">
@@ -74243,7 +74427,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Servicio de Gobierno Interior</t>
+          <t>Delegación Presidencial Regional Metropolitana</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -74277,11 +74461,11 @@
         <v>0</v>
       </c>
       <c r="S872" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="T872" t="inlineStr">
         <is>
-          <t>AB005</t>
+          <t>AB021</t>
         </is>
       </c>
       <c r="U872" s="2" t="n">
@@ -74296,12 +74480,12 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional Metropolitana</t>
+          <t>Corporación de Deporte de Los Andes</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/18</t>
         </is>
       </c>
       <c r="D873" t="inlineStr"/>
@@ -74312,8 +74496,16 @@
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
-      <c r="L873" t="inlineStr"/>
-      <c r="M873" t="inlineStr"/>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N873" t="inlineStr">
         <is>
           <t>x</t>
@@ -74330,15 +74522,15 @@
         <v>0</v>
       </c>
       <c r="S873" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T873" t="inlineStr">
         <is>
-          <t>AB021</t>
+          <t>CM120</t>
         </is>
       </c>
       <c r="U873" s="2" t="n">
-        <v>45275</v>
+        <v>45278</v>
       </c>
     </row>
     <row r="874">
@@ -74349,12 +74541,12 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Corporación de Deporte de Los Andes</t>
+          <t>Delegación Presidencial Provincial de Osorno</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
@@ -74365,16 +74557,8 @@
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
-      <c r="L874" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="M874" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="L874" t="inlineStr"/>
+      <c r="M874" t="inlineStr"/>
       <c r="N874" t="inlineStr">
         <is>
           <t>x</t>
@@ -74391,15 +74575,15 @@
         <v>0</v>
       </c>
       <c r="S874" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="T874" t="inlineStr">
         <is>
-          <t>CM120</t>
+          <t>AB057</t>
         </is>
       </c>
       <c r="U874" s="2" t="n">
-        <v>45278</v>
+        <v>45287</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3">
@@ -637,7 +637,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="U5" s="2" t="n">
-        <v>45264</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="12">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1623,7 +1623,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
@@ -1634,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -1642,7 +1646,7 @@
         </is>
       </c>
       <c r="U21" s="2" t="n">
-        <v>45267</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="22">
@@ -2578,7 +2582,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2631,7 +2635,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>0</v>
@@ -2643,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28796</v>
+        <v>29190</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -2651,7 +2659,7 @@
         </is>
       </c>
       <c r="U34" s="2" t="n">
-        <v>45252</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="35">
@@ -3562,7 +3570,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3620,7 +3628,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3639,7 +3651,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="47">
@@ -4391,7 +4403,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4468,7 +4480,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="56">
@@ -4808,7 +4820,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4877,7 +4889,7 @@
         </is>
       </c>
       <c r="U60" s="2" t="n">
-        <v>45281</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="61">
@@ -5541,7 +5553,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -5599,7 +5611,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
@@ -5610,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -5618,7 +5634,7 @@
         </is>
       </c>
       <c r="U69" s="2" t="n">
-        <v>45267</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="70">
@@ -6213,7 +6229,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6266,7 +6282,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
         <v>0</v>
@@ -6278,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>6306</v>
+        <v>6368</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -6286,7 +6306,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45257</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="78">
@@ -6937,7 +6957,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6995,7 +7015,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
@@ -7006,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>5494</v>
+        <v>5546</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -7014,7 +7038,7 @@
         </is>
       </c>
       <c r="U85" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="86">
@@ -7402,7 +7426,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2023/12/24</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7471,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2546</v>
+        <v>2562</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -7479,7 +7503,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45284</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="91">
@@ -8086,7 +8110,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8167,7 +8191,7 @@
         </is>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="99">
@@ -9020,7 +9044,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/06</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9097,7 +9121,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45273</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="109">
@@ -11524,7 +11548,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11569,7 +11593,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
         <v>0</v>
@@ -11581,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>21666</v>
+        <v>21820</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -11589,7 +11617,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45252</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="137">
@@ -12527,7 +12555,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -12581,7 +12609,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P147" t="n">
         <v>0</v>
       </c>
@@ -12592,7 +12624,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -12600,7 +12632,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="148">
@@ -12899,7 +12931,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -12972,7 +13004,7 @@
         </is>
       </c>
       <c r="U151" s="2" t="n">
-        <v>45261</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="152">
@@ -13830,7 +13862,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/01</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13907,7 +13939,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45287</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="163">
@@ -13923,7 +13955,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -14004,7 +14036,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="164">
@@ -14934,7 +14966,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -15007,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>8110</v>
+        <v>8112</v>
       </c>
       <c r="T174" t="inlineStr">
         <is>
@@ -15015,7 +15047,7 @@
         </is>
       </c>
       <c r="U174" s="2" t="n">
-        <v>45282</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="175">
@@ -15124,7 +15156,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -15157,7 +15189,7 @@
         </is>
       </c>
       <c r="U176" s="2" t="n">
-        <v>45271</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="177">
@@ -15222,7 +15254,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15280,7 +15312,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr"/>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P178" t="n">
         <v>0</v>
       </c>
@@ -15291,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -15299,7 +15335,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45261</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="179">
@@ -15501,7 +15537,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -15559,7 +15595,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr"/>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P181" t="n">
         <v>0</v>
       </c>
@@ -15570,7 +15610,7 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>6609</v>
+        <v>6661</v>
       </c>
       <c r="T181" t="inlineStr">
         <is>
@@ -15578,7 +15618,7 @@
         </is>
       </c>
       <c r="U181" s="2" t="n">
-        <v>45274</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="182">
@@ -16884,7 +16924,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -16942,7 +16982,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O196" t="inlineStr"/>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P196" t="n">
         <v>0</v>
       </c>
@@ -16953,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>82487</v>
+        <v>83482</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -16961,7 +17005,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45280</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="197">
@@ -17042,7 +17086,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -17075,7 +17119,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45245</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="199">
@@ -17552,7 +17596,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -17610,7 +17654,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr"/>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P204" t="n">
         <v>0</v>
       </c>
@@ -17621,7 +17669,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>6598</v>
+        <v>6692</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -17629,7 +17677,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45272</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="205">
@@ -19942,7 +19990,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -19996,7 +20044,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr"/>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P230" t="n">
         <v>0</v>
       </c>
@@ -20007,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T230" t="inlineStr">
         <is>
@@ -20015,7 +20067,7 @@
         </is>
       </c>
       <c r="U230" s="2" t="n">
-        <v>45274</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="231">
@@ -22773,7 +22825,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -22850,7 +22902,7 @@
         </is>
       </c>
       <c r="U261" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="262">
@@ -23509,7 +23561,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -23586,7 +23638,7 @@
         </is>
       </c>
       <c r="U269" s="2" t="n">
-        <v>45278</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="270">
@@ -25172,7 +25224,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -25249,7 +25301,7 @@
         </is>
       </c>
       <c r="U288" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="289">
@@ -25597,7 +25649,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -25655,7 +25707,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O293" t="inlineStr"/>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P293" t="n">
         <v>0</v>
       </c>
@@ -25666,7 +25722,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -25674,7 +25730,7 @@
         </is>
       </c>
       <c r="U293" s="2" t="n">
-        <v>45281</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="294">
@@ -29958,7 +30014,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -30027,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="S342" t="n">
-        <v>10944</v>
+        <v>10938</v>
       </c>
       <c r="T342" t="inlineStr">
         <is>
@@ -30035,7 +30091,7 @@
         </is>
       </c>
       <c r="U342" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="343">
@@ -33045,7 +33101,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -33122,7 +33178,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="378">
@@ -33506,7 +33562,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -33564,7 +33620,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O382" t="inlineStr"/>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P382" t="n">
         <v>0</v>
       </c>
@@ -33575,7 +33635,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>11110</v>
+        <v>11197</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -33583,7 +33643,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="383">
@@ -33680,7 +33740,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -33757,7 +33817,7 @@
         </is>
       </c>
       <c r="U384" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="385">
@@ -34048,7 +34108,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -34129,7 +34189,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="389">
@@ -34145,7 +34205,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -34222,7 +34282,7 @@
         </is>
       </c>
       <c r="U389" s="2" t="n">
-        <v>45279</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="390">
@@ -35354,7 +35414,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -35427,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>29272</v>
+        <v>29526</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -35435,7 +35495,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45273</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="403">
@@ -36656,7 +36716,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -36725,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="S416" t="n">
-        <v>17772</v>
+        <v>17813</v>
       </c>
       <c r="T416" t="inlineStr">
         <is>
@@ -36733,7 +36793,7 @@
         </is>
       </c>
       <c r="U416" s="2" t="n">
-        <v>45288</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="417">
@@ -37028,7 +37088,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -37097,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>10021</v>
+        <v>10075</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -37105,7 +37165,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="421">
@@ -37275,7 +37335,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -37316,7 +37376,7 @@
         </is>
       </c>
       <c r="U423" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="424">
@@ -38169,7 +38229,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -38223,7 +38283,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O433" t="inlineStr"/>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P433" t="n">
         <v>0</v>
       </c>
@@ -38234,7 +38298,7 @@
         <v>0</v>
       </c>
       <c r="S433" t="n">
-        <v>3405</v>
+        <v>3423</v>
       </c>
       <c r="T433" t="inlineStr">
         <is>
@@ -38242,7 +38306,7 @@
         </is>
       </c>
       <c r="U433" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="434">
@@ -38630,7 +38694,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -38699,7 +38763,7 @@
         <v>0</v>
       </c>
       <c r="S438" t="n">
-        <v>15824</v>
+        <v>15969</v>
       </c>
       <c r="T438" t="inlineStr">
         <is>
@@ -38707,7 +38771,7 @@
         </is>
       </c>
       <c r="U438" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="439">
@@ -39564,7 +39628,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -39617,7 +39681,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N448" t="inlineStr"/>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="n">
         <v>0</v>
@@ -39629,7 +39697,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>18373</v>
+        <v>18625</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -39637,7 +39705,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45273</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="449">
@@ -41700,7 +41768,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -41777,7 +41845,7 @@
         </is>
       </c>
       <c r="U472" s="2" t="n">
-        <v>45273</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="473">
@@ -43937,7 +44005,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -44010,7 +44078,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>8529</v>
+        <v>8547</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
@@ -44018,7 +44086,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45289</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="498">
@@ -44220,7 +44288,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -44278,7 +44346,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P500" t="n">
         <v>0</v>
       </c>
@@ -44289,7 +44361,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>22602</v>
+        <v>22929</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
@@ -44297,7 +44369,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45272</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="501">
@@ -45045,7 +45117,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -45126,7 +45198,7 @@
         </is>
       </c>
       <c r="U509" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="510">
@@ -45235,7 +45307,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -45300,7 +45372,7 @@
         </is>
       </c>
       <c r="U511" s="2" t="n">
-        <v>45148</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="512">
@@ -45874,7 +45946,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/06</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -45955,7 +46027,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45287</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="519">
@@ -47156,7 +47228,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -47233,7 +47305,7 @@
         </is>
       </c>
       <c r="U532" s="2" t="n">
-        <v>45289</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="533">
@@ -48175,7 +48247,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -48223,8 +48295,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M543" t="inlineStr"/>
-      <c r="N543" t="inlineStr"/>
+      <c r="M543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O543" t="inlineStr"/>
       <c r="P543" t="n">
         <v>0</v>
@@ -48236,7 +48316,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>5299</v>
+        <v>5460</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -48244,7 +48324,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45223</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="544">
@@ -48539,7 +48619,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -48593,7 +48673,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O547" t="inlineStr"/>
+      <c r="O547" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P547" t="n">
         <v>0</v>
       </c>
@@ -48604,7 +48688,7 @@
         <v>0</v>
       </c>
       <c r="S547" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T547" t="inlineStr">
         <is>
@@ -48612,7 +48696,7 @@
         </is>
       </c>
       <c r="U547" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="548">
@@ -50780,7 +50864,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -50853,7 +50937,7 @@
         <v>0</v>
       </c>
       <c r="S572" t="n">
-        <v>37583</v>
+        <v>37607</v>
       </c>
       <c r="T572" t="inlineStr">
         <is>
@@ -50861,7 +50945,7 @@
         </is>
       </c>
       <c r="U572" s="2" t="n">
-        <v>45286</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="573">
@@ -51156,7 +51240,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -51233,7 +51317,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45274</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="577">
@@ -51965,7 +52049,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -52042,7 +52126,7 @@
         </is>
       </c>
       <c r="U585" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="586">
@@ -53360,7 +53444,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D600" t="inlineStr"/>
@@ -53393,7 +53477,7 @@
         </is>
       </c>
       <c r="U600" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="601">
@@ -53874,7 +53958,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -53932,7 +54016,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O606" t="inlineStr"/>
+      <c r="O606" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P606" t="n">
         <v>0</v>
       </c>
@@ -53943,7 +54031,7 @@
         <v>0</v>
       </c>
       <c r="S606" t="n">
-        <v>21169</v>
+        <v>21413</v>
       </c>
       <c r="T606" t="inlineStr">
         <is>
@@ -53951,7 +54039,7 @@
         </is>
       </c>
       <c r="U606" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="607">
@@ -54974,7 +55062,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -55051,7 +55139,7 @@
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45274</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="619">
@@ -55253,7 +55341,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -55306,8 +55394,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N621" t="inlineStr"/>
-      <c r="O621" t="inlineStr"/>
+      <c r="N621" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O621" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P621" t="n">
         <v>0</v>
       </c>
@@ -55318,7 +55414,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>5850</v>
+        <v>5767</v>
       </c>
       <c r="T621" t="inlineStr">
         <is>
@@ -55326,7 +55422,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45258</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="622">
@@ -55439,7 +55535,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -55497,7 +55593,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O623" t="inlineStr"/>
+      <c r="O623" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P623" t="n">
         <v>0</v>
       </c>
@@ -55508,7 +55608,7 @@
         <v>0</v>
       </c>
       <c r="S623" t="n">
-        <v>8139</v>
+        <v>8215</v>
       </c>
       <c r="T623" t="inlineStr">
         <is>
@@ -55516,7 +55616,7 @@
         </is>
       </c>
       <c r="U623" s="2" t="n">
-        <v>45279</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="624">
@@ -57538,7 +57638,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -57607,7 +57707,7 @@
         <v>0</v>
       </c>
       <c r="S646" t="n">
-        <v>25428</v>
+        <v>25747</v>
       </c>
       <c r="T646" t="inlineStr">
         <is>
@@ -57615,7 +57715,7 @@
         </is>
       </c>
       <c r="U646" s="2" t="n">
-        <v>45271</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="647">
@@ -57995,7 +58095,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -58072,7 +58172,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45275</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="652">
@@ -60904,7 +61004,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -60977,7 +61077,7 @@
         </is>
       </c>
       <c r="U684" s="2" t="n">
-        <v>45278</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="685">
@@ -61074,7 +61174,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D686" t="inlineStr"/>
@@ -61107,7 +61207,7 @@
         </is>
       </c>
       <c r="U686" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="687">
@@ -62751,7 +62851,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -62804,8 +62904,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N707" t="inlineStr"/>
-      <c r="O707" t="inlineStr"/>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P707" t="n">
         <v>0</v>
       </c>
@@ -62816,7 +62924,7 @@
         <v>0</v>
       </c>
       <c r="S707" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="T707" t="inlineStr">
         <is>
@@ -62824,7 +62932,7 @@
         </is>
       </c>
       <c r="U707" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="708">
@@ -62970,7 +63078,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -63043,7 +63151,7 @@
         </is>
       </c>
       <c r="U710" s="2" t="n">
-        <v>45253</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="711">
@@ -63144,7 +63252,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -63202,7 +63310,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O712" t="inlineStr"/>
+      <c r="O712" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P712" t="n">
         <v>0</v>
       </c>
@@ -63213,7 +63325,7 @@
         <v>0</v>
       </c>
       <c r="S712" t="n">
-        <v>1337</v>
+        <v>1366</v>
       </c>
       <c r="T712" t="inlineStr">
         <is>
@@ -63221,7 +63333,7 @@
         </is>
       </c>
       <c r="U712" s="2" t="n">
-        <v>45274</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="713">
@@ -63237,7 +63349,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -63290,7 +63402,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N713" t="inlineStr"/>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O713" t="inlineStr"/>
       <c r="P713" t="n">
         <v>0</v>
@@ -63302,7 +63418,7 @@
         <v>0</v>
       </c>
       <c r="S713" t="n">
-        <v>16020</v>
+        <v>17002</v>
       </c>
       <c r="T713" t="inlineStr">
         <is>
@@ -63310,7 +63426,7 @@
         </is>
       </c>
       <c r="U713" s="2" t="n">
-        <v>45279</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="714">
@@ -63326,7 +63442,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -63384,7 +63500,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O714" t="inlineStr"/>
+      <c r="O714" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P714" t="n">
         <v>0</v>
       </c>
@@ -63395,7 +63515,7 @@
         <v>0</v>
       </c>
       <c r="S714" t="n">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="T714" t="inlineStr">
         <is>
@@ -63403,7 +63523,7 @@
         </is>
       </c>
       <c r="U714" s="2" t="n">
-        <v>45273</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="715">
@@ -64321,7 +64441,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -64379,7 +64499,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O725" t="inlineStr"/>
+      <c r="O725" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P725" t="n">
         <v>0</v>
       </c>
@@ -64390,7 +64514,7 @@
         <v>0</v>
       </c>
       <c r="S725" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="T725" t="inlineStr">
         <is>
@@ -64398,7 +64522,7 @@
         </is>
       </c>
       <c r="U725" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="726">
@@ -64973,7 +65097,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D733" t="inlineStr"/>
@@ -65017,7 +65141,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M733" t="inlineStr"/>
+      <c r="M733" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N733" t="inlineStr"/>
       <c r="O733" t="inlineStr"/>
       <c r="P733" t="n">
@@ -65030,7 +65158,7 @@
         <v>0</v>
       </c>
       <c r="S733" t="n">
-        <v>5847</v>
+        <v>5979</v>
       </c>
       <c r="T733" t="inlineStr">
         <is>
@@ -65038,7 +65166,7 @@
         </is>
       </c>
       <c r="U733" s="2" t="n">
-        <v>45247</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="734">
@@ -65054,7 +65182,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -65108,7 +65236,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O734" t="inlineStr"/>
+      <c r="O734" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P734" t="n">
         <v>0</v>
       </c>
@@ -65119,7 +65251,7 @@
         <v>0</v>
       </c>
       <c r="S734" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T734" t="inlineStr">
         <is>
@@ -65127,7 +65259,7 @@
         </is>
       </c>
       <c r="U734" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="735">
@@ -65289,7 +65421,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -65366,7 +65498,7 @@
         </is>
       </c>
       <c r="U737" s="2" t="n">
-        <v>45267</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="738">
@@ -65795,7 +65927,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -65849,7 +65981,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O743" t="inlineStr"/>
+      <c r="O743" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P743" t="n">
         <v>0</v>
       </c>
@@ -65860,7 +65996,7 @@
         <v>0</v>
       </c>
       <c r="S743" t="n">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="T743" t="inlineStr">
         <is>
@@ -65868,7 +66004,7 @@
         </is>
       </c>
       <c r="U743" s="2" t="n">
-        <v>45265</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="744">
@@ -69210,7 +69346,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -69268,7 +69404,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O786" t="inlineStr"/>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P786" t="n">
         <v>0</v>
       </c>
@@ -69279,7 +69419,7 @@
         <v>0</v>
       </c>
       <c r="S786" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T786" t="inlineStr">
         <is>
@@ -69287,7 +69427,7 @@
         </is>
       </c>
       <c r="U786" s="2" t="n">
-        <v>45265</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="787">
@@ -69761,7 +69901,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -69834,7 +69974,7 @@
         <v>0</v>
       </c>
       <c r="S793" t="n">
-        <v>669</v>
+        <v>1153</v>
       </c>
       <c r="T793" t="inlineStr">
         <is>
@@ -69842,7 +69982,7 @@
         </is>
       </c>
       <c r="U793" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="794">
@@ -70024,7 +70164,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D796" t="inlineStr"/>
@@ -70069,7 +70209,7 @@
         </is>
       </c>
       <c r="U796" s="2" t="n">
-        <v>45154</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="797">
@@ -70539,7 +70679,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D803" t="inlineStr"/>
@@ -70592,7 +70732,7 @@
         </is>
       </c>
       <c r="U803" s="2" t="n">
-        <v>45261</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="804">
@@ -70608,7 +70748,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>2023/09/11</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -70646,7 +70786,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="L804" t="inlineStr"/>
       <c r="M804" t="inlineStr"/>
       <c r="N804" t="inlineStr"/>
@@ -70661,7 +70805,7 @@
         <v>0</v>
       </c>
       <c r="S804" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="T804" t="inlineStr">
         <is>
@@ -70669,7 +70813,7 @@
         </is>
       </c>
       <c r="U804" s="2" t="n">
-        <v>45180</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="805">
@@ -70685,7 +70829,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
@@ -70754,7 +70898,7 @@
         </is>
       </c>
       <c r="U805" s="2" t="n">
-        <v>45271</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="806">
@@ -70985,7 +71129,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D809" t="inlineStr"/>
@@ -71015,7 +71159,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O809" t="inlineStr"/>
+      <c r="O809" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P809" t="n">
         <v>0</v>
       </c>
@@ -71026,7 +71174,7 @@
         <v>0</v>
       </c>
       <c r="S809" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T809" t="inlineStr">
         <is>
@@ -71034,7 +71182,7 @@
         </is>
       </c>
       <c r="U809" s="2" t="n">
-        <v>45264</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="810">
@@ -72365,7 +72513,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D833" t="inlineStr"/>
@@ -72402,7 +72550,7 @@
         </is>
       </c>
       <c r="U833" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="834">
@@ -72577,7 +72725,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
@@ -72595,7 +72743,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O837" t="inlineStr"/>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P837" t="n">
         <v>0</v>
       </c>
@@ -72606,7 +72758,7 @@
         <v>0</v>
       </c>
       <c r="S837" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T837" t="inlineStr">
         <is>
@@ -72614,7 +72766,7 @@
         </is>
       </c>
       <c r="U837" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="838">
@@ -72789,7 +72941,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
@@ -72807,7 +72959,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O841" t="inlineStr"/>
+      <c r="O841" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P841" t="n">
         <v>0</v>
       </c>
@@ -72818,7 +72974,7 @@
         <v>0</v>
       </c>
       <c r="S841" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="T841" t="inlineStr">
         <is>
@@ -72826,7 +72982,7 @@
         </is>
       </c>
       <c r="U841" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="842">
@@ -72842,7 +72998,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
@@ -72860,7 +73016,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O842" t="inlineStr"/>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P842" t="n">
         <v>0</v>
       </c>
@@ -72871,7 +73031,7 @@
         <v>0</v>
       </c>
       <c r="S842" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="T842" t="inlineStr">
         <is>
@@ -72879,7 +73039,7 @@
         </is>
       </c>
       <c r="U842" s="2" t="n">
-        <v>45275</v>
+        <v>45295</v>
       </c>
     </row>
     <row r="843">
@@ -72895,7 +73055,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
@@ -72913,7 +73073,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O843" t="inlineStr"/>
+      <c r="O843" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P843" t="n">
         <v>0</v>
       </c>
@@ -72924,7 +73088,7 @@
         <v>0</v>
       </c>
       <c r="S843" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="T843" t="inlineStr">
         <is>
@@ -72932,7 +73096,7 @@
         </is>
       </c>
       <c r="U843" s="2" t="n">
-        <v>45275</v>
+        <v>45296</v>
       </c>
     </row>
     <row r="844">
@@ -74326,7 +74490,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
@@ -74363,7 +74527,7 @@
         </is>
       </c>
       <c r="U870" s="2" t="n">
-        <v>45275</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="871">
@@ -74546,7 +74710,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
@@ -74564,7 +74728,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O874" t="inlineStr"/>
+      <c r="O874" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P874" t="n">
         <v>0</v>
       </c>
@@ -74575,7 +74743,7 @@
         <v>0</v>
       </c>
       <c r="S874" t="n">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="T874" t="inlineStr">
         <is>
@@ -74583,7 +74751,7 @@
         </is>
       </c>
       <c r="U874" s="2" t="n">
-        <v>45287</v>
+        <v>45294</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U877"/>
+  <dimension ref="A1:U880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="U3" s="2" t="n">
-        <v>45305</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="4">
@@ -980,7 +980,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1034,7 +1034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1053,7 +1057,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="13">
@@ -1472,7 +1476,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1545,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90416</v>
+        <v>90973</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -1553,7 +1557,7 @@
         </is>
       </c>
       <c r="U20" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="21">
@@ -1759,7 +1763,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1817,7 +1821,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2786</v>
+        <v>2902</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -1836,7 +1844,7 @@
         </is>
       </c>
       <c r="U23" s="2" t="n">
-        <v>45272</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="24">
@@ -2144,7 +2152,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2202,7 +2210,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
@@ -2213,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21770</v>
+        <v>21954</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2221,7 +2233,7 @@
         </is>
       </c>
       <c r="U28" s="2" t="n">
-        <v>45278</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="29">
@@ -2237,7 +2249,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2274,7 +2286,7 @@
         </is>
       </c>
       <c r="U29" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="30">
@@ -2379,7 +2391,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2428,7 +2440,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
         <v>0</v>
@@ -2440,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5587</v>
+        <v>5734</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2448,7 +2464,7 @@
         </is>
       </c>
       <c r="U31" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="32">
@@ -3598,7 +3614,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3671,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -3679,7 +3695,7 @@
         </is>
       </c>
       <c r="U46" s="2" t="n">
-        <v>45294</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="47">
@@ -3695,7 +3711,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3776,7 +3792,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="48">
@@ -3978,7 +3994,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4059,7 +4075,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="51">
@@ -5252,7 +5268,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5305,7 +5321,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
         <v>0</v>
@@ -5317,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>3872</v>
+        <v>3978</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5325,7 +5345,7 @@
         </is>
       </c>
       <c r="U64" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="65">
@@ -6078,7 +6098,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -6111,7 +6131,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="75">
@@ -6127,7 +6147,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6208,7 +6228,7 @@
         </is>
       </c>
       <c r="U75" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="76">
@@ -6321,7 +6341,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -6379,7 +6399,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
@@ -6390,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>6368</v>
+        <v>6453</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -6398,7 +6422,7 @@
         </is>
       </c>
       <c r="U77" s="2" t="n">
-        <v>45293</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="78">
@@ -6701,7 +6725,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6759,7 +6783,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
@@ -6770,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>9253</v>
+        <v>9286</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -6778,7 +6806,7 @@
         </is>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="82">
@@ -7906,7 +7934,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -7979,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>97719</v>
+        <v>98575</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -7987,7 +8015,7 @@
         </is>
       </c>
       <c r="U94" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="95">
@@ -8525,7 +8553,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -8583,7 +8611,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
@@ -8594,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>14356</v>
+        <v>14451</v>
       </c>
       <c r="T101" t="inlineStr">
         <is>
@@ -8602,7 +8634,7 @@
         </is>
       </c>
       <c r="U101" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="102">
@@ -8715,7 +8747,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8788,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>35054</v>
+        <v>35452</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -8796,7 +8828,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45288</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="104">
@@ -9002,7 +9034,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9075,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>12544</v>
+        <v>12593</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -9083,7 +9115,7 @@
         </is>
       </c>
       <c r="U106" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="107">
@@ -9192,7 +9224,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9265,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>2934</v>
+        <v>3020</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -9273,7 +9305,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45304</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="109">
@@ -10349,7 +10381,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -10407,7 +10439,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr"/>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -10418,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>19527</v>
+        <v>19663</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -10426,7 +10462,7 @@
         </is>
       </c>
       <c r="U121" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="122">
@@ -10539,7 +10575,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -10597,7 +10633,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr"/>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P123" t="n">
         <v>0</v>
       </c>
@@ -10608,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>32277</v>
+        <v>33172</v>
       </c>
       <c r="T123" t="inlineStr">
         <is>
@@ -10616,7 +10656,7 @@
         </is>
       </c>
       <c r="U123" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="124">
@@ -10895,7 +10935,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -10953,7 +10993,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr"/>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P127" t="n">
         <v>0</v>
       </c>
@@ -10964,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>39209</v>
+        <v>39776</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -10972,7 +11016,7 @@
         </is>
       </c>
       <c r="U127" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="128">
@@ -11275,7 +11319,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11333,7 +11377,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr"/>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P131" t="n">
         <v>0</v>
       </c>
@@ -11344,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>4090</v>
+        <v>4177</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -11352,7 +11400,7 @@
         </is>
       </c>
       <c r="U131" s="2" t="n">
-        <v>45279</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="132">
@@ -12306,7 +12354,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -12364,7 +12412,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P142" t="n">
         <v>0</v>
       </c>
@@ -12375,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>28194</v>
+        <v>28435</v>
       </c>
       <c r="T142" t="inlineStr">
         <is>
@@ -12383,7 +12435,7 @@
         </is>
       </c>
       <c r="U142" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="143">
@@ -12977,7 +13029,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13050,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>38211</v>
+        <v>38721</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -13058,7 +13110,7 @@
         </is>
       </c>
       <c r="U149" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="150">
@@ -13454,7 +13506,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -13487,7 +13539,7 @@
         </is>
       </c>
       <c r="U154" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="155">
@@ -13693,7 +13745,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13751,7 +13803,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr"/>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P157" t="n">
         <v>0</v>
       </c>
@@ -13762,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>11758</v>
+        <v>11976</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -13770,7 +13826,7 @@
         </is>
       </c>
       <c r="U157" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="158">
@@ -14316,7 +14372,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -14374,7 +14430,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr"/>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P164" t="n">
         <v>0</v>
       </c>
@@ -14385,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>19507</v>
+        <v>19980</v>
       </c>
       <c r="T164" t="inlineStr">
         <is>
@@ -14393,7 +14453,7 @@
         </is>
       </c>
       <c r="U164" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="165">
@@ -14603,7 +14663,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -14684,7 +14744,7 @@
         </is>
       </c>
       <c r="U167" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="168">
@@ -15173,7 +15233,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -15223,7 +15283,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr"/>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P173" t="n">
         <v>0</v>
       </c>
@@ -15234,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>1332</v>
+        <v>1348</v>
       </c>
       <c r="T173" t="inlineStr">
         <is>
@@ -15242,7 +15306,7 @@
         </is>
       </c>
       <c r="U173" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="174">
@@ -16035,7 +16099,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -16081,7 +16145,11 @@
         </is>
       </c>
       <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P183" t="n">
         <v>0</v>
       </c>
@@ -16092,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>5507</v>
+        <v>5716</v>
       </c>
       <c r="T183" t="inlineStr">
         <is>
@@ -16100,7 +16168,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="184">
@@ -16504,7 +16572,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -16557,8 +16625,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P188" t="n">
         <v>0</v>
       </c>
@@ -16569,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>8918</v>
+        <v>9047</v>
       </c>
       <c r="T188" t="inlineStr">
         <is>
@@ -16577,7 +16653,7 @@
         </is>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45257</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="189">
@@ -16981,7 +17057,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -17062,7 +17138,7 @@
         </is>
       </c>
       <c r="U193" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="194">
@@ -17078,7 +17154,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -17136,7 +17212,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O194" t="inlineStr"/>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P194" t="n">
         <v>0</v>
       </c>
@@ -17147,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="T194" t="inlineStr">
         <is>
@@ -17155,7 +17235,7 @@
         </is>
       </c>
       <c r="U194" s="2" t="n">
-        <v>45279</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="195">
@@ -17268,7 +17348,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -17341,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>84145</v>
+        <v>84212</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -17349,7 +17429,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="197">
@@ -18530,7 +18610,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -18578,8 +18658,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
         <v>0</v>
@@ -18591,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -18599,7 +18687,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45258</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="211">
@@ -18615,7 +18703,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -18688,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>51567</v>
+        <v>51598</v>
       </c>
       <c r="T211" t="inlineStr">
         <is>
@@ -18696,7 +18784,7 @@
         </is>
       </c>
       <c r="U211" s="2" t="n">
-        <v>45307</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="212">
@@ -18902,7 +18990,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -18960,7 +19048,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O214" t="inlineStr"/>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P214" t="n">
         <v>0</v>
       </c>
@@ -18971,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="S214" t="n">
-        <v>11181</v>
+        <v>11544</v>
       </c>
       <c r="T214" t="inlineStr">
         <is>
@@ -18979,7 +19071,7 @@
         </is>
       </c>
       <c r="U214" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="215">
@@ -19941,7 +20033,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -19999,7 +20091,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O225" t="inlineStr"/>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P225" t="n">
         <v>0</v>
       </c>
@@ -20010,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>14469</v>
+        <v>14506</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -20018,7 +20114,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45300</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="226">
@@ -20228,7 +20324,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -20301,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>20447</v>
+        <v>20780</v>
       </c>
       <c r="T228" t="inlineStr">
         <is>
@@ -20309,7 +20405,7 @@
         </is>
       </c>
       <c r="U228" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="229">
@@ -20325,7 +20421,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -20378,7 +20474,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="n">
         <v>0</v>
@@ -20390,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>4993</v>
+        <v>5082</v>
       </c>
       <c r="T229" t="inlineStr">
         <is>
@@ -20398,7 +20498,7 @@
         </is>
       </c>
       <c r="U229" s="2" t="n">
-        <v>45252</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="230">
@@ -20891,7 +20991,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -20972,7 +21072,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="236">
@@ -21081,7 +21181,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -21154,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>7819</v>
+        <v>7951</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -21162,7 +21262,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="238">
@@ -21659,7 +21759,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -21712,8 +21812,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P243" t="n">
         <v>0</v>
       </c>
@@ -21724,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -21732,7 +21840,7 @@
         </is>
       </c>
       <c r="U243" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="244">
@@ -21845,7 +21953,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -21903,7 +22011,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr"/>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P245" t="n">
         <v>0</v>
       </c>
@@ -21914,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>11088</v>
+        <v>11204</v>
       </c>
       <c r="T245" t="inlineStr">
         <is>
@@ -21922,7 +22034,7 @@
         </is>
       </c>
       <c r="U245" s="2" t="n">
-        <v>45281</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="246">
@@ -21938,7 +22050,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -21979,7 +22091,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="n">
         <v>0</v>
@@ -21991,7 +22107,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>5667</v>
+        <v>5709</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -21999,7 +22115,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45246</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="247">
@@ -22399,7 +22515,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -22476,7 +22592,7 @@
         </is>
       </c>
       <c r="U251" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="252">
@@ -22589,7 +22705,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -22670,7 +22786,7 @@
         </is>
       </c>
       <c r="U253" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="254">
@@ -22767,7 +22883,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -22848,7 +22964,7 @@
         </is>
       </c>
       <c r="U255" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="256">
@@ -22937,7 +23053,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -22995,7 +23111,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O257" t="inlineStr"/>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P257" t="n">
         <v>0</v>
       </c>
@@ -23006,7 +23126,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -23014,7 +23134,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45272</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="258">
@@ -23030,7 +23150,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -23103,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>23877</v>
+        <v>24117</v>
       </c>
       <c r="T258" t="inlineStr">
         <is>
@@ -23111,7 +23231,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="259">
@@ -23612,7 +23732,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -23670,7 +23790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P264" t="n">
         <v>0</v>
       </c>
@@ -23681,7 +23805,7 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>14241</v>
+        <v>14245</v>
       </c>
       <c r="T264" t="inlineStr">
         <is>
@@ -23689,7 +23813,7 @@
         </is>
       </c>
       <c r="U264" s="2" t="n">
-        <v>45273</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="265">
@@ -24716,7 +24840,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -24774,7 +24898,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P276" t="n">
         <v>0</v>
       </c>
@@ -24785,7 +24913,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>8230</v>
+        <v>8321</v>
       </c>
       <c r="T276" t="inlineStr">
         <is>
@@ -24793,7 +24921,7 @@
         </is>
       </c>
       <c r="U276" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="277">
@@ -24809,7 +24937,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -24862,7 +24990,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="n">
         <v>0</v>
@@ -24874,7 +25006,7 @@
         <v>0</v>
       </c>
       <c r="S277" t="n">
-        <v>20869</v>
+        <v>21273</v>
       </c>
       <c r="T277" t="inlineStr">
         <is>
@@ -24882,7 +25014,7 @@
         </is>
       </c>
       <c r="U277" s="2" t="n">
-        <v>45260</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="278">
@@ -25092,7 +25224,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -25165,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>34352</v>
+        <v>34388</v>
       </c>
       <c r="T280" t="inlineStr">
         <is>
@@ -25173,7 +25305,7 @@
         </is>
       </c>
       <c r="U280" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="281">
@@ -25189,7 +25321,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -25242,8 +25374,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N281" t="inlineStr"/>
-      <c r="O281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P281" t="n">
         <v>0</v>
       </c>
@@ -25254,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="S281" t="n">
-        <v>827</v>
+        <v>907</v>
       </c>
       <c r="T281" t="inlineStr">
         <is>
@@ -25262,7 +25402,7 @@
         </is>
       </c>
       <c r="U281" s="2" t="n">
-        <v>45265</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="282">
@@ -25501,7 +25641,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -25555,7 +25695,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P285" t="n">
         <v>0</v>
       </c>
@@ -25566,7 +25710,7 @@
         <v>0</v>
       </c>
       <c r="S285" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="T285" t="inlineStr">
         <is>
@@ -25574,7 +25718,7 @@
         </is>
       </c>
       <c r="U285" s="2" t="n">
-        <v>45271</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="286">
@@ -25590,7 +25734,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -25648,7 +25792,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P286" t="n">
         <v>0</v>
       </c>
@@ -25659,7 +25807,7 @@
         <v>0</v>
       </c>
       <c r="S286" t="n">
-        <v>40909</v>
+        <v>41396</v>
       </c>
       <c r="T286" t="inlineStr">
         <is>
@@ -25667,7 +25815,7 @@
         </is>
       </c>
       <c r="U286" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="287">
@@ -26415,7 +26563,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -26492,7 +26640,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45273</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="296">
@@ -27366,7 +27514,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -27424,7 +27572,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O306" t="inlineStr"/>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P306" t="n">
         <v>0</v>
       </c>
@@ -27435,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>22359</v>
+        <v>22672</v>
       </c>
       <c r="T306" t="inlineStr">
         <is>
@@ -27443,7 +27595,7 @@
         </is>
       </c>
       <c r="U306" s="2" t="n">
-        <v>45279</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="307">
@@ -28264,7 +28416,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -28337,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="n">
-        <v>5653</v>
+        <v>5680</v>
       </c>
       <c r="T316" t="inlineStr">
         <is>
@@ -28345,7 +28497,7 @@
         </is>
       </c>
       <c r="U316" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="317">
@@ -28652,7 +28804,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -28710,7 +28862,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O320" t="inlineStr"/>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P320" t="n">
         <v>0</v>
       </c>
@@ -28721,7 +28877,7 @@
         <v>0</v>
       </c>
       <c r="S320" t="n">
-        <v>17501</v>
+        <v>17749</v>
       </c>
       <c r="T320" t="inlineStr">
         <is>
@@ -28729,7 +28885,7 @@
         </is>
       </c>
       <c r="U320" s="2" t="n">
-        <v>45266</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="321">
@@ -29129,7 +29285,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -29202,7 +29358,7 @@
         <v>0</v>
       </c>
       <c r="S325" t="n">
-        <v>16516</v>
+        <v>16628</v>
       </c>
       <c r="T325" t="inlineStr">
         <is>
@@ -29210,7 +29366,7 @@
         </is>
       </c>
       <c r="U325" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="326">
@@ -29970,7 +30126,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -30028,7 +30184,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O334" t="inlineStr"/>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P334" t="n">
         <v>0</v>
       </c>
@@ -30039,7 +30199,7 @@
         <v>0</v>
       </c>
       <c r="S334" t="n">
-        <v>33357</v>
+        <v>33777</v>
       </c>
       <c r="T334" t="inlineStr">
         <is>
@@ -30047,7 +30207,7 @@
         </is>
       </c>
       <c r="U334" s="2" t="n">
-        <v>45278</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="335">
@@ -30633,7 +30793,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -30706,7 +30866,7 @@
         <v>0</v>
       </c>
       <c r="S341" t="n">
-        <v>5304</v>
+        <v>5339</v>
       </c>
       <c r="T341" t="inlineStr">
         <is>
@@ -30714,7 +30874,7 @@
         </is>
       </c>
       <c r="U341" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="342">
@@ -30827,7 +30987,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -30885,7 +31045,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O343" t="inlineStr"/>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P343" t="n">
         <v>0</v>
       </c>
@@ -30896,7 +31060,7 @@
         <v>0</v>
       </c>
       <c r="S343" t="n">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="T343" t="inlineStr">
         <is>
@@ -30904,7 +31068,7 @@
         </is>
       </c>
       <c r="U343" s="2" t="n">
-        <v>45281</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="344">
@@ -31264,7 +31428,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -31322,7 +31486,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O348" t="inlineStr"/>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P348" t="n">
         <v>0</v>
       </c>
@@ -31333,7 +31501,7 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>7614</v>
+        <v>7617</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -31341,7 +31509,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="349">
@@ -31741,7 +31909,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/20</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -31822,7 +31990,7 @@
         </is>
       </c>
       <c r="U353" s="2" t="n">
-        <v>45306</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="354">
@@ -32756,7 +32924,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -32814,7 +32982,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O364" t="inlineStr"/>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P364" t="n">
         <v>0</v>
       </c>
@@ -32825,7 +32997,7 @@
         <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>1918</v>
+        <v>1951</v>
       </c>
       <c r="T364" t="inlineStr">
         <is>
@@ -32833,7 +33005,7 @@
         </is>
       </c>
       <c r="U364" s="2" t="n">
-        <v>45282</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="365">
@@ -32942,7 +33114,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>2023/12/17</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D366" t="inlineStr"/>
@@ -32975,7 +33147,7 @@
         </is>
       </c>
       <c r="U366" s="2" t="n">
-        <v>45277</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="367">
@@ -33181,7 +33353,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -33229,8 +33401,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M369" t="inlineStr"/>
-      <c r="N369" t="inlineStr"/>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr"/>
       <c r="P369" t="n">
         <v>0</v>
@@ -33242,7 +33422,7 @@
         <v>0</v>
       </c>
       <c r="S369" t="n">
-        <v>18693</v>
+        <v>19092</v>
       </c>
       <c r="T369" t="inlineStr">
         <is>
@@ -33250,7 +33430,7 @@
         </is>
       </c>
       <c r="U369" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="370">
@@ -34293,7 +34473,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -34347,7 +34527,11 @@
         </is>
       </c>
       <c r="N381" t="inlineStr"/>
-      <c r="O381" t="inlineStr"/>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P381" t="n">
         <v>0</v>
       </c>
@@ -34358,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="S381" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="T381" t="inlineStr">
         <is>
@@ -34366,7 +34550,7 @@
         </is>
       </c>
       <c r="U381" s="2" t="n">
-        <v>45260</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="382">
@@ -34944,7 +35128,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -35017,7 +35201,7 @@
         <v>0</v>
       </c>
       <c r="S388" t="n">
-        <v>14430</v>
+        <v>14644</v>
       </c>
       <c r="T388" t="inlineStr">
         <is>
@@ -35025,7 +35209,7 @@
         </is>
       </c>
       <c r="U388" s="2" t="n">
-        <v>45294</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="389">
@@ -35138,7 +35322,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -35196,7 +35380,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O390" t="inlineStr"/>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P390" t="n">
         <v>0</v>
       </c>
@@ -35207,7 +35395,7 @@
         <v>0</v>
       </c>
       <c r="S390" t="n">
-        <v>15182</v>
+        <v>15380</v>
       </c>
       <c r="T390" t="inlineStr">
         <is>
@@ -35215,7 +35403,7 @@
         </is>
       </c>
       <c r="U390" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="391">
@@ -35890,7 +36078,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -35963,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="S398" t="n">
-        <v>14349</v>
+        <v>14346</v>
       </c>
       <c r="T398" t="inlineStr">
         <is>
@@ -35971,7 +36159,7 @@
         </is>
       </c>
       <c r="U398" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="399">
@@ -35987,7 +36175,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -36060,7 +36248,7 @@
         <v>0</v>
       </c>
       <c r="S399" t="n">
-        <v>47903</v>
+        <v>48204</v>
       </c>
       <c r="T399" t="inlineStr">
         <is>
@@ -36068,7 +36256,7 @@
         </is>
       </c>
       <c r="U399" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="400">
@@ -36181,7 +36369,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -36254,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>8810</v>
+        <v>8825</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -36262,7 +36450,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="402">
@@ -36278,7 +36466,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -36351,7 +36539,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>29920</v>
+        <v>29945</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -36359,7 +36547,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="403">
@@ -36472,7 +36660,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -36530,7 +36718,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O404" t="inlineStr"/>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P404" t="n">
         <v>0</v>
       </c>
@@ -36541,7 +36733,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>4127</v>
+        <v>4180</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -36549,7 +36741,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45273</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="405">
@@ -36662,7 +36854,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -36735,7 +36927,7 @@
         <v>0</v>
       </c>
       <c r="S406" t="n">
-        <v>9286</v>
+        <v>9306</v>
       </c>
       <c r="T406" t="inlineStr">
         <is>
@@ -36743,7 +36935,7 @@
         </is>
       </c>
       <c r="U406" s="2" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="407">
@@ -37321,7 +37513,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -37379,7 +37571,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O413" t="inlineStr"/>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P413" t="n">
         <v>0</v>
       </c>
@@ -37390,7 +37586,7 @@
         <v>0</v>
       </c>
       <c r="S413" t="n">
-        <v>15716</v>
+        <v>16152</v>
       </c>
       <c r="T413" t="inlineStr">
         <is>
@@ -37398,7 +37594,7 @@
         </is>
       </c>
       <c r="U413" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="414">
@@ -37996,7 +38192,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -38069,7 +38265,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>10124</v>
+        <v>10165</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -38077,7 +38273,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="421">
@@ -38093,7 +38289,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -38174,7 +38370,7 @@
         </is>
       </c>
       <c r="U421" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="422">
@@ -38441,7 +38637,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -38499,7 +38695,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O425" t="inlineStr"/>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P425" t="n">
         <v>0</v>
       </c>
@@ -38510,7 +38710,7 @@
         <v>0</v>
       </c>
       <c r="S425" t="n">
-        <v>13614</v>
+        <v>13628</v>
       </c>
       <c r="T425" t="inlineStr">
         <is>
@@ -38518,7 +38718,7 @@
         </is>
       </c>
       <c r="U425" s="2" t="n">
-        <v>45275</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="426">
@@ -39589,7 +39789,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -39647,7 +39847,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O437" t="inlineStr"/>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P437" t="n">
         <v>0</v>
       </c>
@@ -39658,7 +39862,7 @@
         <v>0</v>
       </c>
       <c r="S437" t="n">
-        <v>15987</v>
+        <v>16145</v>
       </c>
       <c r="T437" t="inlineStr">
         <is>
@@ -39666,7 +39870,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45300</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="438">
@@ -39779,7 +39983,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -39860,7 +40064,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="440">
@@ -41404,7 +41608,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -41457,8 +41661,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N456" t="inlineStr"/>
-      <c r="O456" t="inlineStr"/>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O456" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P456" t="n">
         <v>0</v>
       </c>
@@ -41469,7 +41681,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>18211</v>
+        <v>18277</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -41477,7 +41689,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45278</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="457">
@@ -42241,7 +42453,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -42314,7 +42526,7 @@
         <v>0</v>
       </c>
       <c r="S465" t="n">
-        <v>9244</v>
+        <v>9410</v>
       </c>
       <c r="T465" t="inlineStr">
         <is>
@@ -42322,7 +42534,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45301</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="466">
@@ -42338,7 +42550,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -42387,7 +42599,7 @@
         </is>
       </c>
       <c r="U466" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="467">
@@ -42743,7 +42955,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -42801,7 +43013,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O471" t="inlineStr"/>
+      <c r="O471" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P471" t="n">
         <v>0</v>
       </c>
@@ -42812,7 +43028,7 @@
         <v>0</v>
       </c>
       <c r="S471" t="n">
-        <v>7124</v>
+        <v>7161</v>
       </c>
       <c r="T471" t="inlineStr">
         <is>
@@ -42820,7 +43036,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45293</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="472">
@@ -43026,7 +43242,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
@@ -43071,7 +43287,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="475">
@@ -43176,7 +43392,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -43249,7 +43465,7 @@
         <v>0</v>
       </c>
       <c r="S476" t="n">
-        <v>5662</v>
+        <v>5742</v>
       </c>
       <c r="T476" t="inlineStr">
         <is>
@@ -43257,7 +43473,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="477">
@@ -43273,7 +43489,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -43354,7 +43570,7 @@
         </is>
       </c>
       <c r="U477" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="478">
@@ -43370,7 +43586,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -43428,7 +43644,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O478" t="inlineStr"/>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P478" t="n">
         <v>0</v>
       </c>
@@ -43439,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="S478" t="n">
-        <v>37884</v>
+        <v>38608</v>
       </c>
       <c r="T478" t="inlineStr">
         <is>
@@ -43447,7 +43667,7 @@
         </is>
       </c>
       <c r="U478" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="479">
@@ -43807,7 +44027,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -43865,7 +44085,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O483" t="inlineStr"/>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P483" t="n">
         <v>0</v>
       </c>
@@ -43876,7 +44100,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>13313</v>
+        <v>13482</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -43884,7 +44108,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45279</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="484">
@@ -43997,7 +44221,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -44078,7 +44302,7 @@
         </is>
       </c>
       <c r="U485" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="486">
@@ -44094,7 +44318,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -44152,7 +44376,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O486" t="inlineStr"/>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P486" t="n">
         <v>0</v>
       </c>
@@ -44163,7 +44391,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="n">
-        <v>19019</v>
+        <v>19311</v>
       </c>
       <c r="T486" t="inlineStr">
         <is>
@@ -44171,7 +44399,7 @@
         </is>
       </c>
       <c r="U486" s="2" t="n">
-        <v>45279</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="487">
@@ -44474,7 +44702,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -44555,7 +44783,7 @@
         </is>
       </c>
       <c r="U490" s="2" t="n">
-        <v>45304</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="491">
@@ -44862,7 +45090,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -44885,7 +45113,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr"/>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="I494" t="inlineStr">
         <is>
           <t>x</t>
@@ -44931,7 +45163,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>3531</v>
+        <v>3521</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -44939,7 +45171,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="495">
@@ -44955,7 +45187,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -45013,7 +45245,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O495" t="inlineStr"/>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P495" t="n">
         <v>0</v>
       </c>
@@ -45024,7 +45260,7 @@
         <v>0</v>
       </c>
       <c r="S495" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="T495" t="inlineStr">
         <is>
@@ -45032,7 +45268,7 @@
         </is>
       </c>
       <c r="U495" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="496">
@@ -45331,7 +45567,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -45404,7 +45640,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>23195</v>
+        <v>23193</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -45412,7 +45648,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="500">
@@ -45428,7 +45664,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -45482,7 +45718,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O500" t="inlineStr"/>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P500" t="n">
         <v>0</v>
       </c>
@@ -45493,7 +45733,7 @@
         <v>0</v>
       </c>
       <c r="S500" t="n">
-        <v>7460</v>
+        <v>7526</v>
       </c>
       <c r="T500" t="inlineStr">
         <is>
@@ -45501,7 +45741,7 @@
         </is>
       </c>
       <c r="U500" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="501">
@@ -45711,7 +45951,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -45759,7 +45999,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M503" t="inlineStr"/>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N503" t="inlineStr">
         <is>
           <t>x</t>
@@ -45776,7 +46020,7 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>46293</v>
+        <v>48292</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
@@ -45784,7 +46028,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45237</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="504">
@@ -45990,7 +46234,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -46063,7 +46307,7 @@
         <v>0</v>
       </c>
       <c r="S506" t="n">
-        <v>11027</v>
+        <v>11270</v>
       </c>
       <c r="T506" t="inlineStr">
         <is>
@@ -46071,7 +46315,7 @@
         </is>
       </c>
       <c r="U506" s="2" t="n">
-        <v>45299</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="507">
@@ -46087,7 +46331,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -46145,7 +46389,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O507" t="inlineStr"/>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P507" t="n">
         <v>0</v>
       </c>
@@ -46156,7 +46404,7 @@
         <v>0</v>
       </c>
       <c r="S507" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T507" t="inlineStr">
         <is>
@@ -46164,7 +46412,7 @@
         </is>
       </c>
       <c r="U507" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="508">
@@ -46548,7 +46796,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -46621,7 +46869,7 @@
         <v>0</v>
       </c>
       <c r="S512" t="n">
-        <v>43175</v>
+        <v>43850</v>
       </c>
       <c r="T512" t="inlineStr">
         <is>
@@ -46629,7 +46877,7 @@
         </is>
       </c>
       <c r="U512" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="513">
@@ -46831,7 +47079,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -46904,7 +47152,7 @@
         <v>0</v>
       </c>
       <c r="S515" t="n">
-        <v>31056</v>
+        <v>31422</v>
       </c>
       <c r="T515" t="inlineStr">
         <is>
@@ -46912,7 +47160,7 @@
         </is>
       </c>
       <c r="U515" s="2" t="n">
-        <v>45300</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="516">
@@ -47397,7 +47645,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -47451,7 +47699,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O521" t="inlineStr"/>
+      <c r="O521" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P521" t="n">
         <v>0</v>
       </c>
@@ -47462,7 +47714,7 @@
         <v>0</v>
       </c>
       <c r="S521" t="n">
-        <v>7403</v>
+        <v>7494</v>
       </c>
       <c r="T521" t="inlineStr">
         <is>
@@ -47470,7 +47722,7 @@
         </is>
       </c>
       <c r="U521" s="2" t="n">
-        <v>45280</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="522">
@@ -47676,7 +47928,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -47757,7 +48009,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45300</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="525">
@@ -47858,7 +48110,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -47916,7 +48168,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O526" t="inlineStr"/>
+      <c r="O526" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P526" t="n">
         <v>0</v>
       </c>
@@ -47927,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="S526" t="n">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="T526" t="inlineStr">
         <is>
@@ -47935,7 +48191,7 @@
         </is>
       </c>
       <c r="U526" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="527">
@@ -48331,7 +48587,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -48412,7 +48668,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="532">
@@ -48816,7 +49072,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -48874,7 +49130,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O536" t="inlineStr"/>
+      <c r="O536" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P536" t="n">
         <v>0</v>
       </c>
@@ -48885,7 +49145,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>12732</v>
+        <v>12796</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -48893,7 +49153,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45274</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="537">
@@ -48998,7 +49258,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -49056,7 +49316,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O538" t="inlineStr"/>
+      <c r="O538" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P538" t="n">
         <v>0</v>
       </c>
@@ -49067,7 +49331,7 @@
         <v>0</v>
       </c>
       <c r="S538" t="n">
-        <v>83508</v>
+        <v>84167</v>
       </c>
       <c r="T538" t="inlineStr">
         <is>
@@ -49075,7 +49339,7 @@
         </is>
       </c>
       <c r="U538" s="2" t="n">
-        <v>45287</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="539">
@@ -49479,7 +49743,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -49537,7 +49801,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O543" t="inlineStr"/>
+      <c r="O543" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P543" t="n">
         <v>0</v>
       </c>
@@ -49548,7 +49816,7 @@
         <v>0</v>
       </c>
       <c r="S543" t="n">
-        <v>100505</v>
+        <v>100802</v>
       </c>
       <c r="T543" t="inlineStr">
         <is>
@@ -49556,7 +49824,7 @@
         </is>
       </c>
       <c r="U543" s="2" t="n">
-        <v>45286</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="544">
@@ -49669,7 +49937,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -49727,7 +49995,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O545" t="inlineStr"/>
+      <c r="O545" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P545" t="n">
         <v>0</v>
       </c>
@@ -49738,7 +50010,7 @@
         <v>0</v>
       </c>
       <c r="S545" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T545" t="inlineStr">
         <is>
@@ -49746,7 +50018,7 @@
         </is>
       </c>
       <c r="U545" s="2" t="n">
-        <v>45266</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="546">
@@ -49952,7 +50224,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -50010,7 +50282,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O548" t="inlineStr"/>
+      <c r="O548" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P548" t="n">
         <v>0</v>
       </c>
@@ -50021,7 +50297,7 @@
         <v>0</v>
       </c>
       <c r="S548" t="n">
-        <v>23494</v>
+        <v>23799</v>
       </c>
       <c r="T548" t="inlineStr">
         <is>
@@ -50029,7 +50305,7 @@
         </is>
       </c>
       <c r="U548" s="2" t="n">
-        <v>45299</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="549">
@@ -50142,7 +50418,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
@@ -50187,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="S550" t="n">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="T550" t="inlineStr">
         <is>
@@ -50195,7 +50471,7 @@
         </is>
       </c>
       <c r="U550" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="551">
@@ -50397,7 +50673,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -50451,7 +50727,11 @@
         </is>
       </c>
       <c r="N553" t="inlineStr"/>
-      <c r="O553" t="inlineStr"/>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P553" t="n">
         <v>0</v>
       </c>
@@ -50462,7 +50742,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="n">
-        <v>7592</v>
+        <v>7691</v>
       </c>
       <c r="T553" t="inlineStr">
         <is>
@@ -50470,7 +50750,7 @@
         </is>
       </c>
       <c r="U553" s="2" t="n">
-        <v>45238</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="554">
@@ -50769,7 +51049,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
@@ -50823,7 +51103,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O557" t="inlineStr"/>
+      <c r="O557" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P557" t="n">
         <v>0</v>
       </c>
@@ -50834,7 +51118,7 @@
         <v>0</v>
       </c>
       <c r="S557" t="n">
-        <v>7812</v>
+        <v>7899</v>
       </c>
       <c r="T557" t="inlineStr">
         <is>
@@ -50842,7 +51126,7 @@
         </is>
       </c>
       <c r="U557" s="2" t="n">
-        <v>45282</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="558">
@@ -50858,7 +51142,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -50931,7 +51215,7 @@
         <v>0</v>
       </c>
       <c r="S558" t="n">
-        <v>12272</v>
+        <v>12273</v>
       </c>
       <c r="T558" t="inlineStr">
         <is>
@@ -50939,7 +51223,7 @@
         </is>
       </c>
       <c r="U558" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="559">
@@ -50955,7 +51239,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -51008,7 +51292,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N559" t="inlineStr"/>
+      <c r="N559" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O559" t="inlineStr"/>
       <c r="P559" t="n">
         <v>0</v>
@@ -51020,7 +51308,7 @@
         <v>0</v>
       </c>
       <c r="S559" t="n">
-        <v>25352</v>
+        <v>25847</v>
       </c>
       <c r="T559" t="inlineStr">
         <is>
@@ -51028,7 +51316,7 @@
         </is>
       </c>
       <c r="U559" s="2" t="n">
-        <v>45280</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="560">
@@ -51626,7 +51914,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -51699,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="n">
-        <v>13902</v>
+        <v>13929</v>
       </c>
       <c r="T566" t="inlineStr">
         <is>
@@ -51707,7 +51995,7 @@
         </is>
       </c>
       <c r="U566" s="2" t="n">
-        <v>45303</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="567">
@@ -51772,7 +52060,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -51830,7 +52118,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O568" t="inlineStr"/>
+      <c r="O568" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P568" t="n">
         <v>0</v>
       </c>
@@ -51841,7 +52133,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="n">
-        <v>12551</v>
+        <v>12711</v>
       </c>
       <c r="T568" t="inlineStr">
         <is>
@@ -51849,7 +52141,7 @@
         </is>
       </c>
       <c r="U568" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="569">
@@ -51962,7 +52254,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -52043,7 +52335,7 @@
         </is>
       </c>
       <c r="U570" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="571">
@@ -52059,7 +52351,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -52140,7 +52432,7 @@
         </is>
       </c>
       <c r="U571" s="2" t="n">
-        <v>45299</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="572">
@@ -52249,7 +52541,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -52322,7 +52614,7 @@
         <v>0</v>
       </c>
       <c r="S573" t="n">
-        <v>33955</v>
+        <v>34099</v>
       </c>
       <c r="T573" t="inlineStr">
         <is>
@@ -52330,7 +52622,7 @@
         </is>
       </c>
       <c r="U573" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="574">
@@ -52706,7 +52998,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -52764,7 +53056,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O578" t="inlineStr"/>
+      <c r="O578" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P578" t="n">
         <v>0</v>
       </c>
@@ -52775,7 +53071,7 @@
         <v>0</v>
       </c>
       <c r="S578" t="n">
-        <v>58101</v>
+        <v>58552</v>
       </c>
       <c r="T578" t="inlineStr">
         <is>
@@ -52783,7 +53079,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="579">
@@ -53668,7 +53964,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -53726,7 +54022,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O588" t="inlineStr"/>
+      <c r="O588" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P588" t="n">
         <v>0</v>
       </c>
@@ -53737,7 +54037,7 @@
         <v>0</v>
       </c>
       <c r="S588" t="n">
-        <v>17123</v>
+        <v>17273</v>
       </c>
       <c r="T588" t="inlineStr">
         <is>
@@ -53745,7 +54045,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="589">
@@ -54052,7 +54352,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -54110,7 +54410,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O592" t="inlineStr"/>
+      <c r="O592" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P592" t="n">
         <v>0</v>
       </c>
@@ -54121,7 +54425,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>37606</v>
+        <v>38532</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -54129,7 +54433,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45280</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="593">
@@ -54145,7 +54449,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -54203,7 +54507,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O593" t="inlineStr"/>
+      <c r="O593" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P593" t="n">
         <v>0</v>
       </c>
@@ -54214,7 +54522,7 @@
         <v>0</v>
       </c>
       <c r="S593" t="n">
-        <v>6245</v>
+        <v>6262</v>
       </c>
       <c r="T593" t="inlineStr">
         <is>
@@ -54222,7 +54530,7 @@
         </is>
       </c>
       <c r="U593" s="2" t="n">
-        <v>45299</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="594">
@@ -54424,7 +54732,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -54482,7 +54790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O596" t="inlineStr"/>
+      <c r="O596" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P596" t="n">
         <v>0</v>
       </c>
@@ -54493,7 +54805,7 @@
         <v>0</v>
       </c>
       <c r="S596" t="n">
-        <v>24861</v>
+        <v>25206</v>
       </c>
       <c r="T596" t="inlineStr">
         <is>
@@ -54501,7 +54813,7 @@
         </is>
       </c>
       <c r="U596" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="597">
@@ -54857,7 +55169,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -54915,7 +55227,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O601" t="inlineStr"/>
+      <c r="O601" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P601" t="n">
         <v>0</v>
       </c>
@@ -54926,7 +55242,7 @@
         <v>0</v>
       </c>
       <c r="S601" t="n">
-        <v>16033</v>
+        <v>16040</v>
       </c>
       <c r="T601" t="inlineStr">
         <is>
@@ -54934,7 +55250,7 @@
         </is>
       </c>
       <c r="U601" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="602">
@@ -55047,7 +55363,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -55105,7 +55421,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O603" t="inlineStr"/>
+      <c r="O603" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P603" t="n">
         <v>0</v>
       </c>
@@ -55116,7 +55436,7 @@
         <v>0</v>
       </c>
       <c r="S603" t="n">
-        <v>12616</v>
+        <v>12761</v>
       </c>
       <c r="T603" t="inlineStr">
         <is>
@@ -55124,7 +55444,7 @@
         </is>
       </c>
       <c r="U603" s="2" t="n">
-        <v>45289</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="604">
@@ -55140,7 +55460,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -55198,7 +55518,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O604" t="inlineStr"/>
+      <c r="O604" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P604" t="n">
         <v>0</v>
       </c>
@@ -55209,7 +55533,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="n">
-        <v>25853</v>
+        <v>26451</v>
       </c>
       <c r="T604" t="inlineStr">
         <is>
@@ -55217,7 +55541,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45267</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="605">
@@ -55524,7 +55848,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -55572,7 +55896,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M608" t="inlineStr"/>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N608" t="inlineStr"/>
       <c r="O608" t="inlineStr"/>
       <c r="P608" t="n">
@@ -55585,7 +55913,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="T608" t="inlineStr">
         <is>
@@ -55593,7 +55921,7 @@
         </is>
       </c>
       <c r="U608" s="2" t="n">
-        <v>45252</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="609">
@@ -55706,7 +56034,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -55787,7 +56115,7 @@
         </is>
       </c>
       <c r="U610" s="2" t="n">
-        <v>45306</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="611">
@@ -55803,7 +56131,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -55876,7 +56204,7 @@
         <v>0</v>
       </c>
       <c r="S611" t="n">
-        <v>18520</v>
+        <v>18522</v>
       </c>
       <c r="T611" t="inlineStr">
         <is>
@@ -55884,7 +56212,7 @@
         </is>
       </c>
       <c r="U611" s="2" t="n">
-        <v>45302</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="612">
@@ -56191,7 +56519,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D615" t="inlineStr"/>
@@ -56245,7 +56573,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O615" t="inlineStr"/>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P615" t="n">
         <v>0</v>
       </c>
@@ -56256,7 +56588,7 @@
         <v>0</v>
       </c>
       <c r="S615" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="T615" t="inlineStr">
         <is>
@@ -56264,7 +56596,7 @@
         </is>
       </c>
       <c r="U615" s="2" t="n">
-        <v>45278</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="616">
@@ -56280,7 +56612,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -56338,7 +56670,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O616" t="inlineStr"/>
+      <c r="O616" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P616" t="n">
         <v>0</v>
       </c>
@@ -56349,7 +56685,7 @@
         <v>0</v>
       </c>
       <c r="S616" t="n">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="T616" t="inlineStr">
         <is>
@@ -56357,7 +56693,7 @@
         </is>
       </c>
       <c r="U616" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="617">
@@ -56470,7 +56806,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -56528,7 +56864,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O618" t="inlineStr"/>
+      <c r="O618" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P618" t="n">
         <v>0</v>
       </c>
@@ -56539,7 +56879,7 @@
         <v>0</v>
       </c>
       <c r="S618" t="n">
-        <v>13888</v>
+        <v>14310</v>
       </c>
       <c r="T618" t="inlineStr">
         <is>
@@ -56547,7 +56887,7 @@
         </is>
       </c>
       <c r="U618" s="2" t="n">
-        <v>45271</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="619">
@@ -56753,7 +57093,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -56826,7 +57166,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>9842</v>
+        <v>9965</v>
       </c>
       <c r="T621" t="inlineStr">
         <is>
@@ -56834,7 +57174,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="622">
@@ -58366,7 +58706,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -58447,7 +58787,7 @@
         </is>
       </c>
       <c r="U638" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="639">
@@ -59591,7 +59931,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -59664,7 +60004,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>112969</v>
+        <v>114880</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -59672,7 +60012,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45286</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="652">
@@ -59688,7 +60028,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -59761,7 +60101,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>27112</v>
+        <v>27597</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -59769,7 +60109,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="653">
@@ -59785,7 +60125,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -59835,7 +60175,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O653" t="inlineStr"/>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P653" t="n">
         <v>0</v>
       </c>
@@ -59846,7 +60190,7 @@
         <v>0</v>
       </c>
       <c r="S653" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="T653" t="inlineStr">
         <is>
@@ -59854,7 +60198,7 @@
         </is>
       </c>
       <c r="U653" s="2" t="n">
-        <v>45267</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="654">
@@ -59870,7 +60214,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -59928,7 +60272,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O654" t="inlineStr"/>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P654" t="n">
         <v>0</v>
       </c>
@@ -59939,7 +60287,7 @@
         <v>0</v>
       </c>
       <c r="S654" t="n">
-        <v>14934</v>
+        <v>15166</v>
       </c>
       <c r="T654" t="inlineStr">
         <is>
@@ -59947,7 +60295,7 @@
         </is>
       </c>
       <c r="U654" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="655">
@@ -59963,7 +60311,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>2023/12/16</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -60021,7 +60369,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O655" t="inlineStr"/>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P655" t="n">
         <v>0</v>
       </c>
@@ -60032,7 +60384,7 @@
         <v>0</v>
       </c>
       <c r="S655" t="n">
-        <v>70760</v>
+        <v>71846</v>
       </c>
       <c r="T655" t="inlineStr">
         <is>
@@ -60040,7 +60392,7 @@
         </is>
       </c>
       <c r="U655" s="2" t="n">
-        <v>45276</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="656">
@@ -60153,7 +60505,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -60211,7 +60563,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O657" t="inlineStr"/>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P657" t="n">
         <v>0</v>
       </c>
@@ -60222,7 +60578,7 @@
         <v>0</v>
       </c>
       <c r="S657" t="n">
-        <v>15509</v>
+        <v>15789</v>
       </c>
       <c r="T657" t="inlineStr">
         <is>
@@ -60230,7 +60586,7 @@
         </is>
       </c>
       <c r="U657" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="658">
@@ -60574,7 +60930,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D662" t="inlineStr"/>
@@ -60628,7 +60984,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O662" t="inlineStr"/>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P662" t="n">
         <v>0</v>
       </c>
@@ -60639,7 +60999,7 @@
         <v>0</v>
       </c>
       <c r="S662" t="n">
-        <v>951</v>
+        <v>1022</v>
       </c>
       <c r="T662" t="inlineStr">
         <is>
@@ -60647,7 +61007,7 @@
         </is>
       </c>
       <c r="U662" s="2" t="n">
-        <v>45274</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="663">
@@ -61233,7 +61593,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -61291,7 +61651,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O669" t="inlineStr"/>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P669" t="n">
         <v>0</v>
       </c>
@@ -61302,7 +61666,7 @@
         <v>0</v>
       </c>
       <c r="S669" t="n">
-        <v>6840</v>
+        <v>6992</v>
       </c>
       <c r="T669" t="inlineStr">
         <is>
@@ -61310,7 +61674,7 @@
         </is>
       </c>
       <c r="U669" s="2" t="n">
-        <v>45282</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="670">
@@ -61415,7 +61779,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -61488,7 +61852,7 @@
         <v>0</v>
       </c>
       <c r="S671" t="n">
-        <v>33221</v>
+        <v>33796</v>
       </c>
       <c r="T671" t="inlineStr">
         <is>
@@ -61496,7 +61860,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45303</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="672">
@@ -61512,7 +61876,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -61570,7 +61934,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O672" t="inlineStr"/>
+      <c r="O672" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P672" t="n">
         <v>0</v>
       </c>
@@ -61581,7 +61949,7 @@
         <v>0</v>
       </c>
       <c r="S672" t="n">
-        <v>1583</v>
+        <v>1649</v>
       </c>
       <c r="T672" t="inlineStr">
         <is>
@@ -61589,7 +61957,7 @@
         </is>
       </c>
       <c r="U672" s="2" t="n">
-        <v>45282</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="673">
@@ -61848,7 +62216,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -61906,7 +62274,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O676" t="inlineStr"/>
+      <c r="O676" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P676" t="n">
         <v>0</v>
       </c>
@@ -61917,7 +62289,7 @@
         <v>0</v>
       </c>
       <c r="S676" t="n">
-        <v>7235</v>
+        <v>7353</v>
       </c>
       <c r="T676" t="inlineStr">
         <is>
@@ -61925,7 +62297,7 @@
         </is>
       </c>
       <c r="U676" s="2" t="n">
-        <v>45267</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="677">
@@ -61941,7 +62313,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -61999,7 +62371,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O677" t="inlineStr"/>
+      <c r="O677" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P677" t="n">
         <v>0</v>
       </c>
@@ -62010,7 +62386,7 @@
         <v>0</v>
       </c>
       <c r="S677" t="n">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="T677" t="inlineStr">
         <is>
@@ -62018,7 +62394,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45286</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="678">
@@ -62548,7 +62924,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/20</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -62594,7 +62970,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O684" t="inlineStr"/>
+      <c r="O684" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P684" t="n">
         <v>0</v>
       </c>
@@ -62605,7 +62985,7 @@
         <v>0</v>
       </c>
       <c r="S684" t="n">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -62613,7 +62993,7 @@
         </is>
       </c>
       <c r="U684" s="2" t="n">
-        <v>45282</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="685">
@@ -62868,7 +63248,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -62945,7 +63325,7 @@
         </is>
       </c>
       <c r="U688" s="2" t="n">
-        <v>45307</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="689">
@@ -63059,7 +63439,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -63117,7 +63497,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O691" t="inlineStr"/>
+      <c r="O691" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P691" t="n">
         <v>0</v>
       </c>
@@ -63128,7 +63512,7 @@
         <v>0</v>
       </c>
       <c r="S691" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="T691" t="inlineStr">
         <is>
@@ -63136,7 +63520,7 @@
         </is>
       </c>
       <c r="U691" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="692">
@@ -63844,7 +64228,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -63925,7 +64309,7 @@
         </is>
       </c>
       <c r="U700" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="701">
@@ -64083,7 +64467,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -64160,7 +64544,7 @@
         </is>
       </c>
       <c r="U703" s="2" t="n">
-        <v>45274</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="704">
@@ -65782,7 +66166,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -65840,7 +66224,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O722" t="inlineStr"/>
+      <c r="O722" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P722" t="n">
         <v>0</v>
       </c>
@@ -65851,7 +66239,7 @@
         <v>0</v>
       </c>
       <c r="S722" t="n">
-        <v>786</v>
+        <v>844</v>
       </c>
       <c r="T722" t="inlineStr">
         <is>
@@ -65859,7 +66247,7 @@
         </is>
       </c>
       <c r="U722" s="2" t="n">
-        <v>45272</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="723">
@@ -66166,7 +66554,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -66224,7 +66612,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O726" t="inlineStr"/>
+      <c r="O726" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P726" t="n">
         <v>0</v>
       </c>
@@ -66235,7 +66627,7 @@
         <v>0</v>
       </c>
       <c r="S726" t="n">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="T726" t="inlineStr">
         <is>
@@ -66243,7 +66635,7 @@
         </is>
       </c>
       <c r="U726" s="2" t="n">
-        <v>45285</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="727">
@@ -67203,7 +67595,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -67261,7 +67653,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O739" t="inlineStr"/>
+      <c r="O739" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P739" t="n">
         <v>0</v>
       </c>
@@ -67272,7 +67668,7 @@
         <v>0</v>
       </c>
       <c r="S739" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T739" t="inlineStr">
         <is>
@@ -67280,7 +67676,7 @@
         </is>
       </c>
       <c r="U739" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="740">
@@ -68636,7 +69032,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D756" t="inlineStr"/>
@@ -68645,12 +69041,36 @@
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
-      <c r="M756" t="inlineStr"/>
-      <c r="N756" t="inlineStr"/>
-      <c r="O756" t="inlineStr"/>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O756" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P756" t="n">
         <v>0</v>
       </c>
@@ -68661,7 +69081,7 @@
         <v>0</v>
       </c>
       <c r="S756" t="n">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="T756" t="inlineStr">
         <is>
@@ -68669,7 +69089,7 @@
         </is>
       </c>
       <c r="U756" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="757">
@@ -69564,7 +69984,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -69622,7 +70042,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O768" t="inlineStr"/>
+      <c r="O768" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P768" t="n">
         <v>0</v>
       </c>
@@ -69633,7 +70057,7 @@
         <v>0</v>
       </c>
       <c r="S768" t="n">
-        <v>423</v>
+        <v>510</v>
       </c>
       <c r="T768" t="inlineStr">
         <is>
@@ -69641,7 +70065,7 @@
         </is>
       </c>
       <c r="U768" s="2" t="n">
-        <v>45286</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="769">
@@ -69843,7 +70267,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D771" t="inlineStr"/>
@@ -69877,7 +70301,11 @@
       </c>
       <c r="M771" t="inlineStr"/>
       <c r="N771" t="inlineStr"/>
-      <c r="O771" t="inlineStr"/>
+      <c r="O771" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P771" t="n">
         <v>0</v>
       </c>
@@ -69888,7 +70316,7 @@
         <v>0</v>
       </c>
       <c r="S771" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T771" t="inlineStr">
         <is>
@@ -69896,7 +70324,7 @@
         </is>
       </c>
       <c r="U771" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="772">
@@ -70685,7 +71113,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D781" t="inlineStr"/>
@@ -70731,7 +71159,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O781" t="inlineStr"/>
+      <c r="O781" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P781" t="n">
         <v>0</v>
       </c>
@@ -70742,7 +71174,7 @@
         <v>0</v>
       </c>
       <c r="S781" t="n">
-        <v>5124</v>
+        <v>5719</v>
       </c>
       <c r="T781" t="inlineStr">
         <is>
@@ -70750,7 +71182,7 @@
         </is>
       </c>
       <c r="U781" s="2" t="n">
-        <v>45278</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="782">
@@ -72086,7 +72518,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D798" t="inlineStr"/>
@@ -72124,7 +72556,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O798" t="inlineStr"/>
+      <c r="O798" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P798" t="n">
         <v>0</v>
       </c>
@@ -72135,7 +72571,7 @@
         <v>0</v>
       </c>
       <c r="S798" t="n">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="T798" t="inlineStr">
         <is>
@@ -72143,7 +72579,7 @@
         </is>
       </c>
       <c r="U798" s="2" t="n">
-        <v>45274</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="799">
@@ -72159,7 +72595,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -72217,7 +72653,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O799" t="inlineStr"/>
+      <c r="O799" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P799" t="n">
         <v>0</v>
       </c>
@@ -72228,7 +72668,7 @@
         <v>0</v>
       </c>
       <c r="S799" t="n">
-        <v>3491</v>
+        <v>3910</v>
       </c>
       <c r="T799" t="inlineStr">
         <is>
@@ -72236,7 +72676,7 @@
         </is>
       </c>
       <c r="U799" s="2" t="n">
-        <v>45286</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="800">
@@ -72702,7 +73142,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -72783,7 +73223,7 @@
         </is>
       </c>
       <c r="U806" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="807">
@@ -73343,7 +73783,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D815" t="inlineStr"/>
@@ -73388,7 +73828,7 @@
         </is>
       </c>
       <c r="U815" s="2" t="n">
-        <v>45287</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="816">
@@ -73404,7 +73844,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D816" t="inlineStr"/>
@@ -73437,7 +73877,7 @@
         <v>0</v>
       </c>
       <c r="S816" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="T816" t="inlineStr">
         <is>
@@ -73445,7 +73885,7 @@
         </is>
       </c>
       <c r="U816" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="817">
@@ -73461,7 +73901,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D817" t="inlineStr"/>
@@ -73479,7 +73919,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O817" t="inlineStr"/>
+      <c r="O817" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P817" t="n">
         <v>0</v>
       </c>
@@ -73490,7 +73934,7 @@
         <v>0</v>
       </c>
       <c r="S817" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T817" t="inlineStr">
         <is>
@@ -73498,7 +73942,7 @@
         </is>
       </c>
       <c r="U817" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="818">
@@ -73514,7 +73958,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D818" t="inlineStr"/>
@@ -73532,7 +73976,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O818" t="inlineStr"/>
+      <c r="O818" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P818" t="n">
         <v>0</v>
       </c>
@@ -73543,7 +73991,7 @@
         <v>0</v>
       </c>
       <c r="S818" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T818" t="inlineStr">
         <is>
@@ -73551,7 +73999,7 @@
         </is>
       </c>
       <c r="U818" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="819">
@@ -73567,7 +74015,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
@@ -73585,7 +74033,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O819" t="inlineStr"/>
+      <c r="O819" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P819" t="n">
         <v>0</v>
       </c>
@@ -73596,7 +74048,7 @@
         <v>0</v>
       </c>
       <c r="S819" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T819" t="inlineStr">
         <is>
@@ -73604,7 +74056,7 @@
         </is>
       </c>
       <c r="U819" s="2" t="n">
-        <v>45299</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="820">
@@ -73620,7 +74072,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D820" t="inlineStr"/>
@@ -73653,7 +74105,7 @@
         <v>0</v>
       </c>
       <c r="S820" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="T820" t="inlineStr">
         <is>
@@ -73661,7 +74113,7 @@
         </is>
       </c>
       <c r="U820" s="2" t="n">
-        <v>45299</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="821">
@@ -73677,7 +74129,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D821" t="inlineStr"/>
@@ -73695,7 +74147,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O821" t="inlineStr"/>
+      <c r="O821" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P821" t="n">
         <v>0</v>
       </c>
@@ -73706,7 +74162,7 @@
         <v>0</v>
       </c>
       <c r="S821" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="T821" t="inlineStr">
         <is>
@@ -73714,7 +74170,7 @@
         </is>
       </c>
       <c r="U821" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="822">
@@ -73730,7 +74186,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D822" t="inlineStr"/>
@@ -73763,7 +74219,7 @@
         <v>0</v>
       </c>
       <c r="S822" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T822" t="inlineStr">
         <is>
@@ -73771,7 +74227,7 @@
         </is>
       </c>
       <c r="U822" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="823">
@@ -73787,7 +74243,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D823" t="inlineStr"/>
@@ -73805,7 +74261,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O823" t="inlineStr"/>
+      <c r="O823" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P823" t="n">
         <v>0</v>
       </c>
@@ -73816,7 +74276,7 @@
         <v>0</v>
       </c>
       <c r="S823" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T823" t="inlineStr">
         <is>
@@ -73824,7 +74284,7 @@
         </is>
       </c>
       <c r="U823" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="824">
@@ -73840,7 +74300,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D824" t="inlineStr"/>
@@ -73858,7 +74318,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O824" t="inlineStr"/>
+      <c r="O824" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P824" t="n">
         <v>0</v>
       </c>
@@ -73869,7 +74333,7 @@
         <v>0</v>
       </c>
       <c r="S824" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T824" t="inlineStr">
         <is>
@@ -73877,7 +74341,7 @@
         </is>
       </c>
       <c r="U824" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="825">
@@ -73893,7 +74357,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
@@ -73911,7 +74375,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O825" t="inlineStr"/>
+      <c r="O825" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P825" t="n">
         <v>0</v>
       </c>
@@ -73922,7 +74390,7 @@
         <v>0</v>
       </c>
       <c r="S825" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T825" t="inlineStr">
         <is>
@@ -73930,7 +74398,7 @@
         </is>
       </c>
       <c r="U825" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="826">
@@ -73946,7 +74414,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
@@ -73979,7 +74447,7 @@
         <v>0</v>
       </c>
       <c r="S826" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T826" t="inlineStr">
         <is>
@@ -73987,7 +74455,7 @@
         </is>
       </c>
       <c r="U826" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="827">
@@ -74003,7 +74471,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D827" t="inlineStr"/>
@@ -74021,7 +74489,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O827" t="inlineStr"/>
+      <c r="O827" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P827" t="n">
         <v>0</v>
       </c>
@@ -74032,7 +74504,7 @@
         <v>0</v>
       </c>
       <c r="S827" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T827" t="inlineStr">
         <is>
@@ -74040,7 +74512,7 @@
         </is>
       </c>
       <c r="U827" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="828">
@@ -74056,7 +74528,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D828" t="inlineStr"/>
@@ -74074,7 +74546,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O828" t="inlineStr"/>
+      <c r="O828" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P828" t="n">
         <v>0</v>
       </c>
@@ -74085,7 +74561,7 @@
         <v>0</v>
       </c>
       <c r="S828" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T828" t="inlineStr">
         <is>
@@ -74093,7 +74569,7 @@
         </is>
       </c>
       <c r="U828" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="829">
@@ -74109,7 +74585,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D829" t="inlineStr"/>
@@ -74127,7 +74603,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O829" t="inlineStr"/>
+      <c r="O829" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P829" t="n">
         <v>0</v>
       </c>
@@ -74138,7 +74618,7 @@
         <v>0</v>
       </c>
       <c r="S829" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="T829" t="inlineStr">
         <is>
@@ -74146,7 +74626,7 @@
         </is>
       </c>
       <c r="U829" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="830">
@@ -74162,7 +74642,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D830" t="inlineStr"/>
@@ -74180,7 +74660,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O830" t="inlineStr"/>
+      <c r="O830" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P830" t="n">
         <v>0</v>
       </c>
@@ -74191,7 +74675,7 @@
         <v>0</v>
       </c>
       <c r="S830" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T830" t="inlineStr">
         <is>
@@ -74199,7 +74683,7 @@
         </is>
       </c>
       <c r="U830" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="831">
@@ -74215,7 +74699,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
@@ -74233,7 +74717,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O831" t="inlineStr"/>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P831" t="n">
         <v>0</v>
       </c>
@@ -74244,7 +74732,7 @@
         <v>0</v>
       </c>
       <c r="S831" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T831" t="inlineStr">
         <is>
@@ -74252,7 +74740,7 @@
         </is>
       </c>
       <c r="U831" s="2" t="n">
-        <v>45295</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="832">
@@ -74268,7 +74756,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D832" t="inlineStr"/>
@@ -74286,7 +74774,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O832" t="inlineStr"/>
+      <c r="O832" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P832" t="n">
         <v>0</v>
       </c>
@@ -74297,7 +74789,7 @@
         <v>0</v>
       </c>
       <c r="S832" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T832" t="inlineStr">
         <is>
@@ -74305,7 +74797,7 @@
         </is>
       </c>
       <c r="U832" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="833">
@@ -74316,12 +74808,12 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Isla de Pascua</t>
+          <t>Delegación Presidencial Provincial de Chacabuco</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D833" t="inlineStr"/>
@@ -74339,7 +74831,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O833" t="inlineStr"/>
+      <c r="O833" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P833" t="n">
         <v>0</v>
       </c>
@@ -74350,15 +74846,15 @@
         <v>0</v>
       </c>
       <c r="S833" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T833" t="inlineStr">
         <is>
-          <t>AB041</t>
+          <t>AB069</t>
         </is>
       </c>
       <c r="U833" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="834">
@@ -74369,12 +74865,12 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Chacabuco</t>
+          <t>Delegación Presidencial Provincial de Melipilla</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
@@ -74392,7 +74888,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O834" t="inlineStr"/>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P834" t="n">
         <v>0</v>
       </c>
@@ -74403,15 +74903,15 @@
         <v>0</v>
       </c>
       <c r="S834" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T834" t="inlineStr">
         <is>
-          <t>AB069</t>
+          <t>AB073</t>
         </is>
       </c>
       <c r="U834" s="2" t="n">
-        <v>45287</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="835">
@@ -74422,12 +74922,12 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Melipilla</t>
+          <t>Delegación Presidencial Provincial de San Felipe</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D835" t="inlineStr"/>
@@ -74460,15 +74960,15 @@
         <v>0</v>
       </c>
       <c r="S835" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T835" t="inlineStr">
         <is>
-          <t>AB073</t>
+          <t>AB037</t>
         </is>
       </c>
       <c r="U835" s="2" t="n">
-        <v>45296</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="836">
@@ -74479,12 +74979,12 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Felipe</t>
+          <t>Delegación Presidencial Provincial de Maipo</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
@@ -74502,7 +75002,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O836" t="inlineStr"/>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P836" t="n">
         <v>0</v>
       </c>
@@ -74517,11 +75021,11 @@
       </c>
       <c r="T836" t="inlineStr">
         <is>
-          <t>AB037</t>
+          <t>AB071</t>
         </is>
       </c>
       <c r="U836" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="837">
@@ -74532,12 +75036,12 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Maipo</t>
+          <t>Delegación Presidencial Regional del Libertador General Bernardo OHiggins</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D837" t="inlineStr"/>
@@ -74555,7 +75059,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O837" t="inlineStr"/>
+      <c r="O837" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P837" t="n">
         <v>0</v>
       </c>
@@ -74566,15 +75074,15 @@
         <v>0</v>
       </c>
       <c r="S837" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="T837" t="inlineStr">
         <is>
-          <t>AB071</t>
+          <t>AB016</t>
         </is>
       </c>
       <c r="U837" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="838">
@@ -74585,12 +75093,12 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional del Libertador General Bernardo OHiggins</t>
+          <t>Delegación Presidencial Regional de Antofagasta</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
@@ -74623,15 +75131,15 @@
         <v>0</v>
       </c>
       <c r="S838" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="T838" t="inlineStr">
         <is>
-          <t>AB016</t>
+          <t>AB008</t>
         </is>
       </c>
       <c r="U838" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="839">
@@ -74642,12 +75150,12 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Antofagasta</t>
+          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D839" t="inlineStr"/>
@@ -74680,15 +75188,15 @@
         <v>0</v>
       </c>
       <c r="S839" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="T839" t="inlineStr">
         <is>
-          <t>AB008</t>
+          <t>AB015</t>
         </is>
       </c>
       <c r="U839" s="2" t="n">
-        <v>45295</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="840">
@@ -74699,12 +75207,12 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Regional de Magallanes y la Antártica Chilena</t>
+          <t>Delegación Presidencial Provincial de Linares</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D840" t="inlineStr"/>
@@ -74737,15 +75245,15 @@
         <v>0</v>
       </c>
       <c r="S840" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T840" t="inlineStr">
         <is>
-          <t>AB015</t>
+          <t>AB047</t>
         </is>
       </c>
       <c r="U840" s="2" t="n">
-        <v>45295</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="841">
@@ -74756,12 +75264,12 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Linares</t>
+          <t>Delegación Presidencial Provincial de Tierra del Fuego</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
@@ -74794,15 +75302,15 @@
         <v>0</v>
       </c>
       <c r="S841" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="T841" t="inlineStr">
         <is>
-          <t>AB047</t>
+          <t>AB067</t>
         </is>
       </c>
       <c r="U841" s="2" t="n">
-        <v>45296</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="842">
@@ -74813,12 +75321,12 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Tierra del Fuego</t>
+          <t>Delegación Presidencial Provincial de Colchagua</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D842" t="inlineStr"/>
@@ -74836,7 +75344,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O842" t="inlineStr"/>
+      <c r="O842" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P842" t="n">
         <v>0</v>
       </c>
@@ -74847,15 +75359,15 @@
         <v>0</v>
       </c>
       <c r="S842" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="T842" t="inlineStr">
         <is>
-          <t>AB067</t>
+          <t>AB043</t>
         </is>
       </c>
       <c r="U842" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="843">
@@ -74866,12 +75378,12 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de Colchagua</t>
+          <t>Delegación Presidencial Provincial de Curicó</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D843" t="inlineStr"/>
@@ -74889,7 +75401,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O843" t="inlineStr"/>
+      <c r="O843" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P843" t="n">
         <v>0</v>
       </c>
@@ -74900,15 +75416,15 @@
         <v>0</v>
       </c>
       <c r="S843" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T843" t="inlineStr">
         <is>
-          <t>AB043</t>
+          <t>AB045</t>
         </is>
       </c>
       <c r="U843" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="844">
@@ -74924,7 +75440,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D844" t="inlineStr"/>
@@ -74957,7 +75473,7 @@
         <v>0</v>
       </c>
       <c r="S844" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T844" t="inlineStr">
         <is>
@@ -74965,7 +75481,7 @@
         </is>
       </c>
       <c r="U844" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="845">
@@ -74981,7 +75497,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
@@ -74999,7 +75515,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O845" t="inlineStr"/>
+      <c r="O845" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P845" t="n">
         <v>0</v>
       </c>
@@ -75010,7 +75530,7 @@
         <v>0</v>
       </c>
       <c r="S845" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T845" t="inlineStr">
         <is>
@@ -75018,7 +75538,7 @@
         </is>
       </c>
       <c r="U845" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="846">
@@ -75034,7 +75554,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D846" t="inlineStr"/>
@@ -75067,7 +75587,7 @@
         <v>0</v>
       </c>
       <c r="S846" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="T846" t="inlineStr">
         <is>
@@ -75075,7 +75595,7 @@
         </is>
       </c>
       <c r="U846" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="847">
@@ -75091,7 +75611,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D847" t="inlineStr"/>
@@ -75109,7 +75629,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O847" t="inlineStr"/>
+      <c r="O847" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P847" t="n">
         <v>0</v>
       </c>
@@ -75120,7 +75644,7 @@
         <v>0</v>
       </c>
       <c r="S847" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T847" t="inlineStr">
         <is>
@@ -75128,7 +75652,7 @@
         </is>
       </c>
       <c r="U847" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="848">
@@ -75144,7 +75668,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
@@ -75162,7 +75686,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O848" t="inlineStr"/>
+      <c r="O848" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P848" t="n">
         <v>0</v>
       </c>
@@ -75173,7 +75701,7 @@
         <v>0</v>
       </c>
       <c r="S848" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="T848" t="inlineStr">
         <is>
@@ -75181,7 +75709,7 @@
         </is>
       </c>
       <c r="U848" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="849">
@@ -75197,7 +75725,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
@@ -75230,7 +75758,7 @@
         <v>0</v>
       </c>
       <c r="S849" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="T849" t="inlineStr">
         <is>
@@ -75238,7 +75766,7 @@
         </is>
       </c>
       <c r="U849" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="850">
@@ -75254,7 +75782,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D850" t="inlineStr"/>
@@ -75272,7 +75800,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O850" t="inlineStr"/>
+      <c r="O850" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P850" t="n">
         <v>0</v>
       </c>
@@ -75283,7 +75815,7 @@
         <v>0</v>
       </c>
       <c r="S850" t="n">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="T850" t="inlineStr">
         <is>
@@ -75291,7 +75823,7 @@
         </is>
       </c>
       <c r="U850" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="851">
@@ -75307,7 +75839,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D851" t="inlineStr"/>
@@ -75325,7 +75857,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O851" t="inlineStr"/>
+      <c r="O851" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P851" t="n">
         <v>0</v>
       </c>
@@ -75336,7 +75872,7 @@
         <v>0</v>
       </c>
       <c r="S851" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T851" t="inlineStr">
         <is>
@@ -75344,7 +75880,7 @@
         </is>
       </c>
       <c r="U851" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="852">
@@ -75360,7 +75896,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D852" t="inlineStr"/>
@@ -75378,7 +75914,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O852" t="inlineStr"/>
+      <c r="O852" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P852" t="n">
         <v>0</v>
       </c>
@@ -75389,7 +75929,7 @@
         <v>0</v>
       </c>
       <c r="S852" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="T852" t="inlineStr">
         <is>
@@ -75397,7 +75937,7 @@
         </is>
       </c>
       <c r="U852" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="853">
@@ -75413,7 +75953,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D853" t="inlineStr"/>
@@ -75446,7 +75986,7 @@
         <v>0</v>
       </c>
       <c r="S853" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T853" t="inlineStr">
         <is>
@@ -75454,7 +75994,7 @@
         </is>
       </c>
       <c r="U853" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="854">
@@ -75470,7 +76010,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D854" t="inlineStr"/>
@@ -75503,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="S854" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T854" t="inlineStr">
         <is>
@@ -75511,7 +76051,7 @@
         </is>
       </c>
       <c r="U854" s="2" t="n">
-        <v>45300</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="855">
@@ -75527,7 +76067,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
@@ -75560,7 +76100,7 @@
         <v>0</v>
       </c>
       <c r="S855" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="T855" t="inlineStr">
         <is>
@@ -75568,7 +76108,7 @@
         </is>
       </c>
       <c r="U855" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="856">
@@ -75584,7 +76124,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
@@ -75602,7 +76142,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O856" t="inlineStr"/>
+      <c r="O856" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P856" t="n">
         <v>0</v>
       </c>
@@ -75613,7 +76157,7 @@
         <v>0</v>
       </c>
       <c r="S856" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="T856" t="inlineStr">
         <is>
@@ -75621,7 +76165,7 @@
         </is>
       </c>
       <c r="U856" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="857">
@@ -75637,7 +76181,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
@@ -75655,7 +76199,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O857" t="inlineStr"/>
+      <c r="O857" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P857" t="n">
         <v>0</v>
       </c>
@@ -75666,7 +76214,7 @@
         <v>0</v>
       </c>
       <c r="S857" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="T857" t="inlineStr">
         <is>
@@ -75674,7 +76222,7 @@
         </is>
       </c>
       <c r="U857" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="858">
@@ -75690,7 +76238,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
@@ -75708,7 +76256,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O858" t="inlineStr"/>
+      <c r="O858" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P858" t="n">
         <v>0</v>
       </c>
@@ -75719,7 +76271,7 @@
         <v>0</v>
       </c>
       <c r="S858" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T858" t="inlineStr">
         <is>
@@ -75727,7 +76279,7 @@
         </is>
       </c>
       <c r="U858" s="2" t="n">
-        <v>45299</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="859">
@@ -75743,7 +76295,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D859" t="inlineStr"/>
@@ -75776,7 +76328,7 @@
         <v>0</v>
       </c>
       <c r="S859" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="T859" t="inlineStr">
         <is>
@@ -75784,7 +76336,7 @@
         </is>
       </c>
       <c r="U859" s="2" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="860">
@@ -75857,7 +76409,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D861" t="inlineStr"/>
@@ -75890,7 +76442,7 @@
         <v>0</v>
       </c>
       <c r="S861" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T861" t="inlineStr">
         <is>
@@ -75898,7 +76450,7 @@
         </is>
       </c>
       <c r="U861" s="2" t="n">
-        <v>45303</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="862">
@@ -75914,7 +76466,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D862" t="inlineStr"/>
@@ -75932,7 +76484,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O862" t="inlineStr"/>
+      <c r="O862" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P862" t="n">
         <v>0</v>
       </c>
@@ -75943,7 +76499,7 @@
         <v>0</v>
       </c>
       <c r="S862" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="T862" t="inlineStr">
         <is>
@@ -75951,7 +76507,7 @@
         </is>
       </c>
       <c r="U862" s="2" t="n">
-        <v>45282</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="863">
@@ -75967,7 +76523,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
@@ -76000,7 +76556,7 @@
         <v>0</v>
       </c>
       <c r="S863" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T863" t="inlineStr">
         <is>
@@ -76008,7 +76564,7 @@
         </is>
       </c>
       <c r="U863" s="2" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="864">
@@ -76024,7 +76580,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D864" t="inlineStr"/>
@@ -76042,7 +76598,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O864" t="inlineStr"/>
+      <c r="O864" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P864" t="n">
         <v>0</v>
       </c>
@@ -76053,7 +76613,7 @@
         <v>0</v>
       </c>
       <c r="S864" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T864" t="inlineStr">
         <is>
@@ -76061,7 +76621,7 @@
         </is>
       </c>
       <c r="U864" s="2" t="n">
-        <v>45301</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="865">
@@ -76077,7 +76637,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D865" t="inlineStr"/>
@@ -76095,7 +76655,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O865" t="inlineStr"/>
+      <c r="O865" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P865" t="n">
         <v>0</v>
       </c>
@@ -76106,7 +76670,7 @@
         <v>0</v>
       </c>
       <c r="S865" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T865" t="inlineStr">
         <is>
@@ -76114,7 +76678,7 @@
         </is>
       </c>
       <c r="U865" s="2" t="n">
-        <v>45275</v>
+        <v>45307</v>
       </c>
     </row>
     <row r="866">
@@ -76130,7 +76694,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
@@ -76148,7 +76712,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O866" t="inlineStr"/>
+      <c r="O866" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P866" t="n">
         <v>0</v>
       </c>
@@ -76159,7 +76727,7 @@
         <v>0</v>
       </c>
       <c r="S866" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="T866" t="inlineStr">
         <is>
@@ -76167,7 +76735,7 @@
         </is>
       </c>
       <c r="U866" s="2" t="n">
-        <v>45287</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="867">
@@ -76178,12 +76746,12 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de San Antonio</t>
+          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D867" t="inlineStr"/>
@@ -76201,7 +76769,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O867" t="inlineStr"/>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P867" t="n">
         <v>0</v>
       </c>
@@ -76212,15 +76784,15 @@
         <v>0</v>
       </c>
       <c r="S867" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T867" t="inlineStr">
         <is>
-          <t>AB040</t>
+          <t>AB068</t>
         </is>
       </c>
       <c r="U867" s="2" t="n">
-        <v>45275</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="868">
@@ -76231,12 +76803,12 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de La Antártica Chilena</t>
+          <t>Delegación Presidencial Provincial de San Antonio</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
@@ -76254,7 +76826,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O868" t="inlineStr"/>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P868" t="n">
         <v>0</v>
       </c>
@@ -76265,15 +76841,15 @@
         <v>0</v>
       </c>
       <c r="S868" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T868" t="inlineStr">
         <is>
-          <t>AB068</t>
+          <t>AB040</t>
         </is>
       </c>
       <c r="U868" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="869">
@@ -76342,7 +76918,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
@@ -76360,7 +76936,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O870" t="inlineStr"/>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P870" t="n">
         <v>0</v>
       </c>
@@ -76371,7 +76951,7 @@
         <v>0</v>
       </c>
       <c r="S870" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="T870" t="inlineStr">
         <is>
@@ -76379,7 +76959,7 @@
         </is>
       </c>
       <c r="U870" s="2" t="n">
-        <v>45275</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="871">
@@ -76456,7 +77036,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
@@ -76489,7 +77069,7 @@
         <v>0</v>
       </c>
       <c r="S872" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T872" t="inlineStr">
         <is>
@@ -76497,7 +77077,7 @@
         </is>
       </c>
       <c r="U872" s="2" t="n">
-        <v>45294</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="873">
@@ -76566,7 +77146,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="D874" t="inlineStr"/>
@@ -76579,7 +77159,11 @@
       <c r="K874" t="inlineStr"/>
       <c r="L874" t="inlineStr"/>
       <c r="M874" t="inlineStr"/>
-      <c r="N874" t="inlineStr"/>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O874" t="inlineStr">
         <is>
           <t>x</t>
@@ -76595,7 +77179,7 @@
         <v>0</v>
       </c>
       <c r="S874" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T874" t="inlineStr">
         <is>
@@ -76603,7 +77187,7 @@
         </is>
       </c>
       <c r="U874" s="2" t="n">
-        <v>45300</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="875">
@@ -76729,7 +77313,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
@@ -76766,7 +77350,178 @@
         </is>
       </c>
       <c r="U877" s="2" t="n">
-        <v>45306</v>
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Municipalidad de Panquehue</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr"/>
+      <c r="H878" t="inlineStr"/>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O878" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
+      <c r="S878" t="n">
+        <v>220</v>
+      </c>
+      <c r="T878" t="inlineStr">
+        <is>
+          <t>MU201</t>
+        </is>
+      </c>
+      <c r="U878" s="2" t="n">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Delegación Presidencial Provincial de Talagante</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr"/>
+      <c r="H879" t="inlineStr"/>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="inlineStr"/>
+      <c r="M879" t="inlineStr"/>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O879" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
+      <c r="S879" t="n">
+        <v>16</v>
+      </c>
+      <c r="T879" t="inlineStr">
+        <is>
+          <t>AB072</t>
+        </is>
+      </c>
+      <c r="U879" s="2" t="n">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Delegación Presidencial Provincial de Isla de Pascua</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr"/>
+      <c r="E880" t="inlineStr"/>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
+      <c r="M880" t="inlineStr"/>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O880" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
+      <c r="S880" t="n">
+        <v>6</v>
+      </c>
+      <c r="T880" t="inlineStr">
+        <is>
+          <t>AB041</t>
+        </is>
+      </c>
+      <c r="U880" s="2" t="n">
+        <v>45308</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U880"/>
+  <dimension ref="A1:U881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8084</v>
+        <v>8170</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="U22" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="23">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1909,7 +1909,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
           <t>x</t>
@@ -1925,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -1933,7 +1937,7 @@
         </is>
       </c>
       <c r="U24" s="2" t="n">
-        <v>45244</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="25">
@@ -2391,7 +2395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2445,7 +2449,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>5734</v>
+        <v>5919</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -2464,7 +2472,7 @@
         </is>
       </c>
       <c r="U31" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="32">
@@ -3124,7 +3132,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -3181,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -3189,7 +3197,7 @@
         </is>
       </c>
       <c r="U40" s="2" t="n">
-        <v>45279</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="41">
@@ -3711,7 +3719,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3792,7 +3800,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45309</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="48">
@@ -6438,7 +6446,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6496,7 +6504,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
@@ -6507,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>11757</v>
+        <v>11886</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -6515,7 +6527,7 @@
         </is>
       </c>
       <c r="U78" s="2" t="n">
-        <v>45286</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="79">
@@ -6725,7 +6737,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6798,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>9286</v>
+        <v>9377</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -6806,7 +6818,7 @@
         </is>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45308</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="82">
@@ -6822,7 +6834,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6860,11 +6872,31 @@
           <t>x</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -6875,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>833</v>
+        <v>1104</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
@@ -6883,7 +6915,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45303</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="83">
@@ -7186,7 +7218,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7244,7 +7276,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P86" t="n">
         <v>0</v>
       </c>
@@ -7255,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>17522</v>
+        <v>17571</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7263,7 +7299,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45286</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="87">
@@ -7376,7 +7412,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7457,7 +7493,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45303</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="89">
@@ -7663,7 +7699,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -7716,8 +7752,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P91" t="n">
         <v>0</v>
       </c>
@@ -7728,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>19908</v>
+        <v>20418</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -7736,7 +7780,7 @@
         </is>
       </c>
       <c r="U91" s="2" t="n">
-        <v>45299</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="92">
@@ -8031,7 +8075,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -8089,7 +8133,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P95" t="n">
         <v>0</v>
       </c>
@@ -8100,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>11998</v>
+        <v>12026</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -8108,7 +8156,7 @@
         </is>
       </c>
       <c r="U95" s="2" t="n">
-        <v>45287</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="96">
@@ -8124,7 +8172,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8177,8 +8225,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P96" t="n">
         <v>0</v>
       </c>
@@ -8189,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>13104</v>
+        <v>13257</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8197,7 +8253,7 @@
         </is>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45258</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="97">
@@ -9131,7 +9187,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -9189,7 +9245,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr"/>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P107" t="n">
         <v>0</v>
       </c>
@@ -9200,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>9384</v>
+        <v>9536</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -9208,7 +9268,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45287</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="108">
@@ -9224,7 +9284,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9305,7 +9365,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45308</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="109">
@@ -12932,7 +12992,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13005,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>31157</v>
+        <v>31907</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -13013,7 +13073,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45281</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="149">
@@ -14182,7 +14242,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/27</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -14240,7 +14300,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P162" t="n">
         <v>0</v>
       </c>
@@ -14251,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>85358</v>
+        <v>86297</v>
       </c>
       <c r="T162" t="inlineStr">
         <is>
@@ -14259,7 +14323,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45306</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="163">
@@ -14954,7 +15018,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -15035,7 +15099,7 @@
         </is>
       </c>
       <c r="U170" s="2" t="n">
-        <v>45306</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="171">
@@ -15711,7 +15775,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -15792,7 +15856,7 @@
         </is>
       </c>
       <c r="U179" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="180">
@@ -16863,7 +16927,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -16944,7 +17008,7 @@
         </is>
       </c>
       <c r="U191" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="192">
@@ -17510,7 +17574,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -17543,7 +17607,7 @@
         </is>
       </c>
       <c r="U198" s="2" t="n">
-        <v>45296</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="199">
@@ -19087,7 +19151,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -19160,7 +19224,7 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>23805</v>
+        <v>23933</v>
       </c>
       <c r="T215" t="inlineStr">
         <is>
@@ -19168,7 +19232,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="216">
@@ -21181,7 +21245,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -21254,7 +21318,7 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>7951</v>
+        <v>7950</v>
       </c>
       <c r="T237" t="inlineStr">
         <is>
@@ -21262,7 +21326,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45310</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="238">
@@ -22050,7 +22114,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -22096,7 +22160,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O246" t="inlineStr"/>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P246" t="n">
         <v>0</v>
       </c>
@@ -22107,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>5709</v>
+        <v>5751</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -22115,7 +22183,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45307</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="247">
@@ -23150,7 +23218,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -23231,7 +23299,7 @@
         </is>
       </c>
       <c r="U258" s="2" t="n">
-        <v>45308</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="259">
@@ -24197,7 +24265,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -24270,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="S269" t="n">
-        <v>5757</v>
+        <v>5814</v>
       </c>
       <c r="T269" t="inlineStr">
         <is>
@@ -24278,7 +24346,7 @@
         </is>
       </c>
       <c r="U269" s="2" t="n">
-        <v>45302</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="270">
@@ -29091,7 +29159,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -29164,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="S323" t="n">
-        <v>24502</v>
+        <v>24673</v>
       </c>
       <c r="T323" t="inlineStr">
         <is>
@@ -29172,7 +29240,7 @@
         </is>
       </c>
       <c r="U323" s="2" t="n">
-        <v>45299</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="324">
@@ -30223,7 +30291,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -30304,7 +30372,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="336">
@@ -30320,7 +30388,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -30378,7 +30446,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O336" t="inlineStr"/>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P336" t="n">
         <v>0</v>
       </c>
@@ -30389,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="S336" t="n">
-        <v>36967</v>
+        <v>37416</v>
       </c>
       <c r="T336" t="inlineStr">
         <is>
@@ -30397,7 +30469,7 @@
         </is>
       </c>
       <c r="U336" s="2" t="n">
-        <v>45279</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="337">
@@ -32297,7 +32369,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -32370,7 +32442,7 @@
         <v>0</v>
       </c>
       <c r="S357" t="n">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="T357" t="inlineStr">
         <is>
@@ -32378,7 +32450,7 @@
         </is>
       </c>
       <c r="U357" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="358">
@@ -32831,7 +32903,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -32889,7 +32961,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O363" t="inlineStr"/>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P363" t="n">
         <v>0</v>
       </c>
@@ -32900,7 +32976,7 @@
         <v>0</v>
       </c>
       <c r="S363" t="n">
-        <v>18984</v>
+        <v>19229</v>
       </c>
       <c r="T363" t="inlineStr">
         <is>
@@ -32908,7 +32984,7 @@
         </is>
       </c>
       <c r="U363" s="2" t="n">
-        <v>45279</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="364">
@@ -33021,7 +33097,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -33079,7 +33155,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O365" t="inlineStr"/>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P365" t="n">
         <v>0</v>
       </c>
@@ -33090,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>16345</v>
+        <v>16657</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -33098,7 +33178,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45275</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="366">
@@ -34190,7 +34270,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -34244,7 +34324,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O378" t="inlineStr"/>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P378" t="n">
         <v>0</v>
       </c>
@@ -34255,7 +34339,7 @@
         <v>0</v>
       </c>
       <c r="S378" t="n">
-        <v>6192</v>
+        <v>6278</v>
       </c>
       <c r="T378" t="inlineStr">
         <is>
@@ -34263,7 +34347,7 @@
         </is>
       </c>
       <c r="U378" s="2" t="n">
-        <v>45289</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="379">
@@ -34566,7 +34650,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -34639,7 +34723,7 @@
         <v>0</v>
       </c>
       <c r="S382" t="n">
-        <v>11392</v>
+        <v>11447</v>
       </c>
       <c r="T382" t="inlineStr">
         <is>
@@ -34647,7 +34731,7 @@
         </is>
       </c>
       <c r="U382" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="383">
@@ -35031,7 +35115,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -35112,7 +35196,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="388">
@@ -35419,7 +35503,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35467,7 +35551,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="M391" t="inlineStr"/>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="n">
@@ -35480,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>4100</v>
+        <v>4103</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -35488,7 +35576,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45240</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="392">
@@ -35504,7 +35592,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -35562,7 +35650,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O392" t="inlineStr"/>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P392" t="n">
         <v>0</v>
       </c>
@@ -35573,7 +35665,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>32113</v>
+        <v>32878</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -35581,7 +35673,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45278</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="393">
@@ -35597,7 +35689,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -35678,7 +35770,7 @@
         </is>
       </c>
       <c r="U393" s="2" t="n">
-        <v>45303</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="394">
@@ -37238,7 +37330,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -37296,7 +37388,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O410" t="inlineStr"/>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P410" t="n">
         <v>0</v>
       </c>
@@ -37307,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="S410" t="n">
-        <v>2271</v>
+        <v>2336</v>
       </c>
       <c r="T410" t="inlineStr">
         <is>
@@ -37315,7 +37411,7 @@
         </is>
       </c>
       <c r="U410" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="411">
@@ -38831,7 +38927,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -38889,7 +38985,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O427" t="inlineStr"/>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P427" t="n">
         <v>0</v>
       </c>
@@ -38900,7 +39000,7 @@
         <v>0</v>
       </c>
       <c r="S427" t="n">
-        <v>7392</v>
+        <v>7467</v>
       </c>
       <c r="T427" t="inlineStr">
         <is>
@@ -38908,7 +39008,7 @@
         </is>
       </c>
       <c r="U427" s="2" t="n">
-        <v>45288</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="428">
@@ -39692,7 +39792,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -39773,7 +39873,7 @@
         </is>
       </c>
       <c r="U436" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="437">
@@ -39789,7 +39889,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -39870,7 +39970,7 @@
         </is>
       </c>
       <c r="U437" s="2" t="n">
-        <v>45307</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="438">
@@ -39983,7 +40083,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -40056,7 +40156,7 @@
         <v>0</v>
       </c>
       <c r="S439" t="n">
-        <v>21715</v>
+        <v>21722</v>
       </c>
       <c r="T439" t="inlineStr">
         <is>
@@ -40064,7 +40164,7 @@
         </is>
       </c>
       <c r="U439" s="2" t="n">
-        <v>45310</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="440">
@@ -40274,7 +40374,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -40332,7 +40432,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O442" t="inlineStr"/>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P442" t="n">
         <v>0</v>
       </c>
@@ -40343,7 +40447,7 @@
         <v>0</v>
       </c>
       <c r="S442" t="n">
-        <v>15890</v>
+        <v>16137</v>
       </c>
       <c r="T442" t="inlineStr">
         <is>
@@ -40351,7 +40455,7 @@
         </is>
       </c>
       <c r="U442" s="2" t="n">
-        <v>45272</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="443">
@@ -40367,7 +40471,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -40425,7 +40529,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O443" t="inlineStr"/>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P443" t="n">
         <v>0</v>
       </c>
@@ -40436,7 +40544,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>21217</v>
+        <v>21452</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -40444,7 +40552,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45274</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="444">
@@ -40747,7 +40855,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -40805,7 +40913,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O447" t="inlineStr"/>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P447" t="n">
         <v>0</v>
       </c>
@@ -40816,7 +40928,7 @@
         <v>0</v>
       </c>
       <c r="S447" t="n">
-        <v>18625</v>
+        <v>19108</v>
       </c>
       <c r="T447" t="inlineStr">
         <is>
@@ -40824,7 +40936,7 @@
         </is>
       </c>
       <c r="U447" s="2" t="n">
-        <v>45295</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="448">
@@ -40840,7 +40952,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -40898,7 +41010,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O448" t="inlineStr"/>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P448" t="n">
         <v>0</v>
       </c>
@@ -40909,7 +41025,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>23866</v>
+        <v>24022</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -40917,7 +41033,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45275</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="449">
@@ -42453,7 +42569,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/21</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -42534,7 +42650,7 @@
         </is>
       </c>
       <c r="U465" s="2" t="n">
-        <v>45309</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="466">
@@ -43242,7 +43358,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
@@ -43287,7 +43403,7 @@
         </is>
       </c>
       <c r="U474" s="2" t="n">
-        <v>45310</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="475">
@@ -44027,7 +44143,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -44100,7 +44216,7 @@
         <v>0</v>
       </c>
       <c r="S483" t="n">
-        <v>13482</v>
+        <v>13516</v>
       </c>
       <c r="T483" t="inlineStr">
         <is>
@@ -44108,7 +44224,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45309</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="484">
@@ -45090,7 +45206,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -45163,7 +45279,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -45171,7 +45287,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="495">
@@ -45567,7 +45683,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -45648,7 +45764,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="500">
@@ -46044,7 +46160,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -46125,7 +46241,7 @@
         </is>
       </c>
       <c r="U504" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="505">
@@ -46428,7 +46544,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -46509,7 +46625,7 @@
         </is>
       </c>
       <c r="U508" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="509">
@@ -46699,7 +46815,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -46780,7 +46896,7 @@
         </is>
       </c>
       <c r="U511" s="2" t="n">
-        <v>45306</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="512">
@@ -46893,7 +47009,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -46970,7 +47086,7 @@
         </is>
       </c>
       <c r="U513" s="2" t="n">
-        <v>45301</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="514">
@@ -46986,7 +47102,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -47044,7 +47160,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O514" t="inlineStr"/>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P514" t="n">
         <v>0</v>
       </c>
@@ -47055,7 +47175,7 @@
         <v>0</v>
       </c>
       <c r="S514" t="n">
-        <v>4289</v>
+        <v>4325</v>
       </c>
       <c r="T514" t="inlineStr">
         <is>
@@ -47063,7 +47183,7 @@
         </is>
       </c>
       <c r="U514" s="2" t="n">
-        <v>45275</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="515">
@@ -47176,7 +47296,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -47234,7 +47354,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O516" t="inlineStr"/>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P516" t="n">
         <v>0</v>
       </c>
@@ -47245,7 +47369,7 @@
         <v>0</v>
       </c>
       <c r="S516" t="n">
-        <v>14894</v>
+        <v>15032</v>
       </c>
       <c r="T516" t="inlineStr">
         <is>
@@ -47253,7 +47377,7 @@
         </is>
       </c>
       <c r="U516" s="2" t="n">
-        <v>45273</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="517">
@@ -47463,7 +47587,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -47521,7 +47645,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O519" t="inlineStr"/>
+      <c r="O519" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P519" t="n">
         <v>0</v>
       </c>
@@ -47532,7 +47660,7 @@
         <v>0</v>
       </c>
       <c r="S519" t="n">
-        <v>6404</v>
+        <v>6540</v>
       </c>
       <c r="T519" t="inlineStr">
         <is>
@@ -47540,7 +47668,7 @@
         </is>
       </c>
       <c r="U519" s="2" t="n">
-        <v>45273</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="520">
@@ -47928,7 +48056,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -48001,7 +48129,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>2925</v>
+        <v>2952</v>
       </c>
       <c r="T524" t="inlineStr">
         <is>
@@ -48009,7 +48137,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="525">
@@ -48587,7 +48715,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -48668,7 +48796,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45309</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="532">
@@ -49072,7 +49200,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -49145,7 +49273,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>12796</v>
+        <v>12952</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -49153,7 +49281,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45310</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="537">
@@ -50487,7 +50615,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -50545,7 +50673,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O551" t="inlineStr"/>
+      <c r="O551" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P551" t="n">
         <v>0</v>
       </c>
@@ -50556,7 +50688,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="n">
-        <v>34192</v>
+        <v>34601</v>
       </c>
       <c r="T551" t="inlineStr">
         <is>
@@ -50564,7 +50696,7 @@
         </is>
       </c>
       <c r="U551" s="2" t="n">
-        <v>45280</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="552">
@@ -50580,7 +50712,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -50638,7 +50770,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O552" t="inlineStr"/>
+      <c r="O552" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P552" t="n">
         <v>0</v>
       </c>
@@ -50649,7 +50785,7 @@
         <v>0</v>
       </c>
       <c r="S552" t="n">
-        <v>68337</v>
+        <v>69776</v>
       </c>
       <c r="T552" t="inlineStr">
         <is>
@@ -50657,7 +50793,7 @@
         </is>
       </c>
       <c r="U552" s="2" t="n">
-        <v>45280</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="553">
@@ -50952,7 +51088,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -51025,7 +51161,7 @@
         <v>0</v>
       </c>
       <c r="S556" t="n">
-        <v>11801</v>
+        <v>11914</v>
       </c>
       <c r="T556" t="inlineStr">
         <is>
@@ -51033,7 +51169,7 @@
         </is>
       </c>
       <c r="U556" s="2" t="n">
-        <v>45301</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="557">
@@ -52011,7 +52147,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D567" t="inlineStr"/>
@@ -52044,7 +52180,7 @@
         </is>
       </c>
       <c r="U567" s="2" t="n">
-        <v>45244</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="568">
@@ -53774,7 +53910,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -53832,7 +53968,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O586" t="inlineStr"/>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P586" t="n">
         <v>0</v>
       </c>
@@ -53843,7 +53983,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="n">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="T586" t="inlineStr">
         <is>
@@ -53851,7 +53991,7 @@
         </is>
       </c>
       <c r="U586" s="2" t="n">
-        <v>45286</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="587">
@@ -53964,7 +54104,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -54045,7 +54185,7 @@
         </is>
       </c>
       <c r="U588" s="2" t="n">
-        <v>45310</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="589">
@@ -54352,7 +54492,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -54425,7 +54565,7 @@
         <v>0</v>
       </c>
       <c r="S592" t="n">
-        <v>38532</v>
+        <v>38536</v>
       </c>
       <c r="T592" t="inlineStr">
         <is>
@@ -54433,7 +54573,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45307</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="593">
@@ -57093,7 +57233,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -57174,7 +57314,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45307</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="622">
@@ -59361,7 +59501,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -59434,7 +59574,7 @@
         <v>0</v>
       </c>
       <c r="S645" t="n">
-        <v>25860</v>
+        <v>26088</v>
       </c>
       <c r="T645" t="inlineStr">
         <is>
@@ -59442,7 +59582,7 @@
         </is>
       </c>
       <c r="U645" s="2" t="n">
-        <v>45301</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="646">
@@ -59931,7 +60071,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -60012,7 +60152,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45308</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="652">
@@ -60125,7 +60265,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -60154,7 +60294,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>x</t>
@@ -60190,7 +60334,7 @@
         <v>0</v>
       </c>
       <c r="S653" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T653" t="inlineStr">
         <is>
@@ -60198,7 +60342,7 @@
         </is>
       </c>
       <c r="U653" s="2" t="n">
-        <v>45309</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="654">
@@ -61500,7 +61644,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -61558,7 +61702,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O668" t="inlineStr"/>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P668" t="n">
         <v>0</v>
       </c>
@@ -61569,7 +61717,7 @@
         <v>0</v>
       </c>
       <c r="S668" t="n">
-        <v>2767</v>
+        <v>2906</v>
       </c>
       <c r="T668" t="inlineStr">
         <is>
@@ -61577,7 +61725,7 @@
         </is>
       </c>
       <c r="U668" s="2" t="n">
-        <v>45271</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="669">
@@ -65535,7 +65683,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -65608,7 +65756,7 @@
         <v>0</v>
       </c>
       <c r="S715" t="n">
-        <v>2353</v>
+        <v>2491</v>
       </c>
       <c r="T715" t="inlineStr">
         <is>
@@ -65616,7 +65764,7 @@
         </is>
       </c>
       <c r="U715" s="2" t="n">
-        <v>45272</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="716">
@@ -66789,7 +66937,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -66862,7 +67010,7 @@
         <v>0</v>
       </c>
       <c r="S729" t="n">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="T729" t="inlineStr">
         <is>
@@ -66870,7 +67018,7 @@
         </is>
       </c>
       <c r="U729" s="2" t="n">
-        <v>45244</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="730">
@@ -67032,7 +67180,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D732" t="inlineStr"/>
@@ -67081,7 +67229,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N732" t="inlineStr"/>
+      <c r="N732" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O732" t="inlineStr"/>
       <c r="P732" t="n">
         <v>0</v>
@@ -67093,7 +67245,7 @@
         <v>0</v>
       </c>
       <c r="S732" t="n">
-        <v>5979</v>
+        <v>6117</v>
       </c>
       <c r="T732" t="inlineStr">
         <is>
@@ -67101,7 +67253,7 @@
         </is>
       </c>
       <c r="U732" s="2" t="n">
-        <v>45296</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="733">
@@ -68020,7 +68172,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -68074,7 +68226,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O744" t="inlineStr"/>
+      <c r="O744" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P744" t="n">
         <v>0</v>
       </c>
@@ -68085,7 +68241,7 @@
         <v>0</v>
       </c>
       <c r="S744" t="n">
-        <v>2931</v>
+        <v>3245</v>
       </c>
       <c r="T744" t="inlineStr">
         <is>
@@ -68093,7 +68249,7 @@
         </is>
       </c>
       <c r="U744" s="2" t="n">
-        <v>45280</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="745">
@@ -68514,7 +68670,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -68587,7 +68743,7 @@
         <v>0</v>
       </c>
       <c r="S750" t="n">
-        <v>763</v>
+        <v>846</v>
       </c>
       <c r="T750" t="inlineStr">
         <is>
@@ -68595,7 +68751,7 @@
         </is>
       </c>
       <c r="U750" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="751">
@@ -68611,7 +68767,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -68669,7 +68825,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O751" t="inlineStr"/>
+      <c r="O751" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P751" t="n">
         <v>0</v>
       </c>
@@ -68680,7 +68840,7 @@
         <v>0</v>
       </c>
       <c r="S751" t="n">
-        <v>897</v>
+        <v>989</v>
       </c>
       <c r="T751" t="inlineStr">
         <is>
@@ -68688,7 +68848,7 @@
         </is>
       </c>
       <c r="U751" s="2" t="n">
-        <v>45301</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="752">
@@ -69567,7 +69727,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -69621,7 +69781,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O763" t="inlineStr"/>
+      <c r="O763" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P763" t="n">
         <v>0</v>
       </c>
@@ -69632,7 +69796,7 @@
         <v>0</v>
       </c>
       <c r="S763" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="T763" t="inlineStr">
         <is>
@@ -69640,7 +69804,7 @@
         </is>
       </c>
       <c r="U763" s="2" t="n">
-        <v>45273</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="764">
@@ -69911,7 +70075,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -69949,7 +70113,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O767" t="inlineStr"/>
+      <c r="O767" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P767" t="n">
         <v>0</v>
       </c>
@@ -69960,7 +70128,7 @@
         <v>0</v>
       </c>
       <c r="S767" t="n">
-        <v>1938</v>
+        <v>2209</v>
       </c>
       <c r="T767" t="inlineStr">
         <is>
@@ -69968,7 +70136,7 @@
         </is>
       </c>
       <c r="U767" s="2" t="n">
-        <v>45274</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="768">
@@ -70081,7 +70249,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -70134,8 +70302,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N769" t="inlineStr"/>
-      <c r="O769" t="inlineStr"/>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P769" t="n">
         <v>0</v>
       </c>
@@ -70146,7 +70322,7 @@
         <v>0</v>
       </c>
       <c r="S769" t="n">
-        <v>596</v>
+        <v>763</v>
       </c>
       <c r="T769" t="inlineStr">
         <is>
@@ -70154,7 +70330,7 @@
         </is>
       </c>
       <c r="U769" s="2" t="n">
-        <v>45273</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="770">
@@ -70433,7 +70609,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D773" t="inlineStr"/>
@@ -70487,7 +70663,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O773" t="inlineStr"/>
+      <c r="O773" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P773" t="n">
         <v>0</v>
       </c>
@@ -70498,7 +70678,7 @@
         <v>0</v>
       </c>
       <c r="S773" t="n">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="T773" t="inlineStr">
         <is>
@@ -70506,7 +70686,7 @@
         </is>
       </c>
       <c r="U773" s="2" t="n">
-        <v>45306</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="774">
@@ -70522,7 +70702,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="D774" t="inlineStr"/>
@@ -70591,7 +70771,7 @@
         <v>0</v>
       </c>
       <c r="S774" t="n">
-        <v>2919</v>
+        <v>3170</v>
       </c>
       <c r="T774" t="inlineStr">
         <is>
@@ -70599,7 +70779,7 @@
         </is>
       </c>
       <c r="U774" s="2" t="n">
-        <v>45306</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="775">
@@ -71113,7 +71293,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D781" t="inlineStr"/>
@@ -71182,7 +71362,7 @@
         </is>
       </c>
       <c r="U781" s="2" t="n">
-        <v>45309</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="782">
@@ -71368,7 +71548,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="D784" t="inlineStr"/>
@@ -71418,7 +71598,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O784" t="inlineStr"/>
+      <c r="O784" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P784" t="n">
         <v>0</v>
       </c>
@@ -71429,7 +71613,7 @@
         <v>0</v>
       </c>
       <c r="S784" t="n">
-        <v>6591</v>
+        <v>6979</v>
       </c>
       <c r="T784" t="inlineStr">
         <is>
@@ -71437,7 +71621,7 @@
         </is>
       </c>
       <c r="U784" s="2" t="n">
-        <v>45278</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="785">
@@ -71846,7 +72030,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -71904,7 +72088,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O790" t="inlineStr"/>
+      <c r="O790" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P790" t="n">
         <v>0</v>
       </c>
@@ -71915,7 +72103,7 @@
         <v>0</v>
       </c>
       <c r="S790" t="n">
-        <v>976</v>
+        <v>1077</v>
       </c>
       <c r="T790" t="inlineStr">
         <is>
@@ -71923,7 +72111,7 @@
         </is>
       </c>
       <c r="U790" s="2" t="n">
-        <v>45281</v>
+        <v>45314</v>
       </c>
     </row>
     <row r="791">
@@ -75269,7 +75457,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D841" t="inlineStr"/>
@@ -75302,7 +75490,7 @@
         <v>0</v>
       </c>
       <c r="S841" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="T841" t="inlineStr">
         <is>
@@ -75310,7 +75498,7 @@
         </is>
       </c>
       <c r="U841" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="842">
@@ -76694,7 +76882,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
@@ -76727,7 +76915,7 @@
         <v>0</v>
       </c>
       <c r="S866" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T866" t="inlineStr">
         <is>
@@ -76735,7 +76923,7 @@
         </is>
       </c>
       <c r="U866" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="867">
@@ -76808,7 +76996,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
@@ -76841,7 +77029,7 @@
         <v>0</v>
       </c>
       <c r="S868" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="T868" t="inlineStr">
         <is>
@@ -76849,7 +77037,7 @@
         </is>
       </c>
       <c r="U868" s="2" t="n">
-        <v>45308</v>
+        <v>45317</v>
       </c>
     </row>
     <row r="869">
@@ -76865,7 +77053,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="D869" t="inlineStr"/>
@@ -76902,7 +77090,7 @@
         </is>
       </c>
       <c r="U869" s="2" t="n">
-        <v>45275</v>
+        <v>45315</v>
       </c>
     </row>
     <row r="870">
@@ -77524,6 +77712,63 @@
         <v>45308</v>
       </c>
     </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Servicio Local de Educación Pública Licancabur</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>2024/01/22</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr"/>
+      <c r="E881" t="inlineStr"/>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
+      <c r="M881" t="inlineStr"/>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O881" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
+      <c r="S881" t="n">
+        <v>2</v>
+      </c>
+      <c r="T881" t="inlineStr">
+        <is>
+          <t>AJ035</t>
+        </is>
+      </c>
+      <c r="U881" s="2" t="n">
+        <v>45313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U881"/>
+  <dimension ref="A1:U882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="3">
@@ -931,7 +931,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="U11" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="12">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="U13" s="2" t="n">
-        <v>45300</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="14">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/01/28</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3445,7 +3445,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -3464,7 +3468,7 @@
         </is>
       </c>
       <c r="U43" s="2" t="n">
-        <v>45281</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="44">
@@ -3719,7 +3723,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3800,7 +3804,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="48">
@@ -3905,7 +3909,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3986,7 +3990,7 @@
         </is>
       </c>
       <c r="U49" s="2" t="n">
-        <v>45302</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="50">
@@ -4002,7 +4006,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4083,7 +4087,7 @@
         </is>
       </c>
       <c r="U50" s="2" t="n">
-        <v>45307</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="51">
@@ -4475,7 +4479,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4556,7 +4560,7 @@
         </is>
       </c>
       <c r="U55" s="2" t="n">
-        <v>45303</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="56">
@@ -5511,7 +5515,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5569,7 +5573,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
@@ -5580,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>9298</v>
+        <v>9400</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
@@ -5588,7 +5596,7 @@
         </is>
       </c>
       <c r="U67" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="68">
@@ -6737,7 +6745,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -6810,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>9377</v>
+        <v>9416</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -6818,7 +6826,7 @@
         </is>
       </c>
       <c r="U81" s="2" t="n">
-        <v>45316</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="82">
@@ -6834,7 +6842,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -6915,7 +6923,7 @@
         </is>
       </c>
       <c r="U82" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="83">
@@ -7121,7 +7129,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -7194,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>5546</v>
+        <v>5556</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
@@ -7202,7 +7210,7 @@
         </is>
       </c>
       <c r="U85" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="86">
@@ -7218,7 +7226,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7291,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>17571</v>
+        <v>17715</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7299,7 +7307,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="87">
@@ -7412,7 +7420,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -7493,7 +7501,7 @@
         </is>
       </c>
       <c r="U88" s="2" t="n">
-        <v>45317</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="89">
@@ -7606,7 +7614,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/28</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -7664,7 +7672,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>2562</v>
+        <v>2573</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
@@ -7683,7 +7695,7 @@
         </is>
       </c>
       <c r="U90" s="2" t="n">
-        <v>45296</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="91">
@@ -7796,7 +7808,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -7865,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>8869</v>
+        <v>8915</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
@@ -7873,7 +7885,7 @@
         </is>
       </c>
       <c r="U92" s="2" t="n">
-        <v>45300</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="93">
@@ -8172,7 +8184,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -8245,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>13257</v>
+        <v>13424</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -8253,7 +8265,7 @@
         </is>
       </c>
       <c r="U96" s="2" t="n">
-        <v>45316</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="97">
@@ -8803,7 +8815,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -8876,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>35452</v>
+        <v>35733</v>
       </c>
       <c r="T103" t="inlineStr">
         <is>
@@ -8884,7 +8896,7 @@
         </is>
       </c>
       <c r="U103" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="104">
@@ -9284,7 +9296,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9365,7 +9377,7 @@
         </is>
       </c>
       <c r="U108" s="2" t="n">
-        <v>45316</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="109">
@@ -9381,7 +9393,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9462,7 +9474,7 @@
         </is>
       </c>
       <c r="U109" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="110">
@@ -9478,7 +9490,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9536,7 +9548,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr"/>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P110" t="n">
         <v>0</v>
       </c>
@@ -9547,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>6465</v>
+        <v>6518</v>
       </c>
       <c r="T110" t="inlineStr">
         <is>
@@ -9555,7 +9571,7 @@
         </is>
       </c>
       <c r="U110" s="2" t="n">
-        <v>45286</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="111">
@@ -9996,7 +10012,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -10050,7 +10066,11 @@
         </is>
       </c>
       <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P116" t="n">
         <v>0</v>
       </c>
@@ -10061,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>4600</v>
+        <v>4658</v>
       </c>
       <c r="T116" t="inlineStr">
         <is>
@@ -10069,7 +10089,7 @@
         </is>
       </c>
       <c r="U116" s="2" t="n">
-        <v>45279</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="117">
@@ -12899,7 +12919,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -12968,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="T147" t="inlineStr">
         <is>
@@ -12976,7 +12996,7 @@
         </is>
       </c>
       <c r="U147" s="2" t="n">
-        <v>45294</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="148">
@@ -12992,7 +13012,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13073,7 +13093,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45316</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="149">
@@ -13283,7 +13303,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13356,7 +13376,7 @@
         </is>
       </c>
       <c r="U151" s="2" t="n">
-        <v>45293</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="152">
@@ -13712,7 +13732,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13770,7 +13790,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr"/>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P156" t="n">
         <v>0</v>
       </c>
@@ -13781,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>19826</v>
+        <v>20287</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -13789,7 +13813,7 @@
         </is>
       </c>
       <c r="U156" s="2" t="n">
-        <v>45245</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="157">
@@ -14242,7 +14266,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2024/01/27</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -14323,7 +14347,7 @@
         </is>
       </c>
       <c r="U162" s="2" t="n">
-        <v>45318</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="163">
@@ -14727,7 +14751,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -14800,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>26562</v>
+        <v>26620</v>
       </c>
       <c r="T167" t="inlineStr">
         <is>
@@ -14808,7 +14832,7 @@
         </is>
       </c>
       <c r="U167" s="2" t="n">
-        <v>45308</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="168">
@@ -15678,7 +15702,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -15751,7 +15775,7 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="T178" t="inlineStr">
         <is>
@@ -15759,7 +15783,7 @@
         </is>
       </c>
       <c r="U178" s="2" t="n">
-        <v>45296</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="179">
@@ -16636,7 +16660,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -16709,7 +16733,7 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>9047</v>
+        <v>9056</v>
       </c>
       <c r="T188" t="inlineStr">
         <is>
@@ -16717,7 +16741,7 @@
         </is>
       </c>
       <c r="U188" s="2" t="n">
-        <v>45309</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="189">
@@ -18011,7 +18035,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -18065,7 +18089,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr"/>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P203" t="n">
         <v>0</v>
       </c>
@@ -18076,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -18084,7 +18112,7 @@
         </is>
       </c>
       <c r="U203" s="2" t="n">
-        <v>45278</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="204">
@@ -18674,7 +18702,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -18732,7 +18760,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr"/>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P210" t="n">
         <v>0</v>
       </c>
@@ -18743,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="T210" t="inlineStr">
         <is>
@@ -18751,7 +18783,7 @@
         </is>
       </c>
       <c r="U210" s="2" t="n">
-        <v>45307</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="211">
@@ -19539,7 +19571,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -19612,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>52289</v>
+        <v>52297</v>
       </c>
       <c r="T219" t="inlineStr">
         <is>
@@ -19620,7 +19652,7 @@
         </is>
       </c>
       <c r="U219" s="2" t="n">
-        <v>45303</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="220">
@@ -20097,7 +20129,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -20170,7 +20202,7 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>14506</v>
+        <v>14609</v>
       </c>
       <c r="T225" t="inlineStr">
         <is>
@@ -20178,7 +20210,7 @@
         </is>
       </c>
       <c r="U225" s="2" t="n">
-        <v>45308</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="226">
@@ -20671,7 +20703,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -20744,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>8049</v>
+        <v>8094</v>
       </c>
       <c r="T231" t="inlineStr">
         <is>
@@ -20752,7 +20784,7 @@
         </is>
       </c>
       <c r="U231" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="232">
@@ -21055,7 +21087,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -21128,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>7949</v>
+        <v>7956</v>
       </c>
       <c r="T235" t="inlineStr">
         <is>
@@ -21136,7 +21168,7 @@
         </is>
       </c>
       <c r="U235" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="236">
@@ -21245,7 +21277,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -21326,7 +21358,7 @@
         </is>
       </c>
       <c r="U237" s="2" t="n">
-        <v>45315</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="238">
@@ -21342,7 +21374,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -21400,7 +21432,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O238" t="inlineStr"/>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P238" t="n">
         <v>0</v>
       </c>
@@ -21411,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -21419,7 +21455,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45275</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="239">
@@ -21435,7 +21471,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -21508,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>2175</v>
+        <v>2200</v>
       </c>
       <c r="T239" t="inlineStr">
         <is>
@@ -21516,7 +21552,7 @@
         </is>
       </c>
       <c r="U239" s="2" t="n">
-        <v>45299</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="240">
@@ -22114,7 +22150,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -22183,7 +22219,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45317</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="247">
@@ -23412,7 +23448,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -23485,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="S260" t="n">
-        <v>12557</v>
+        <v>12638</v>
       </c>
       <c r="T260" t="inlineStr">
         <is>
@@ -23493,7 +23529,7 @@
         </is>
       </c>
       <c r="U260" s="2" t="n">
-        <v>45306</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="261">
@@ -23509,7 +23545,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -23590,7 +23626,7 @@
         </is>
       </c>
       <c r="U261" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="262">
@@ -23703,7 +23739,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -23784,7 +23820,7 @@
         </is>
       </c>
       <c r="U263" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="264">
@@ -25648,7 +25684,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
@@ -25685,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="S284" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T284" t="inlineStr">
         <is>
@@ -25693,7 +25729,7 @@
         </is>
       </c>
       <c r="U284" s="2" t="n">
-        <v>45301</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="285">
@@ -26162,7 +26198,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -26235,7 +26271,7 @@
         <v>0</v>
       </c>
       <c r="S290" t="n">
-        <v>16590</v>
+        <v>16806</v>
       </c>
       <c r="T290" t="inlineStr">
         <is>
@@ -26243,7 +26279,7 @@
         </is>
       </c>
       <c r="U290" s="2" t="n">
-        <v>45307</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="291">
@@ -26259,7 +26295,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -26302,10 +26338,26 @@
           <t>x</t>
         </is>
       </c>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="inlineStr"/>
-      <c r="N291" t="inlineStr"/>
-      <c r="O291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P291" t="n">
         <v>0</v>
       </c>
@@ -26316,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="S291" t="n">
-        <v>6946</v>
+        <v>7494</v>
       </c>
       <c r="T291" t="inlineStr">
         <is>
@@ -26324,7 +26376,7 @@
         </is>
       </c>
       <c r="U291" s="2" t="n">
-        <v>45190</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="292">
@@ -26437,7 +26489,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -26510,7 +26562,7 @@
         <v>0</v>
       </c>
       <c r="S293" t="n">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="T293" t="inlineStr">
         <is>
@@ -26518,7 +26570,7 @@
         </is>
       </c>
       <c r="U293" s="2" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="294">
@@ -27674,12 +27726,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Rurales de la Región Metropolitana de Santiago (AMUR)</t>
+          <t>Asociación de Municipalidades Rurales (AMUR)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -27737,7 +27789,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O307" t="inlineStr"/>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P307" t="n">
         <v>0</v>
       </c>
@@ -27748,7 +27804,7 @@
         <v>0</v>
       </c>
       <c r="S307" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="T307" t="inlineStr">
         <is>
@@ -27756,7 +27812,7 @@
         </is>
       </c>
       <c r="U307" s="2" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="308">
@@ -28678,7 +28734,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -28759,7 +28815,7 @@
         </is>
       </c>
       <c r="U318" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="319">
@@ -29527,7 +29583,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -29576,8 +29632,16 @@
         </is>
       </c>
       <c r="M327" t="inlineStr"/>
-      <c r="N327" t="inlineStr"/>
-      <c r="O327" t="inlineStr"/>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P327" t="n">
         <v>0</v>
       </c>
@@ -29588,7 +29652,7 @@
         <v>0</v>
       </c>
       <c r="S327" t="n">
-        <v>6480</v>
+        <v>6634</v>
       </c>
       <c r="T327" t="inlineStr">
         <is>
@@ -29596,7 +29660,7 @@
         </is>
       </c>
       <c r="U327" s="2" t="n">
-        <v>45245</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="328">
@@ -30671,7 +30735,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -30744,7 +30808,7 @@
         <v>0</v>
       </c>
       <c r="S339" t="n">
-        <v>73475</v>
+        <v>73476</v>
       </c>
       <c r="T339" t="inlineStr">
         <is>
@@ -30752,7 +30816,7 @@
         </is>
       </c>
       <c r="U339" s="2" t="n">
-        <v>45303</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="340">
@@ -30768,7 +30832,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -30841,7 +30905,7 @@
         <v>0</v>
       </c>
       <c r="S340" t="n">
-        <v>9255</v>
+        <v>9292</v>
       </c>
       <c r="T340" t="inlineStr">
         <is>
@@ -30849,7 +30913,7 @@
         </is>
       </c>
       <c r="U340" s="2" t="n">
-        <v>45306</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="341">
@@ -31253,7 +31317,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
@@ -31290,7 +31354,7 @@
         </is>
       </c>
       <c r="U345" s="2" t="n">
-        <v>45301</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="346">
@@ -33243,7 +33307,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -33301,7 +33365,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O367" t="inlineStr"/>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P367" t="n">
         <v>0</v>
       </c>
@@ -33312,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="S367" t="n">
-        <v>8294</v>
+        <v>8472</v>
       </c>
       <c r="T367" t="inlineStr">
         <is>
@@ -33320,7 +33388,7 @@
         </is>
       </c>
       <c r="U367" s="2" t="n">
-        <v>45275</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="368">
@@ -34173,7 +34241,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -34254,7 +34322,7 @@
         </is>
       </c>
       <c r="U377" s="2" t="n">
-        <v>45303</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="378">
@@ -34460,7 +34528,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2024/01/13</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -34541,7 +34609,7 @@
         </is>
       </c>
       <c r="U380" s="2" t="n">
-        <v>45304</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="381">
@@ -34828,7 +34896,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -34909,7 +34977,7 @@
         </is>
       </c>
       <c r="U384" s="2" t="n">
-        <v>45301</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="385">
@@ -35115,7 +35183,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -35196,7 +35264,7 @@
         </is>
       </c>
       <c r="U387" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="388">
@@ -35503,7 +35571,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/03</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35556,8 +35624,16 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N391" t="inlineStr"/>
-      <c r="O391" t="inlineStr"/>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P391" t="n">
         <v>0</v>
       </c>
@@ -35568,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>4103</v>
+        <v>4231</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -35576,7 +35652,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45316</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="392">
@@ -36752,7 +36828,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -36825,7 +36901,7 @@
         <v>0</v>
       </c>
       <c r="S404" t="n">
-        <v>4180</v>
+        <v>4205</v>
       </c>
       <c r="T404" t="inlineStr">
         <is>
@@ -36833,7 +36909,7 @@
         </is>
       </c>
       <c r="U404" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="405">
@@ -36946,7 +37022,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -37019,7 +37095,7 @@
         <v>0</v>
       </c>
       <c r="S406" t="n">
-        <v>9306</v>
+        <v>9482</v>
       </c>
       <c r="T406" t="inlineStr">
         <is>
@@ -37027,7 +37103,7 @@
         </is>
       </c>
       <c r="U406" s="2" t="n">
-        <v>45308</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="407">
@@ -38288,7 +38364,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -38361,7 +38437,7 @@
         <v>0</v>
       </c>
       <c r="S420" t="n">
-        <v>10165</v>
+        <v>10217</v>
       </c>
       <c r="T420" t="inlineStr">
         <is>
@@ -38369,7 +38445,7 @@
         </is>
       </c>
       <c r="U420" s="2" t="n">
-        <v>45307</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="421">
@@ -40277,7 +40353,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -40350,7 +40426,7 @@
         <v>0</v>
       </c>
       <c r="S441" t="n">
-        <v>14839</v>
+        <v>14937</v>
       </c>
       <c r="T441" t="inlineStr">
         <is>
@@ -40358,7 +40434,7 @@
         </is>
       </c>
       <c r="U441" s="2" t="n">
-        <v>45286</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="442">
@@ -40762,7 +40838,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -40820,7 +40896,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O446" t="inlineStr"/>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P446" t="n">
         <v>0</v>
       </c>
@@ -40831,7 +40911,7 @@
         <v>0</v>
       </c>
       <c r="S446" t="n">
-        <v>39618</v>
+        <v>41193</v>
       </c>
       <c r="T446" t="inlineStr">
         <is>
@@ -40839,7 +40919,7 @@
         </is>
       </c>
       <c r="U446" s="2" t="n">
-        <v>45281</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="447">
@@ -40952,7 +41032,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -41025,7 +41105,7 @@
         <v>0</v>
       </c>
       <c r="S448" t="n">
-        <v>24022</v>
+        <v>24159</v>
       </c>
       <c r="T448" t="inlineStr">
         <is>
@@ -41033,7 +41113,7 @@
         </is>
       </c>
       <c r="U448" s="2" t="n">
-        <v>45314</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="449">
@@ -41724,7 +41804,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -41797,7 +41877,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="n">
-        <v>18277</v>
+        <v>18715</v>
       </c>
       <c r="T456" t="inlineStr">
         <is>
@@ -41805,7 +41885,7 @@
         </is>
       </c>
       <c r="U456" s="2" t="n">
-        <v>45310</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="457">
@@ -43071,7 +43151,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -43152,7 +43232,7 @@
         </is>
       </c>
       <c r="U471" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="472">
@@ -43508,7 +43588,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -43589,7 +43669,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45310</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="477">
@@ -44143,7 +44223,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -44224,7 +44304,7 @@
         </is>
       </c>
       <c r="U483" s="2" t="n">
-        <v>45317</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="484">
@@ -45497,7 +45577,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -45555,7 +45635,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O497" t="inlineStr"/>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P497" t="n">
         <v>0</v>
       </c>
@@ -45566,7 +45650,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="n">
-        <v>34562</v>
+        <v>34894</v>
       </c>
       <c r="T497" t="inlineStr">
         <is>
@@ -45574,7 +45658,7 @@
         </is>
       </c>
       <c r="U497" s="2" t="n">
-        <v>45275</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="498">
@@ -45590,7 +45674,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -45648,7 +45732,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O498" t="inlineStr"/>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P498" t="n">
         <v>0</v>
       </c>
@@ -45659,7 +45747,7 @@
         <v>0</v>
       </c>
       <c r="S498" t="n">
-        <v>27926</v>
+        <v>28244</v>
       </c>
       <c r="T498" t="inlineStr">
         <is>
@@ -45667,7 +45755,7 @@
         </is>
       </c>
       <c r="U498" s="2" t="n">
-        <v>45278</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="499">
@@ -45683,7 +45771,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -45756,7 +45844,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="n">
-        <v>23193</v>
+        <v>23481</v>
       </c>
       <c r="T499" t="inlineStr">
         <is>
@@ -45764,7 +45852,7 @@
         </is>
       </c>
       <c r="U499" s="2" t="n">
-        <v>45314</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="500">
@@ -45873,7 +45961,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -45946,7 +46034,7 @@
         <v>0</v>
       </c>
       <c r="S501" t="n">
-        <v>2866</v>
+        <v>2885</v>
       </c>
       <c r="T501" t="inlineStr">
         <is>
@@ -45954,7 +46042,7 @@
         </is>
       </c>
       <c r="U501" s="2" t="n">
-        <v>45306</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="502">
@@ -46350,7 +46438,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -46431,7 +46519,7 @@
         </is>
       </c>
       <c r="U506" s="2" t="n">
-        <v>45310</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="507">
@@ -46544,7 +46632,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -46625,7 +46713,7 @@
         </is>
       </c>
       <c r="U508" s="2" t="n">
-        <v>45315</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="509">
@@ -46815,7 +46903,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -46896,7 +46984,7 @@
         </is>
       </c>
       <c r="U511" s="2" t="n">
-        <v>45314</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="512">
@@ -48715,7 +48803,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -48796,7 +48884,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="532">
@@ -49483,7 +49571,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -49556,7 +49644,7 @@
         <v>0</v>
       </c>
       <c r="S539" t="n">
-        <v>65684</v>
+        <v>65872</v>
       </c>
       <c r="T539" t="inlineStr">
         <is>
@@ -49564,7 +49652,7 @@
         </is>
       </c>
       <c r="U539" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="540">
@@ -50999,7 +51087,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -51053,7 +51141,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O555" t="inlineStr"/>
+      <c r="O555" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P555" t="n">
         <v>0</v>
       </c>
@@ -51064,7 +51156,7 @@
         <v>0</v>
       </c>
       <c r="S555" t="n">
-        <v>3072</v>
+        <v>3103</v>
       </c>
       <c r="T555" t="inlineStr">
         <is>
@@ -51072,7 +51164,7 @@
         </is>
       </c>
       <c r="U555" s="2" t="n">
-        <v>45289</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="556">
@@ -51185,7 +51277,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
@@ -51262,7 +51354,7 @@
         </is>
       </c>
       <c r="U557" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="558">
@@ -51565,7 +51657,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -51646,7 +51738,7 @@
         </is>
       </c>
       <c r="U561" s="2" t="n">
-        <v>45300</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="562">
@@ -52050,7 +52142,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -52123,7 +52215,7 @@
         <v>0</v>
       </c>
       <c r="S566" t="n">
-        <v>13929</v>
+        <v>13917</v>
       </c>
       <c r="T566" t="inlineStr">
         <is>
@@ -52131,7 +52223,7 @@
         </is>
       </c>
       <c r="U566" s="2" t="n">
-        <v>45307</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="567">
@@ -53134,7 +53226,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -53215,7 +53307,7 @@
         </is>
       </c>
       <c r="U578" s="2" t="n">
-        <v>45308</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="579">
@@ -53619,7 +53711,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>2024/01/14</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -53692,7 +53784,7 @@
         <v>0</v>
       </c>
       <c r="S583" t="n">
-        <v>3682</v>
+        <v>3732</v>
       </c>
       <c r="T583" t="inlineStr">
         <is>
@@ -53700,7 +53792,7 @@
         </is>
       </c>
       <c r="U583" s="2" t="n">
-        <v>45305</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="584">
@@ -54492,7 +54584,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -54573,7 +54665,7 @@
         </is>
       </c>
       <c r="U592" s="2" t="n">
-        <v>45314</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="593">
@@ -55163,7 +55255,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D599" t="inlineStr"/>
@@ -55196,7 +55288,7 @@
         </is>
       </c>
       <c r="U599" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="600">
@@ -56849,7 +56941,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -56930,7 +57022,7 @@
         </is>
       </c>
       <c r="U617" s="2" t="n">
-        <v>45301</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="618">
@@ -57043,7 +57135,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -57101,7 +57193,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O619" t="inlineStr"/>
+      <c r="O619" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P619" t="n">
         <v>0</v>
       </c>
@@ -57112,7 +57208,7 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
-        <v>8647</v>
+        <v>8648</v>
       </c>
       <c r="T619" t="inlineStr">
         <is>
@@ -57120,7 +57216,7 @@
         </is>
       </c>
       <c r="U619" s="2" t="n">
-        <v>45274</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="620">
@@ -58179,7 +58275,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -58237,7 +58333,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O631" t="inlineStr"/>
+      <c r="O631" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P631" t="n">
         <v>0</v>
       </c>
@@ -58248,7 +58348,7 @@
         <v>0</v>
       </c>
       <c r="S631" t="n">
-        <v>53088</v>
+        <v>54127</v>
       </c>
       <c r="T631" t="inlineStr">
         <is>
@@ -58256,7 +58356,7 @@
         </is>
       </c>
       <c r="U631" s="2" t="n">
-        <v>45280</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="632">
@@ -58660,7 +58760,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -58714,7 +58814,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O636" t="inlineStr"/>
+      <c r="O636" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P636" t="n">
         <v>0</v>
       </c>
@@ -58725,7 +58829,7 @@
         <v>0</v>
       </c>
       <c r="S636" t="n">
-        <v>23727</v>
+        <v>24116</v>
       </c>
       <c r="T636" t="inlineStr">
         <is>
@@ -58733,7 +58837,7 @@
         </is>
       </c>
       <c r="U636" s="2" t="n">
-        <v>45273</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="637">
@@ -59408,7 +59512,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -59485,7 +59589,7 @@
         </is>
       </c>
       <c r="U644" s="2" t="n">
-        <v>45306</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="645">
@@ -59501,7 +59605,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -59582,7 +59686,7 @@
         </is>
       </c>
       <c r="U645" s="2" t="n">
-        <v>45316</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="646">
@@ -59695,7 +59799,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -59764,7 +59868,7 @@
         </is>
       </c>
       <c r="U647" s="2" t="n">
-        <v>45306</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="648">
@@ -62024,7 +62128,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -62097,7 +62201,7 @@
         <v>0</v>
       </c>
       <c r="S672" t="n">
-        <v>1649</v>
+        <v>1715</v>
       </c>
       <c r="T672" t="inlineStr">
         <is>
@@ -62105,7 +62209,7 @@
         </is>
       </c>
       <c r="U672" s="2" t="n">
-        <v>45307</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="673">
@@ -62461,7 +62565,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -62542,7 +62646,7 @@
         </is>
       </c>
       <c r="U677" s="2" t="n">
-        <v>45310</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="678">
@@ -62797,7 +62901,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -62878,7 +62982,7 @@
         </is>
       </c>
       <c r="U681" s="2" t="n">
-        <v>45302</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="682">
@@ -62983,7 +63087,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -63056,7 +63160,7 @@
         </is>
       </c>
       <c r="U683" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="684">
@@ -65299,7 +65403,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -65372,7 +65476,7 @@
         <v>0</v>
       </c>
       <c r="S711" t="n">
-        <v>1366</v>
+        <v>1382</v>
       </c>
       <c r="T711" t="inlineStr">
         <is>
@@ -65380,7 +65484,7 @@
         </is>
       </c>
       <c r="U711" s="2" t="n">
-        <v>45296</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="712">
@@ -65877,7 +65981,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -65935,7 +66039,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O717" t="inlineStr"/>
+      <c r="O717" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P717" t="n">
         <v>0</v>
       </c>
@@ -65946,7 +66054,7 @@
         <v>0</v>
       </c>
       <c r="S717" t="n">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="T717" t="inlineStr">
         <is>
@@ -65954,7 +66062,7 @@
         </is>
       </c>
       <c r="U717" s="2" t="n">
-        <v>45275</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="718">
@@ -66605,7 +66713,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/03</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -66678,7 +66786,7 @@
         <v>0</v>
       </c>
       <c r="S725" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="T725" t="inlineStr">
         <is>
@@ -66686,7 +66794,7 @@
         </is>
       </c>
       <c r="U725" s="2" t="n">
-        <v>45306</v>
+        <v>45325</v>
       </c>
     </row>
     <row r="726">
@@ -67269,7 +67377,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -67346,7 +67454,7 @@
         </is>
       </c>
       <c r="U733" s="2" t="n">
-        <v>45293</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="734">
@@ -68265,7 +68373,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -68338,7 +68446,7 @@
         <v>0</v>
       </c>
       <c r="S745" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T745" t="inlineStr">
         <is>
@@ -68346,7 +68454,7 @@
         </is>
       </c>
       <c r="U745" s="2" t="n">
-        <v>45299</v>
+        <v>45327</v>
       </c>
     </row>
     <row r="746">
@@ -71884,7 +71992,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D788" t="inlineStr"/>
@@ -71926,7 +72034,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O788" t="inlineStr"/>
+      <c r="O788" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P788" t="n">
         <v>0</v>
       </c>
@@ -71937,7 +72049,7 @@
         <v>0</v>
       </c>
       <c r="S788" t="n">
-        <v>7159</v>
+        <v>9090</v>
       </c>
       <c r="T788" t="inlineStr">
         <is>
@@ -71945,7 +72057,7 @@
         </is>
       </c>
       <c r="U788" s="2" t="n">
-        <v>45274</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="789">
@@ -72386,7 +72498,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -72439,7 +72551,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N794" t="inlineStr"/>
+      <c r="N794" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O794" t="inlineStr"/>
       <c r="P794" t="n">
         <v>0</v>
@@ -72451,7 +72567,7 @@
         <v>0</v>
       </c>
       <c r="S794" t="n">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="T794" t="inlineStr">
         <is>
@@ -72459,7 +72575,7 @@
         </is>
       </c>
       <c r="U794" s="2" t="n">
-        <v>45288</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="795">
@@ -72783,7 +72899,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -72864,7 +72980,7 @@
         </is>
       </c>
       <c r="U799" s="2" t="n">
-        <v>45307</v>
+        <v>45322</v>
       </c>
     </row>
     <row r="800">
@@ -73172,7 +73288,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -73241,7 +73357,7 @@
         </is>
       </c>
       <c r="U804" s="2" t="n">
-        <v>45293</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="805">
@@ -73330,7 +73446,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -73411,7 +73527,7 @@
         </is>
       </c>
       <c r="U806" s="2" t="n">
-        <v>45309</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="807">
@@ -74203,7 +74319,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
@@ -74244,7 +74360,7 @@
         </is>
       </c>
       <c r="U819" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="820">
@@ -74887,7 +75003,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
@@ -74928,7 +75044,7 @@
         </is>
       </c>
       <c r="U831" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="832">
@@ -75058,7 +75174,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D834" t="inlineStr"/>
@@ -75091,7 +75207,7 @@
         <v>0</v>
       </c>
       <c r="S834" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T834" t="inlineStr">
         <is>
@@ -75099,7 +75215,7 @@
         </is>
       </c>
       <c r="U834" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="835">
@@ -75172,7 +75288,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/04</t>
         </is>
       </c>
       <c r="D836" t="inlineStr"/>
@@ -75213,7 +75329,7 @@
         </is>
       </c>
       <c r="U836" s="2" t="n">
-        <v>45308</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="837">
@@ -75286,7 +75402,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D838" t="inlineStr"/>
@@ -75319,7 +75435,7 @@
         <v>0</v>
       </c>
       <c r="S838" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="T838" t="inlineStr">
         <is>
@@ -75327,7 +75443,7 @@
         </is>
       </c>
       <c r="U838" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="839">
@@ -75856,7 +75972,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D848" t="inlineStr"/>
@@ -75889,7 +76005,7 @@
         <v>0</v>
       </c>
       <c r="S848" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T848" t="inlineStr">
         <is>
@@ -75897,7 +76013,7 @@
         </is>
       </c>
       <c r="U848" s="2" t="n">
-        <v>45309</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="849">
@@ -75913,7 +76029,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D849" t="inlineStr"/>
@@ -75946,7 +76062,7 @@
         <v>0</v>
       </c>
       <c r="S849" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="T849" t="inlineStr">
         <is>
@@ -75954,7 +76070,7 @@
         </is>
       </c>
       <c r="U849" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="850">
@@ -76255,7 +76371,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D855" t="inlineStr"/>
@@ -76296,7 +76412,7 @@
         </is>
       </c>
       <c r="U855" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="856">
@@ -76426,7 +76542,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="D858" t="inlineStr"/>
@@ -76459,7 +76575,7 @@
         <v>0</v>
       </c>
       <c r="S858" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="T858" t="inlineStr">
         <is>
@@ -76467,7 +76583,7 @@
         </is>
       </c>
       <c r="U858" s="2" t="n">
-        <v>45308</v>
+        <v>45324</v>
       </c>
     </row>
     <row r="859">
@@ -76711,7 +76827,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="D863" t="inlineStr"/>
@@ -76744,7 +76860,7 @@
         <v>0</v>
       </c>
       <c r="S863" t="n">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="T863" t="inlineStr">
         <is>
@@ -76752,7 +76868,7 @@
         </is>
       </c>
       <c r="U863" s="2" t="n">
-        <v>45308</v>
+        <v>45323</v>
       </c>
     </row>
     <row r="864">
@@ -76996,7 +77112,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D868" t="inlineStr"/>
@@ -77037,7 +77153,7 @@
         </is>
       </c>
       <c r="U868" s="2" t="n">
-        <v>45317</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="869">
@@ -77224,7 +77340,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="D872" t="inlineStr"/>
@@ -77265,7 +77381,7 @@
         </is>
       </c>
       <c r="U872" s="2" t="n">
-        <v>45308</v>
+        <v>45320</v>
       </c>
     </row>
     <row r="873">
@@ -77391,7 +77507,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="D875" t="inlineStr"/>
@@ -77404,11 +77520,7 @@
       <c r="K875" t="inlineStr"/>
       <c r="L875" t="inlineStr"/>
       <c r="M875" t="inlineStr"/>
-      <c r="N875" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="N875" t="inlineStr"/>
       <c r="O875" t="inlineStr">
         <is>
           <t>x</t>
@@ -77424,7 +77536,7 @@
         <v>0</v>
       </c>
       <c r="S875" t="n">
-        <v>506</v>
+        <v>426</v>
       </c>
       <c r="T875" t="inlineStr">
         <is>
@@ -77432,7 +77544,7 @@
         </is>
       </c>
       <c r="U875" s="2" t="n">
-        <v>45303</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="876">
@@ -77769,6 +77881,55 @@
         <v>45313</v>
       </c>
     </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>TA_PersonalContratohonorarios</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Fundación de Orquestas Juveniles e Infantiles de Chile (FOJI)</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>2024/02/01</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr"/>
+      <c r="E882" t="inlineStr"/>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="inlineStr"/>
+      <c r="M882" t="inlineStr"/>
+      <c r="N882" t="inlineStr"/>
+      <c r="O882" t="inlineStr"/>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
+      <c r="S882" t="n">
+        <v>22</v>
+      </c>
+      <c r="T882" t="inlineStr">
+        <is>
+          <t>FU004</t>
+        </is>
+      </c>
+      <c r="U882" s="2" t="n">
+        <v>45323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/consolidado6.xlsx
+++ b/consolidado6.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="U5" s="2" t="n">
-        <v>45293</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="U12" s="2" t="n">
-        <v>45308</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="13">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2011,7 +2011,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -2022,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>17365</v>
+        <v>17533</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2030,7 +2034,7 @@
         </is>
       </c>
       <c r="U25" s="2" t="n">
-        <v>45300</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="26">
@@ -3739,7 +3743,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3820,7 +3824,7 @@
         </is>
       </c>
       <c r="U47" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="48">
@@ -3836,7 +3840,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3905,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>16742</v>
+        <v>16751</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -3913,7 +3917,7 @@
         </is>
       </c>
       <c r="U48" s="2" t="n">
-        <v>45335</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="49">
@@ -4123,7 +4127,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -4188,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4196,7 +4200,7 @@
         </is>
       </c>
       <c r="U51" s="2" t="n">
-        <v>45239</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="52">
@@ -4406,7 +4410,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -4475,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>227524</v>
+        <v>227721</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -4483,7 +4487,7 @@
         </is>
       </c>
       <c r="U54" s="2" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="55">
@@ -4596,7 +4600,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -4629,7 +4633,7 @@
         </is>
       </c>
       <c r="U56" s="2" t="n">
-        <v>45300</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="57">
@@ -6142,7 +6146,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -6175,7 +6179,7 @@
         </is>
       </c>
       <c r="U74" s="2" t="n">
-        <v>45309</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="75">
@@ -6676,7 +6680,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -6749,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>4345</v>
+        <v>4450</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -6757,7 +6761,7 @@
         </is>
       </c>
       <c r="U80" s="2" t="n">
-        <v>45337</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="81">
@@ -7254,7 +7258,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -7327,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>17853</v>
+        <v>17873</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
@@ -7335,7 +7339,7 @@
         </is>
       </c>
       <c r="U86" s="2" t="n">
-        <v>45330</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="87">
@@ -8358,7 +8362,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -8431,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>1046</v>
+        <v>1073</v>
       </c>
       <c r="T98" t="inlineStr">
         <is>
@@ -8439,7 +8443,7 @@
         </is>
       </c>
       <c r="U98" s="2" t="n">
-        <v>45294</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="99">
@@ -9227,7 +9231,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -9300,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>9536</v>
+        <v>9566</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -9308,7 +9312,7 @@
         </is>
       </c>
       <c r="U107" s="2" t="n">
-        <v>45314</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="108">
@@ -11451,7 +11455,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2024/01/21</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -11524,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>4177</v>
+        <v>4184</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -11532,7 +11536,7 @@
         </is>
       </c>
       <c r="U131" s="2" t="n">
-        <v>45312</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="132">
@@ -11932,7 +11936,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -11982,7 +11986,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr"/>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P136" t="n">
         <v>0</v>
       </c>
@@ -11993,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>21820</v>
+        <v>21936</v>
       </c>
       <c r="T136" t="inlineStr">
         <is>
@@ -12001,7 +12009,7 @@
         </is>
       </c>
       <c r="U136" s="2" t="n">
-        <v>45293</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="137">
@@ -13064,7 +13072,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13137,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>32125</v>
+        <v>32263</v>
       </c>
       <c r="T148" t="inlineStr">
         <is>
@@ -13145,7 +13153,7 @@
         </is>
       </c>
       <c r="U148" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="149">
@@ -13541,7 +13549,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13614,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>54820</v>
+        <v>55974</v>
       </c>
       <c r="T153" t="inlineStr">
         <is>
@@ -13622,7 +13630,7 @@
         </is>
       </c>
       <c r="U153" s="2" t="n">
-        <v>45336</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="154">
@@ -14415,7 +14423,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -14488,7 +14496,7 @@
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>26081</v>
+        <v>26437</v>
       </c>
       <c r="T163" t="inlineStr">
         <is>
@@ -14496,7 +14504,7 @@
         </is>
       </c>
       <c r="U163" s="2" t="n">
-        <v>45300</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="164">
@@ -14803,7 +14811,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -14884,7 +14892,7 @@
         </is>
       </c>
       <c r="U167" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="168">
@@ -14900,7 +14908,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -14973,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>10526</v>
+        <v>10603</v>
       </c>
       <c r="T168" t="inlineStr">
         <is>
@@ -14981,7 +14989,7 @@
         </is>
       </c>
       <c r="U168" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="169">
@@ -16239,7 +16247,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -16308,7 +16316,7 @@
         </is>
       </c>
       <c r="U183" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="184">
@@ -16615,7 +16623,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -16688,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="T187" t="inlineStr">
         <is>
@@ -16696,7 +16704,7 @@
         </is>
       </c>
       <c r="U187" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="188">
@@ -17391,7 +17399,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -17472,7 +17480,7 @@
         </is>
       </c>
       <c r="U195" s="2" t="n">
-        <v>45335</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="196">
@@ -17488,7 +17496,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -17561,7 +17569,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>84246</v>
+        <v>85558</v>
       </c>
       <c r="T196" t="inlineStr">
         <is>
@@ -17569,7 +17577,7 @@
         </is>
       </c>
       <c r="U196" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="197">
@@ -18180,7 +18188,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -18253,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>6704</v>
+        <v>6736</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -18261,7 +18269,7 @@
         </is>
       </c>
       <c r="U204" s="2" t="n">
-        <v>45300</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="205">
@@ -19235,7 +19243,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -19316,7 +19324,7 @@
         </is>
       </c>
       <c r="U215" s="2" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="216">
@@ -19910,7 +19918,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -19983,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>14070</v>
+        <v>14434</v>
       </c>
       <c r="T222" t="inlineStr">
         <is>
@@ -19991,7 +19999,7 @@
         </is>
       </c>
       <c r="U222" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="223">
@@ -21430,7 +21438,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -21503,7 +21511,7 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="T238" t="inlineStr">
         <is>
@@ -21511,7 +21519,7 @@
         </is>
       </c>
       <c r="U238" s="2" t="n">
-        <v>45322</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="239">
@@ -21915,7 +21923,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -21988,7 +21996,7 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="T243" t="inlineStr">
         <is>
@@ -21996,7 +22004,7 @@
         </is>
       </c>
       <c r="U243" s="2" t="n">
-        <v>45307</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="244">
@@ -22206,7 +22214,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -22267,7 +22275,7 @@
         <v>0</v>
       </c>
       <c r="S246" t="n">
-        <v>5751</v>
+        <v>5791</v>
       </c>
       <c r="T246" t="inlineStr">
         <is>
@@ -22275,7 +22283,7 @@
         </is>
       </c>
       <c r="U246" s="2" t="n">
-        <v>45321</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="247">
@@ -23217,7 +23225,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -23290,7 +23298,7 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="T257" t="inlineStr">
         <is>
@@ -23298,7 +23306,7 @@
         </is>
       </c>
       <c r="U257" s="2" t="n">
-        <v>45307</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="258">
@@ -25004,7 +25012,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -25077,7 +25085,7 @@
         <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>8328</v>
+        <v>8409</v>
       </c>
       <c r="T276" t="inlineStr">
         <is>
@@ -25085,7 +25093,7 @@
         </is>
       </c>
       <c r="U276" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="277">
@@ -25647,7 +25655,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -25720,7 +25728,7 @@
         <v>0</v>
       </c>
       <c r="S283" t="n">
-        <v>8832</v>
+        <v>8975</v>
       </c>
       <c r="T283" t="inlineStr">
         <is>
@@ -25728,7 +25736,7 @@
         </is>
       </c>
       <c r="U283" s="2" t="n">
-        <v>45335</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="284">
@@ -26092,7 +26100,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -26165,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="S288" t="n">
-        <v>26588</v>
+        <v>26698</v>
       </c>
       <c r="T288" t="inlineStr">
         <is>
@@ -26173,7 +26181,7 @@
         </is>
       </c>
       <c r="U288" s="2" t="n">
-        <v>45328</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="289">
@@ -26743,7 +26751,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -26801,7 +26809,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O295" t="inlineStr"/>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P295" t="n">
         <v>0</v>
       </c>
@@ -26812,7 +26824,7 @@
         <v>0</v>
       </c>
       <c r="S295" t="n">
-        <v>1670</v>
+        <v>1691</v>
       </c>
       <c r="T295" t="inlineStr">
         <is>
@@ -26820,7 +26832,7 @@
         </is>
       </c>
       <c r="U295" s="2" t="n">
-        <v>45309</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="296">
@@ -27524,7 +27536,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -27597,7 +27609,7 @@
         <v>0</v>
       </c>
       <c r="S304" t="n">
-        <v>77091</v>
+        <v>77468</v>
       </c>
       <c r="T304" t="inlineStr">
         <is>
@@ -27605,7 +27617,7 @@
         </is>
       </c>
       <c r="U304" s="2" t="n">
-        <v>45328</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="305">
@@ -28264,7 +28276,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -28337,7 +28349,7 @@
         <v>0</v>
       </c>
       <c r="S312" t="n">
-        <v>9021</v>
+        <v>9120</v>
       </c>
       <c r="T312" t="inlineStr">
         <is>
@@ -28345,7 +28357,7 @@
         </is>
       </c>
       <c r="U312" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="313">
@@ -29113,7 +29125,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -29182,7 +29194,7 @@
         <v>0</v>
       </c>
       <c r="S321" t="n">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="T321" t="inlineStr">
         <is>
@@ -29190,7 +29202,7 @@
         </is>
       </c>
       <c r="U321" s="2" t="n">
-        <v>45336</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="322">
@@ -30443,7 +30455,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -30516,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="S335" t="n">
-        <v>6320</v>
+        <v>6343</v>
       </c>
       <c r="T335" t="inlineStr">
         <is>
@@ -30524,7 +30536,7 @@
         </is>
       </c>
       <c r="U335" s="2" t="n">
-        <v>45330</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="336">
@@ -30827,7 +30839,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -30908,7 +30920,7 @@
         </is>
       </c>
       <c r="U339" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="340">
@@ -31656,7 +31668,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -31729,7 +31741,7 @@
         <v>0</v>
       </c>
       <c r="S348" t="n">
-        <v>7617</v>
+        <v>7629</v>
       </c>
       <c r="T348" t="inlineStr">
         <is>
@@ -31737,7 +31749,7 @@
         </is>
       </c>
       <c r="U348" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="349">
@@ -32622,7 +32634,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -32675,7 +32687,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="O358" t="inlineStr">
         <is>
           <t>x</t>
@@ -32691,7 +32707,7 @@
         <v>0</v>
       </c>
       <c r="S358" t="n">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="T358" t="inlineStr">
         <is>
@@ -32699,7 +32715,7 @@
         </is>
       </c>
       <c r="U358" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="359">
@@ -32909,7 +32925,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -32982,7 +32998,7 @@
         <v>0</v>
       </c>
       <c r="S361" t="n">
-        <v>6071</v>
+        <v>6122</v>
       </c>
       <c r="T361" t="inlineStr">
         <is>
@@ -32990,7 +33006,7 @@
         </is>
       </c>
       <c r="U361" s="2" t="n">
-        <v>45306</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="362">
@@ -33156,7 +33172,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -33229,7 +33245,7 @@
         <v>0</v>
       </c>
       <c r="S364" t="n">
-        <v>1951</v>
+        <v>1965</v>
       </c>
       <c r="T364" t="inlineStr">
         <is>
@@ -33237,7 +33253,7 @@
         </is>
       </c>
       <c r="U364" s="2" t="n">
-        <v>45308</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="365">
@@ -33253,7 +33269,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/18</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -33326,7 +33342,7 @@
         <v>0</v>
       </c>
       <c r="S365" t="n">
-        <v>16657</v>
+        <v>16731</v>
       </c>
       <c r="T365" t="inlineStr">
         <is>
@@ -33334,7 +33350,7 @@
         </is>
       </c>
       <c r="U365" s="2" t="n">
-        <v>45313</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="366">
@@ -34523,7 +34539,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -34604,7 +34620,7 @@
         </is>
       </c>
       <c r="U379" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="380">
@@ -35675,7 +35691,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2024/02/03</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -35748,7 +35764,7 @@
         <v>0</v>
       </c>
       <c r="S391" t="n">
-        <v>4231</v>
+        <v>4322</v>
       </c>
       <c r="T391" t="inlineStr">
         <is>
@@ -35756,7 +35772,7 @@
         </is>
       </c>
       <c r="U391" s="2" t="n">
-        <v>45325</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="392">
@@ -35772,7 +35788,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -35845,7 +35861,7 @@
         <v>0</v>
       </c>
       <c r="S392" t="n">
-        <v>32878</v>
+        <v>33160</v>
       </c>
       <c r="T392" t="inlineStr">
         <is>
@@ -35853,7 +35869,7 @@
         </is>
       </c>
       <c r="U392" s="2" t="n">
-        <v>45314</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="393">
@@ -36160,7 +36176,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -36233,7 +36249,7 @@
         <v>0</v>
       </c>
       <c r="S396" t="n">
-        <v>14128</v>
+        <v>14409</v>
       </c>
       <c r="T396" t="inlineStr">
         <is>
@@ -36241,7 +36257,7 @@
         </is>
       </c>
       <c r="U396" s="2" t="n">
-        <v>45307</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="397">
@@ -36645,7 +36661,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -36718,7 +36734,7 @@
         <v>0</v>
       </c>
       <c r="S401" t="n">
-        <v>8825</v>
+        <v>8848</v>
       </c>
       <c r="T401" t="inlineStr">
         <is>
@@ -36726,7 +36742,7 @@
         </is>
       </c>
       <c r="U401" s="2" t="n">
-        <v>45307</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="402">
@@ -36742,7 +36758,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -36815,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="S402" t="n">
-        <v>29950</v>
+        <v>30124</v>
       </c>
       <c r="T402" t="inlineStr">
         <is>
@@ -36823,7 +36839,7 @@
         </is>
       </c>
       <c r="U402" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="403">
@@ -40368,7 +40384,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -40441,7 +40457,7 @@
         <v>0</v>
       </c>
       <c r="S440" t="n">
-        <v>19510</v>
+        <v>19792</v>
       </c>
       <c r="T440" t="inlineStr">
         <is>
@@ -40449,7 +40465,7 @@
         </is>
       </c>
       <c r="U440" s="2" t="n">
-        <v>45338</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="441">
@@ -40659,7 +40675,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -40732,7 +40748,7 @@
         <v>0</v>
       </c>
       <c r="S443" t="n">
-        <v>21452</v>
+        <v>21524</v>
       </c>
       <c r="T443" t="inlineStr">
         <is>
@@ -40740,7 +40756,7 @@
         </is>
       </c>
       <c r="U443" s="2" t="n">
-        <v>45317</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="444">
@@ -40853,7 +40869,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -40934,7 +40950,7 @@
         </is>
       </c>
       <c r="U445" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="446">
@@ -41726,7 +41742,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -41807,7 +41823,7 @@
         </is>
       </c>
       <c r="U454" s="2" t="n">
-        <v>45339</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="455">
@@ -42110,7 +42126,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -42183,7 +42199,7 @@
         <v>0</v>
       </c>
       <c r="S458" t="n">
-        <v>19105</v>
+        <v>19134</v>
       </c>
       <c r="T458" t="inlineStr">
         <is>
@@ -42191,7 +42207,7 @@
         </is>
       </c>
       <c r="U458" s="2" t="n">
-        <v>45334</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="459">
@@ -43461,7 +43477,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -43542,7 +43558,7 @@
         </is>
       </c>
       <c r="U473" s="2" t="n">
-        <v>45331</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="474">
@@ -43708,7 +43724,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -43789,7 +43805,7 @@
         </is>
       </c>
       <c r="U476" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="477">
@@ -45406,7 +45422,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -45479,7 +45495,7 @@
         <v>0</v>
       </c>
       <c r="S494" t="n">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="T494" t="inlineStr">
         <is>
@@ -45487,7 +45503,7 @@
         </is>
       </c>
       <c r="U494" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="495">
@@ -45600,7 +45616,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -45681,7 +45697,7 @@
         </is>
       </c>
       <c r="U496" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="497">
@@ -46275,7 +46291,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -46333,7 +46349,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O503" t="inlineStr"/>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P503" t="n">
         <v>0</v>
       </c>
@@ -46344,7 +46364,7 @@
         <v>0</v>
       </c>
       <c r="S503" t="n">
-        <v>48292</v>
+        <v>49229</v>
       </c>
       <c r="T503" t="inlineStr">
         <is>
@@ -46352,7 +46372,7 @@
         </is>
       </c>
       <c r="U503" s="2" t="n">
-        <v>45308</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="504">
@@ -46465,7 +46485,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -46534,7 +46554,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="n">
-        <v>2678</v>
+        <v>2685</v>
       </c>
       <c r="T505" t="inlineStr">
         <is>
@@ -46542,7 +46562,7 @@
         </is>
       </c>
       <c r="U505" s="2" t="n">
-        <v>45306</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="506">
@@ -47698,7 +47718,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -47771,7 +47791,7 @@
         <v>0</v>
       </c>
       <c r="S518" t="n">
-        <v>40279</v>
+        <v>40436</v>
       </c>
       <c r="T518" t="inlineStr">
         <is>
@@ -47779,7 +47799,7 @@
         </is>
       </c>
       <c r="U518" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="519">
@@ -48264,7 +48284,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -48337,7 +48357,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="n">
-        <v>2965</v>
+        <v>3045</v>
       </c>
       <c r="T524" t="inlineStr">
         <is>
@@ -48345,7 +48365,7 @@
         </is>
       </c>
       <c r="U524" s="2" t="n">
-        <v>45338</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="525">
@@ -48826,7 +48846,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -48899,7 +48919,7 @@
         <v>0</v>
       </c>
       <c r="S530" t="n">
-        <v>4235</v>
+        <v>4240</v>
       </c>
       <c r="T530" t="inlineStr">
         <is>
@@ -48907,7 +48927,7 @@
         </is>
       </c>
       <c r="U530" s="2" t="n">
-        <v>45336</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="531">
@@ -48923,7 +48943,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -49004,7 +49024,7 @@
         </is>
       </c>
       <c r="U531" s="2" t="n">
-        <v>45337</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="532">
@@ -49408,7 +49428,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -49481,7 +49501,7 @@
         <v>0</v>
       </c>
       <c r="S536" t="n">
-        <v>12952</v>
+        <v>12962</v>
       </c>
       <c r="T536" t="inlineStr">
         <is>
@@ -49489,7 +49509,7 @@
         </is>
       </c>
       <c r="U536" s="2" t="n">
-        <v>45314</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="537">
@@ -49505,7 +49525,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -49559,7 +49579,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O537" t="inlineStr"/>
+      <c r="O537" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P537" t="n">
         <v>0</v>
       </c>
@@ -49570,7 +49594,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="n">
-        <v>1490</v>
+        <v>1579</v>
       </c>
       <c r="T537" t="inlineStr">
         <is>
@@ -49578,7 +49602,7 @@
         </is>
       </c>
       <c r="U537" s="2" t="n">
-        <v>45278</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="538">
@@ -49982,7 +50006,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -50055,7 +50079,7 @@
         <v>0</v>
       </c>
       <c r="S542" t="n">
-        <v>5517</v>
+        <v>5558</v>
       </c>
       <c r="T542" t="inlineStr">
         <is>
@@ -50063,7 +50087,7 @@
         </is>
       </c>
       <c r="U542" s="2" t="n">
-        <v>45329</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="543">
@@ -51878,7 +51902,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -51951,7 +51975,7 @@
         <v>0</v>
       </c>
       <c r="S562" t="n">
-        <v>45339</v>
+        <v>45787</v>
       </c>
       <c r="T562" t="inlineStr">
         <is>
@@ -51959,7 +51983,7 @@
         </is>
       </c>
       <c r="U562" s="2" t="n">
-        <v>45337</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="563">
@@ -53188,7 +53212,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -53261,7 +53285,7 @@
         <v>0</v>
       </c>
       <c r="S576" t="n">
-        <v>5688</v>
+        <v>5690</v>
       </c>
       <c r="T576" t="inlineStr">
         <is>
@@ -53269,7 +53293,7 @@
         </is>
       </c>
       <c r="U576" s="2" t="n">
-        <v>45306</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="577">
@@ -55015,7 +55039,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -55088,7 +55112,7 @@
         </is>
       </c>
       <c r="U595" s="2" t="n">
-        <v>45238</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="596">
@@ -55201,7 +55225,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -55274,7 +55298,7 @@
         <v>0</v>
       </c>
       <c r="S597" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="T597" t="inlineStr">
         <is>
@@ -55282,7 +55306,7 @@
         </is>
       </c>
       <c r="U597" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="598">
@@ -55832,7 +55856,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -55913,7 +55937,7 @@
         </is>
       </c>
       <c r="U604" s="2" t="n">
-        <v>45334</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="605">
@@ -57279,7 +57303,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -57352,7 +57376,7 @@
         <v>0</v>
       </c>
       <c r="S619" t="n">
-        <v>8648</v>
+        <v>8896</v>
       </c>
       <c r="T619" t="inlineStr">
         <is>
@@ -57360,7 +57384,7 @@
         </is>
       </c>
       <c r="U619" s="2" t="n">
-        <v>45323</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="620">
@@ -57473,7 +57497,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -57546,7 +57570,7 @@
         <v>0</v>
       </c>
       <c r="S621" t="n">
-        <v>10029</v>
+        <v>10033</v>
       </c>
       <c r="T621" t="inlineStr">
         <is>
@@ -57554,7 +57578,7 @@
         </is>
       </c>
       <c r="U621" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="622">
@@ -57570,7 +57594,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -57643,7 +57667,7 @@
         <v>0</v>
       </c>
       <c r="S622" t="n">
-        <v>8359</v>
+        <v>8378</v>
       </c>
       <c r="T622" t="inlineStr">
         <is>
@@ -57651,7 +57675,7 @@
         </is>
       </c>
       <c r="U622" s="2" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="623">
@@ -58140,7 +58164,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -58209,7 +58233,7 @@
         <v>0</v>
       </c>
       <c r="S628" t="n">
-        <v>11132</v>
+        <v>11139</v>
       </c>
       <c r="T628" t="inlineStr">
         <is>
@@ -58217,7 +58241,7 @@
         </is>
       </c>
       <c r="U628" s="2" t="n">
-        <v>45275</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="629">
@@ -59288,7 +59312,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -59338,7 +59362,11 @@
         </is>
       </c>
       <c r="N640" t="inlineStr"/>
-      <c r="O640" t="inlineStr"/>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P640" t="n">
         <v>0</v>
       </c>
@@ -59349,7 +59377,7 @@
         <v>0</v>
       </c>
       <c r="S640" t="n">
-        <v>36242</v>
+        <v>36659</v>
       </c>
       <c r="T640" t="inlineStr">
         <is>
@@ -59357,7 +59385,7 @@
         </is>
       </c>
       <c r="U640" s="2" t="n">
-        <v>45301</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="641">
@@ -59749,7 +59777,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -59822,7 +59850,7 @@
         <v>0</v>
       </c>
       <c r="S645" t="n">
-        <v>26142</v>
+        <v>26151</v>
       </c>
       <c r="T645" t="inlineStr">
         <is>
@@ -59830,7 +59858,7 @@
         </is>
       </c>
       <c r="U645" s="2" t="n">
-        <v>45336</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="646">
@@ -60319,7 +60347,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -60392,7 +60420,7 @@
         <v>0</v>
       </c>
       <c r="S651" t="n">
-        <v>114880</v>
+        <v>116366</v>
       </c>
       <c r="T651" t="inlineStr">
         <is>
@@ -60400,7 +60428,7 @@
         </is>
       </c>
       <c r="U651" s="2" t="n">
-        <v>45316</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="652">
@@ -60416,7 +60444,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -60489,7 +60517,7 @@
         <v>0</v>
       </c>
       <c r="S652" t="n">
-        <v>27935</v>
+        <v>27948</v>
       </c>
       <c r="T652" t="inlineStr">
         <is>
@@ -60497,7 +60525,7 @@
         </is>
       </c>
       <c r="U652" s="2" t="n">
-        <v>45337</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="653">
@@ -62175,7 +62203,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -62256,7 +62284,7 @@
         </is>
       </c>
       <c r="U671" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="672">
@@ -63150,7 +63178,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -63204,7 +63232,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O682" t="inlineStr"/>
+      <c r="O682" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P682" t="n">
         <v>0</v>
       </c>
@@ -63215,7 +63247,7 @@
         <v>0</v>
       </c>
       <c r="S682" t="n">
-        <v>1322</v>
+        <v>1372</v>
       </c>
       <c r="T682" t="inlineStr">
         <is>
@@ -63223,7 +63255,7 @@
         </is>
       </c>
       <c r="U682" s="2" t="n">
-        <v>45280</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="683">
@@ -63328,7 +63360,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>2024/01/20</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -63389,7 +63421,7 @@
         <v>0</v>
       </c>
       <c r="S684" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="T684" t="inlineStr">
         <is>
@@ -63397,7 +63429,7 @@
         </is>
       </c>
       <c r="U684" s="2" t="n">
-        <v>45311</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="685">
@@ -64349,7 +64381,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -64422,7 +64454,7 @@
         <v>0</v>
       </c>
       <c r="S697" t="n">
-        <v>9901</v>
+        <v>10124</v>
       </c>
       <c r="T697" t="inlineStr">
         <is>
@@ -64430,7 +64462,7 @@
         </is>
       </c>
       <c r="U697" s="2" t="n">
-        <v>45306</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="698">
@@ -64875,7 +64907,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -64933,7 +64965,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O703" t="inlineStr"/>
+      <c r="O703" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P703" t="n">
         <v>0</v>
       </c>
@@ -64944,7 +64980,7 @@
         <v>0</v>
       </c>
       <c r="S703" t="n">
-        <v>19347</v>
+        <v>20174</v>
       </c>
       <c r="T703" t="inlineStr">
         <is>
@@ -64952,7 +64988,7 @@
         </is>
       </c>
       <c r="U703" s="2" t="n">
-        <v>45331</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="704">
@@ -65947,7 +65983,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -66020,7 +66056,7 @@
         <v>0</v>
       </c>
       <c r="S715" t="n">
-        <v>2491</v>
+        <v>2642</v>
       </c>
       <c r="T715" t="inlineStr">
         <is>
@@ -66028,7 +66064,7 @@
         </is>
       </c>
       <c r="U715" s="2" t="n">
-        <v>45315</v>
+        <v>45341</v>
       </c>
     </row>
     <row r="716">
@@ -66582,7 +66618,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -66655,7 +66691,7 @@
         <v>0</v>
       </c>
       <c r="S722" t="n">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="T722" t="inlineStr">
         <is>
@@ -66663,7 +66699,7 @@
         </is>
       </c>
       <c r="U722" s="2" t="n">
-        <v>45307</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="723">
@@ -67448,7 +67484,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D732" t="inlineStr"/>
@@ -67502,7 +67538,11 @@
           <t>x</t>
         </is>
       </c>
-      <c r="O732" t="inlineStr"/>
+      <c r="O732" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P732" t="n">
         <v>0</v>
       </c>
@@ -67513,7 +67553,7 @@
         <v>0</v>
       </c>
       <c r="S732" t="n">
-        <v>6117</v>
+        <v>6246</v>
       </c>
       <c r="T732" t="inlineStr">
         <is>
@@ -67521,7 +67561,7 @@
         </is>
       </c>
       <c r="U732" s="2" t="n">
-        <v>45315</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="733">
@@ -68209,7 +68249,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -68278,7 +68318,7 @@
         <v>0</v>
       </c>
       <c r="S741" t="n">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="T741" t="inlineStr">
         <is>
@@ -68286,7 +68326,7 @@
         </is>
       </c>
       <c r="U741" s="2" t="n">
-        <v>45296</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="742">
@@ -68849,7 +68889,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -68922,7 +68962,7 @@
         <v>0</v>
       </c>
       <c r="S749" t="n">
-        <v>855</v>
+        <v>896</v>
       </c>
       <c r="T749" t="inlineStr">
         <is>
@@ -68930,7 +68970,7 @@
         </is>
       </c>
       <c r="U749" s="2" t="n">
-        <v>45335</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="750">
@@ -69205,7 +69245,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -69242,8 +69282,16 @@
       </c>
       <c r="L753" t="inlineStr"/>
       <c r="M753" t="inlineStr"/>
-      <c r="N753" t="inlineStr"/>
-      <c r="O753" t="inlineStr"/>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O753" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P753" t="n">
         <v>0</v>
       </c>
@@ -69254,7 +69302,7 @@
         <v>0</v>
       </c>
       <c r="S753" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="T753" t="inlineStr">
         <is>
@@ -69262,7 +69310,7 @@
         </is>
       </c>
       <c r="U753" s="2" t="n">
-        <v>45331</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="754">
@@ -69278,7 +69326,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -69351,7 +69399,7 @@
         <v>0</v>
       </c>
       <c r="S754" t="n">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="T754" t="inlineStr">
         <is>
@@ -69359,7 +69407,7 @@
         </is>
       </c>
       <c r="U754" s="2" t="n">
-        <v>45300</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="755">
@@ -69748,7 +69796,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>2023/10/06</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -69772,13 +69820,41 @@
           <t>x</t>
         </is>
       </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
-      <c r="M760" t="inlineStr"/>
-      <c r="N760" t="inlineStr"/>
-      <c r="O760" t="inlineStr"/>
+      <c r="I760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="M760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O760" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P760" t="n">
         <v>0</v>
       </c>
@@ -69789,7 +69865,7 @@
         <v>0</v>
       </c>
       <c r="S760" t="n">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="T760" t="inlineStr">
         <is>
@@ -69797,7 +69873,7 @@
         </is>
       </c>
       <c r="U760" s="2" t="n">
-        <v>45205</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="761">
@@ -70258,7 +70334,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -70311,7 +70387,7 @@
         <v>0</v>
       </c>
       <c r="S766" t="n">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="T766" t="inlineStr">
         <is>
@@ -70319,7 +70395,7 @@
         </is>
       </c>
       <c r="U766" s="2" t="n">
-        <v>45335</v>
+        <v>45345</v>
       </c>
     </row>
     <row r="767">
@@ -70885,7 +70961,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D773" t="inlineStr"/>
@@ -70962,7 +71038,7 @@
         </is>
       </c>
       <c r="U773" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="774">
@@ -71047,7 +71123,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -71120,7 +71196,7 @@
         <v>0</v>
       </c>
       <c r="S775" t="n">
-        <v>934</v>
+        <v>991</v>
       </c>
       <c r="T775" t="inlineStr">
         <is>
@@ -71128,7 +71204,7 @@
         </is>
       </c>
       <c r="U775" s="2" t="n">
-        <v>45303</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="776">
@@ -71476,7 +71552,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D780" t="inlineStr"/>
@@ -71537,7 +71613,7 @@
         <v>0</v>
       </c>
       <c r="S780" t="n">
-        <v>5719</v>
+        <v>6208</v>
       </c>
       <c r="T780" t="inlineStr">
         <is>
@@ -71545,7 +71621,7 @@
         </is>
       </c>
       <c r="U780" s="2" t="n">
-        <v>45313</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="781">
@@ -71634,7 +71710,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -71707,7 +71783,7 @@
         <v>0</v>
       </c>
       <c r="S782" t="n">
-        <v>1215</v>
+        <v>1276</v>
       </c>
       <c r="T782" t="inlineStr">
         <is>
@@ -71715,7 +71791,7 @@
         </is>
       </c>
       <c r="U782" s="2" t="n">
-        <v>45301</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="783">
@@ -74268,7 +74344,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D816" t="inlineStr"/>
@@ -74309,7 +74385,7 @@
         </is>
       </c>
       <c r="U816" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="817">
@@ -74382,7 +74458,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D818" t="inlineStr"/>
@@ -74423,7 +74499,7 @@
         </is>
       </c>
       <c r="U818" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="819">
@@ -74439,7 +74515,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D819" t="inlineStr"/>
@@ -74480,7 +74556,7 @@
         </is>
       </c>
       <c r="U819" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="820">
@@ -74781,7 +74857,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D825" t="inlineStr"/>
@@ -74822,7 +74898,7 @@
         </is>
       </c>
       <c r="U825" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="826">
@@ -74838,7 +74914,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D826" t="inlineStr"/>
@@ -74879,7 +74955,7 @@
         </is>
       </c>
       <c r="U826" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="827">
@@ -75123,7 +75199,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D831" t="inlineStr"/>
@@ -75164,7 +75240,7 @@
         </is>
       </c>
       <c r="U831" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="832">
@@ -75921,7 +75997,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D845" t="inlineStr"/>
@@ -75962,7 +76038,7 @@
         </is>
       </c>
       <c r="U845" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="846">
@@ -76548,7 +76624,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D856" t="inlineStr"/>
@@ -76589,7 +76665,7 @@
         </is>
       </c>
       <c r="U856" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="857">
@@ -76605,7 +76681,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D857" t="inlineStr"/>
@@ -76646,7 +76722,7 @@
         </is>
       </c>
       <c r="U857" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="858">
@@ -77118,7 +77194,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="D866" t="inlineStr"/>
@@ -77159,7 +77235,7 @@
         </is>
       </c>
       <c r="U866" s="2" t="n">
-        <v>45338</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="867">
@@ -77354,7 +77430,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D870" t="inlineStr"/>
@@ -77387,7 +77463,7 @@
         <v>0</v>
       </c>
       <c r="S870" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T870" t="inlineStr">
         <is>
@@ -77395,7 +77471,7 @@
         </is>
       </c>
       <c r="U870" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="871">
@@ -77737,7 +77813,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/02/25</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
@@ -77778,7 +77854,7 @@
         </is>
       </c>
       <c r="U877" s="2" t="n">
-        <v>45313</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="878">
@@ -77945,7 +78021,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D881" t="inlineStr"/>
@@ -77958,8 +78034,16 @@
       <c r="K881" t="inlineStr"/>
       <c r="L881" t="inlineStr"/>
       <c r="M881" t="inlineStr"/>
-      <c r="N881" t="inlineStr"/>
-      <c r="O881" t="inlineStr"/>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O881" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P881" t="n">
         <v>0</v>
       </c>
@@ -77970,7 +78054,7 @@
         <v>0</v>
       </c>
       <c r="S881" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T881" t="inlineStr">
         <is>
@@ -77978,7 +78062,7 @@
         </is>
       </c>
       <c r="U881" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="882">
@@ -77994,7 +78078,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D882" t="inlineStr"/>
@@ -78027,7 +78111,7 @@
         <v>0</v>
       </c>
       <c r="S882" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T882" t="inlineStr">
         <is>
@@ -78035,7 +78119,7 @@
         </is>
       </c>
       <c r="U882" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
     <row r="883">
@@ -78149,7 +78233,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="D885" t="inlineStr"/>
@@ -78162,8 +78246,16 @@
       <c r="K885" t="inlineStr"/>
       <c r="L885" t="inlineStr"/>
       <c r="M885" t="inlineStr"/>
-      <c r="N885" t="inlineStr"/>
-      <c r="O885" t="inlineStr"/>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O885" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="P885" t="n">
         <v>0</v>
       </c>
@@ -78174,7 +78266,7 @@
         <v>0</v>
       </c>
       <c r="S885" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T885" t="inlineStr">
         <is>
@@ -78182,7 +78274,7 @@
         </is>
       </c>
       <c r="U885" s="2" t="n">
-        <v>45338</v>
+        <v>45343</v>
       </c>
     </row>
   </sheetData>
